--- a/automation_tracking.xlsx
+++ b/automation_tracking.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="90" windowWidth="12135" windowHeight="8385"/>
+    <workbookView xWindow="100" yWindow="100" windowWidth="12140" windowHeight="8380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments" sheetId="4" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="814">
   <si>
     <t>Billing Automation Test Plan</t>
   </si>
@@ -2519,6 +2519,21 @@
   </si>
   <si>
     <t>20PERCENTOFFOUTLINE</t>
+  </si>
+  <si>
+    <t>200 Users</t>
+  </si>
+  <si>
+    <t>300 Users</t>
+  </si>
+  <si>
+    <t>400 Users</t>
+  </si>
+  <si>
+    <t>500 Users</t>
+  </si>
+  <si>
+    <t>600 Users</t>
   </si>
 </sst>
 </file>
@@ -2620,7 +2635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2678,20 +2693,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
-        <bgColor rgb="FFB8CCE4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2714,23 +2717,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2743,8 +2731,22 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -2765,13 +2767,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="26">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="6" builtinId="38"/>
@@ -2779,8 +2780,22 @@
     <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="9" builtinId="50"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2796,8 +2811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:K40" totalsRowShown="0">
-  <autoFilter ref="A3:K40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:K36" totalsRowShown="0">
+  <autoFilter ref="A3:K36"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Test case Id"/>
     <tableColumn id="2" name="Company Type"/>
@@ -3102,19 +3117,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -3128,497 +3143,497 @@
         <v>793</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:4">
+      <c r="A2" s="18">
         <v>41222</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>17942</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:4">
+      <c r="A3" s="18">
         <v>41222</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>17955</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:4">
+      <c r="A4" s="18">
         <v>41222</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>18142</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:4">
+      <c r="A5" s="18">
         <v>41222</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>18145</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:4">
+      <c r="A6" s="18">
         <v>41222</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>18148</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:4">
+      <c r="A7" s="18">
         <v>41222</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>18151</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:4">
+      <c r="A8" s="18">
         <v>41222</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>18154</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:4">
+      <c r="A9" s="18">
         <v>41222</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>18851</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:4">
+      <c r="A10" s="18">
         <v>41222</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>18852</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:4">
+      <c r="A11" s="18">
         <v>41222</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>18853</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:4">
+      <c r="A12" s="18">
         <v>41222</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>17956</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:4">
+      <c r="A13" s="18">
         <v>41222</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>17957</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:4">
+      <c r="A14" s="18">
         <v>41222</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>17959</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C15" s="7">
+        <v>18720</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C16" s="7">
+        <v>18143</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C17" s="7">
+        <v>18146</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C18" s="7">
+        <v>18149</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C19" s="7">
+        <v>18152</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C20" s="7">
+        <v>18153</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C21" s="7">
+        <v>18155</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C22" s="7">
+        <v>17970</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C23" s="7">
+        <v>17971</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C24" s="7">
+        <v>17972</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C25" s="7">
+        <v>17973</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C26" s="7">
+        <v>17974</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C27" s="7">
+        <v>18722</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C15">
+      <c r="C28" s="7">
         <v>18144</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D28" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C16">
+      <c r="C29" s="7">
         <v>18147</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D29" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C17">
+      <c r="C30" s="7">
         <v>18150</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D30" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C18">
+      <c r="C31" s="7">
         <v>18156</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D31" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C19">
+      <c r="C32" s="7">
         <v>17962</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D32" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C20">
+      <c r="C33" s="7">
         <v>17963</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D33" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C21">
-        <v>17964</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C34" s="7">
+        <v>18736</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="18">
+        <v>41222</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C22">
-        <v>17966</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C35" s="7">
+        <v>18721</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B23" t="s">
-        <v>730</v>
-      </c>
-      <c r="C23">
-        <v>17967</v>
-      </c>
-      <c r="D23" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B24" t="s">
-        <v>730</v>
-      </c>
-      <c r="C24">
-        <v>17968</v>
-      </c>
-      <c r="D24" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>41229</v>
-      </c>
-      <c r="B25" t="s">
-        <v>730</v>
-      </c>
-      <c r="C25">
-        <v>18736</v>
-      </c>
-      <c r="D25" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B26" t="s">
-        <v>733</v>
-      </c>
-      <c r="C26">
-        <v>18143</v>
-      </c>
-      <c r="D26" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B27" t="s">
-        <v>733</v>
-      </c>
-      <c r="C27">
-        <v>18146</v>
-      </c>
-      <c r="D27" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B28" t="s">
-        <v>733</v>
-      </c>
-      <c r="C28">
-        <v>18149</v>
-      </c>
-      <c r="D28" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B29" t="s">
-        <v>733</v>
-      </c>
-      <c r="C29">
-        <v>18152</v>
-      </c>
-      <c r="D29" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B30" t="s">
-        <v>733</v>
-      </c>
-      <c r="C30">
-        <v>18153</v>
-      </c>
-      <c r="D30" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B31" t="s">
-        <v>733</v>
-      </c>
-      <c r="C31">
-        <v>18155</v>
-      </c>
-      <c r="D31" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B32" t="s">
-        <v>733</v>
-      </c>
-      <c r="C32">
-        <v>17970</v>
-      </c>
-      <c r="D32" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B33" t="s">
-        <v>733</v>
-      </c>
-      <c r="C33">
-        <v>17971</v>
-      </c>
-      <c r="D33" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B34" t="s">
-        <v>733</v>
-      </c>
-      <c r="C34">
-        <v>17972</v>
-      </c>
-      <c r="D34" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>41236</v>
-      </c>
-      <c r="B35" t="s">
-        <v>733</v>
-      </c>
-      <c r="C35">
-        <v>17973</v>
-      </c>
-      <c r="D35" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>41236</v>
+    <row r="36" spans="1:4">
+      <c r="A36" s="17">
+        <v>41250</v>
       </c>
       <c r="B36" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="C36">
-        <v>17974</v>
+        <v>13175</v>
       </c>
       <c r="D36" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="17">
         <v>41250</v>
       </c>
@@ -3626,13 +3641,13 @@
         <v>755</v>
       </c>
       <c r="C37">
-        <v>13175</v>
+        <v>13182</v>
       </c>
       <c r="D37" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="17">
         <v>41250</v>
       </c>
@@ -3640,13 +3655,13 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>13182</v>
+        <v>13186</v>
       </c>
       <c r="D38" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="17">
         <v>41250</v>
       </c>
@@ -3654,27 +3669,27 @@
         <v>755</v>
       </c>
       <c r="C39">
-        <v>13186</v>
+        <v>13190</v>
       </c>
       <c r="D39" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="17">
         <v>41250</v>
       </c>
       <c r="B40" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="C40">
-        <v>13190</v>
+        <v>15376</v>
       </c>
       <c r="D40" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="17">
         <v>41250</v>
       </c>
@@ -3682,13 +3697,13 @@
         <v>737</v>
       </c>
       <c r="C41">
-        <v>15376</v>
+        <v>15286</v>
       </c>
       <c r="D41" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="17">
         <v>41250</v>
       </c>
@@ -3696,13 +3711,13 @@
         <v>737</v>
       </c>
       <c r="C42">
-        <v>15286</v>
+        <v>15275</v>
       </c>
       <c r="D42" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="17">
         <v>41250</v>
       </c>
@@ -3710,13 +3725,13 @@
         <v>737</v>
       </c>
       <c r="C43">
-        <v>15275</v>
+        <v>15273</v>
       </c>
       <c r="D43" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="17">
         <v>41250</v>
       </c>
@@ -3724,13 +3739,13 @@
         <v>737</v>
       </c>
       <c r="C44">
-        <v>15273</v>
+        <v>15272</v>
       </c>
       <c r="D44" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="17">
         <v>41250</v>
       </c>
@@ -3738,13 +3753,13 @@
         <v>737</v>
       </c>
       <c r="C45">
-        <v>15272</v>
+        <v>15266</v>
       </c>
       <c r="D45" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="17">
         <v>41250</v>
       </c>
@@ -3752,13 +3767,13 @@
         <v>737</v>
       </c>
       <c r="C46">
-        <v>15266</v>
+        <v>15357</v>
       </c>
       <c r="D46" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="17">
         <v>41250</v>
       </c>
@@ -3766,13 +3781,13 @@
         <v>737</v>
       </c>
       <c r="C47">
-        <v>15357</v>
+        <v>15458</v>
       </c>
       <c r="D47" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="17">
         <v>41250</v>
       </c>
@@ -3780,27 +3795,27 @@
         <v>737</v>
       </c>
       <c r="C48">
-        <v>15458</v>
+        <v>15459</v>
       </c>
       <c r="D48" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="17">
         <v>41250</v>
       </c>
       <c r="B49" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="C49">
-        <v>15459</v>
+        <v>13707</v>
       </c>
       <c r="D49" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="17">
         <v>41250</v>
       </c>
@@ -3808,27 +3823,27 @@
         <v>748</v>
       </c>
       <c r="C50">
-        <v>13707</v>
+        <v>13734</v>
       </c>
       <c r="D50" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="17">
         <v>41250</v>
       </c>
       <c r="B51" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C51">
-        <v>13734</v>
+        <v>13760</v>
       </c>
       <c r="D51" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="17">
         <v>41250</v>
       </c>
@@ -3836,27 +3851,27 @@
         <v>750</v>
       </c>
       <c r="C52">
-        <v>13760</v>
+        <v>14140</v>
       </c>
       <c r="D52" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
-        <v>41250</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="15">
+        <v>41264</v>
       </c>
       <c r="B53" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C53">
-        <v>14140</v>
+        <v>15869</v>
       </c>
       <c r="D53" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="15">
         <v>41264</v>
       </c>
@@ -3864,13 +3879,13 @@
         <v>760</v>
       </c>
       <c r="C54">
-        <v>15869</v>
+        <v>15879</v>
       </c>
       <c r="D54" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="15">
         <v>41264</v>
       </c>
@@ -3878,13 +3893,13 @@
         <v>760</v>
       </c>
       <c r="C55">
-        <v>15879</v>
+        <v>15885</v>
       </c>
       <c r="D55" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="15">
         <v>41264</v>
       </c>
@@ -3892,13 +3907,13 @@
         <v>760</v>
       </c>
       <c r="C56">
-        <v>15885</v>
+        <v>15888</v>
       </c>
       <c r="D56" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="15">
         <v>41264</v>
       </c>
@@ -3906,13 +3921,13 @@
         <v>760</v>
       </c>
       <c r="C57">
-        <v>15888</v>
+        <v>15889</v>
       </c>
       <c r="D57" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="15">
         <v>41264</v>
       </c>
@@ -3920,13 +3935,13 @@
         <v>760</v>
       </c>
       <c r="C58">
-        <v>15889</v>
+        <v>15890</v>
       </c>
       <c r="D58" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="15">
         <v>41264</v>
       </c>
@@ -3934,13 +3949,13 @@
         <v>760</v>
       </c>
       <c r="C59">
-        <v>15890</v>
+        <v>15891</v>
       </c>
       <c r="D59" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="15">
         <v>41264</v>
       </c>
@@ -3948,13 +3963,13 @@
         <v>760</v>
       </c>
       <c r="C60">
-        <v>15891</v>
+        <v>15892</v>
       </c>
       <c r="D60" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="15">
         <v>41264</v>
       </c>
@@ -3962,49 +3977,52 @@
         <v>760</v>
       </c>
       <c r="C61">
-        <v>15892</v>
+        <v>15893</v>
       </c>
       <c r="D61" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="15">
         <v>41264</v>
       </c>
       <c r="B62" t="s">
-        <v>760</v>
-      </c>
-      <c r="C62">
-        <v>15893</v>
+        <v>664</v>
+      </c>
+      <c r="C62" t="s">
+        <v>771</v>
       </c>
       <c r="D62" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+      <c r="E62" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="15">
         <v>41264</v>
       </c>
       <c r="B63" t="s">
-        <v>664</v>
+        <v>783</v>
       </c>
       <c r="C63" t="s">
         <v>771</v>
       </c>
       <c r="D63" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="E63" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="15">
         <v>41264</v>
       </c>
       <c r="B64" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C64" t="s">
         <v>771</v>
@@ -4013,27 +4031,24 @@
         <v>775</v>
       </c>
       <c r="E64" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="15">
-        <v>41264</v>
+        <v>40912</v>
       </c>
       <c r="B65" t="s">
-        <v>782</v>
-      </c>
-      <c r="C65" t="s">
-        <v>771</v>
+        <v>778</v>
+      </c>
+      <c r="C65">
+        <v>19039</v>
       </c>
       <c r="D65" t="s">
-        <v>775</v>
-      </c>
-      <c r="E65" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="15">
         <v>40912</v>
       </c>
@@ -4041,27 +4056,27 @@
         <v>778</v>
       </c>
       <c r="C66">
-        <v>19039</v>
+        <v>19023</v>
       </c>
       <c r="D66" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="15">
         <v>40912</v>
       </c>
       <c r="B67" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C67">
-        <v>19023</v>
+        <v>19102</v>
       </c>
       <c r="D67" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="15">
         <v>40912</v>
       </c>
@@ -4069,60 +4084,60 @@
         <v>782</v>
       </c>
       <c r="C68">
-        <v>19102</v>
+        <v>19108</v>
       </c>
       <c r="D68" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="15">
         <v>40912</v>
       </c>
       <c r="B69" t="s">
-        <v>782</v>
-      </c>
-      <c r="C69">
-        <v>19108</v>
+        <v>785</v>
+      </c>
+      <c r="C69" t="s">
+        <v>787</v>
       </c>
       <c r="D69" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="15">
         <v>40912</v>
       </c>
       <c r="B70" t="s">
-        <v>785</v>
-      </c>
-      <c r="C70" t="s">
-        <v>787</v>
+        <v>688</v>
+      </c>
+      <c r="C70">
+        <v>19165</v>
       </c>
       <c r="D70" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="15">
         <v>40912</v>
       </c>
       <c r="B71" t="s">
-        <v>688</v>
+        <v>789</v>
       </c>
       <c r="C71">
-        <v>19165</v>
+        <v>18913</v>
       </c>
       <c r="D71" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="15">
         <v>40912</v>
       </c>
       <c r="B72" t="s">
-        <v>789</v>
+        <v>39</v>
       </c>
       <c r="C72">
         <v>18913</v>
@@ -4131,50 +4146,37 @@
         <v>794</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="15">
         <v>40912</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>659</v>
       </c>
       <c r="C73">
-        <v>18913</v>
+        <v>13498</v>
       </c>
       <c r="D73" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="15">
         <v>40912</v>
       </c>
       <c r="B74" t="s">
-        <v>659</v>
-      </c>
-      <c r="C74">
-        <v>13498</v>
+        <v>795</v>
+      </c>
+      <c r="C74" t="s">
+        <v>771</v>
       </c>
       <c r="D74" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15">
-        <v>40912</v>
-      </c>
-      <c r="B75" t="s">
-        <v>795</v>
-      </c>
-      <c r="C75" t="s">
-        <v>771</v>
-      </c>
-      <c r="D75" t="s">
-        <v>775</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4191,22 +4193,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>684</v>
       </c>
@@ -4229,12 +4231,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -4262,7 +4264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -4276,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -4332,7 +4334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -4346,12 +4348,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -4379,7 +4381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -4393,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -4407,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -4463,12 +4465,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -4496,7 +4498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -4510,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -4524,12 +4526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -4543,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>8</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -4585,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>13</v>
       </c>
@@ -4596,12 +4598,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>17</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -4671,12 +4673,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>20</v>
       </c>
@@ -4690,12 +4692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>17</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>8</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>24</v>
       </c>
@@ -4779,12 +4781,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="B48" t="s">
         <v>25</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="B50" t="s">
         <v>22</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="B51" t="s">
         <v>16</v>
       </c>
@@ -4840,12 +4842,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="B53" t="s">
         <v>13</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="B54" t="s">
         <v>27</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="B55" t="s">
         <v>28</v>
       </c>
@@ -4887,12 +4889,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="B57" t="s">
         <v>29</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="B58" t="s">
         <v>27</v>
       </c>
@@ -4920,12 +4922,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="B60" t="s">
         <v>14</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="B61" t="s">
         <v>31</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="B62" t="s">
         <v>9</v>
       </c>
@@ -4967,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="B63" t="s">
         <v>10</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="B64" t="s">
         <v>11</v>
       </c>
@@ -4995,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5">
       <c r="B65" t="s">
         <v>12</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5">
       <c r="B66" t="s">
         <v>13</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5">
       <c r="B68" t="s">
         <v>33</v>
       </c>
@@ -5070,26 +5072,26 @@
       <selection pane="bottomLeft" activeCell="D67" sqref="D67:D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -5118,12 +5120,12 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="G2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="D4" t="s">
         <v>693</v>
       </c>
@@ -5166,7 +5168,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="15">
         <v>41222</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="15">
         <v>41222</v>
       </c>
@@ -5262,7 +5264,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="15">
         <v>41222</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="15">
         <v>41222</v>
       </c>
@@ -5358,7 +5360,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="15">
         <v>41222</v>
       </c>
@@ -5406,7 +5408,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="15">
         <v>41222</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="15">
         <v>41222</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="15">
         <v>41222</v>
       </c>
@@ -5544,7 +5546,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="15">
         <v>41222</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="15">
         <v>41222</v>
       </c>
@@ -5634,7 +5636,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="15">
         <v>41222</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="15">
         <v>41222</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="15">
         <v>41222</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="15">
         <v>41222</v>
       </c>
@@ -5813,7 +5815,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="15">
         <v>41222</v>
       </c>
@@ -5863,7 +5865,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="15">
         <v>41222</v>
       </c>
@@ -5913,7 +5915,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="15">
         <v>41222</v>
       </c>
@@ -5963,7 +5965,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="15">
         <v>41222</v>
       </c>
@@ -6010,7 +6012,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="15">
         <v>41222</v>
       </c>
@@ -6057,7 +6059,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="15">
         <v>41222</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="15">
         <v>41222</v>
       </c>
@@ -6151,7 +6153,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="15">
         <v>41222</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="15">
         <v>41222</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="15">
         <v>41222</v>
       </c>
@@ -6277,7 +6279,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="15">
         <v>41222</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="15">
         <v>41222</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="15">
         <v>41222</v>
       </c>
@@ -6418,7 +6420,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="15">
         <v>41222</v>
       </c>
@@ -6465,7 +6467,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="15">
         <v>41222</v>
       </c>
@@ -6512,7 +6514,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="15">
         <v>41222</v>
       </c>
@@ -6559,7 +6561,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="15">
         <v>41222</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="15">
         <v>41222</v>
       </c>
@@ -6653,7 +6655,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="15">
         <v>41222</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="B40" t="s">
         <v>42</v>
       </c>
@@ -6699,7 +6701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="17">
         <v>41236</v>
       </c>
@@ -6722,7 +6724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="17">
         <v>41236</v>
       </c>
@@ -6745,7 +6747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="17">
         <v>41236</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="17">
         <v>41236</v>
       </c>
@@ -6791,7 +6793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="17">
         <v>41236</v>
       </c>
@@ -6811,7 +6813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="17">
         <v>41236</v>
       </c>
@@ -6831,7 +6833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="17">
         <v>41236</v>
       </c>
@@ -6851,7 +6853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="17">
         <v>41236</v>
       </c>
@@ -6871,7 +6873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="17">
         <v>41236</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="17">
         <v>41236</v>
       </c>
@@ -6911,7 +6913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="17">
         <v>41236</v>
       </c>
@@ -6931,7 +6933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="17">
         <v>41236</v>
       </c>
@@ -6951,7 +6953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="17">
         <v>41236</v>
       </c>
@@ -6971,7 +6973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="17">
         <v>41236</v>
       </c>
@@ -6994,7 +6996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="17">
         <v>41236</v>
       </c>
@@ -7017,7 +7019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="17">
         <v>41236</v>
       </c>
@@ -7040,7 +7042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="17">
         <v>41236</v>
       </c>
@@ -7063,7 +7065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="15">
         <v>41250</v>
       </c>
@@ -7086,7 +7088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="15">
         <v>41250</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="15">
         <v>41250</v>
       </c>
@@ -7132,7 +7134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="15">
         <v>41250</v>
       </c>
@@ -7155,7 +7157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="15">
         <v>41250</v>
       </c>
@@ -7178,7 +7180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="15">
         <v>41250</v>
       </c>
@@ -7201,7 +7203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="15">
         <v>41250</v>
       </c>
@@ -7224,7 +7226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="15">
         <v>41250</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="15">
         <v>41250</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="15">
         <v>41250</v>
       </c>
@@ -7290,7 +7292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="15">
         <v>41250</v>
       </c>
@@ -7310,7 +7312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="15">
         <v>41250</v>
       </c>
@@ -7330,7 +7332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70" s="15">
         <v>41264</v>
       </c>
@@ -7353,7 +7355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71" s="15">
         <v>41264</v>
       </c>
@@ -7376,7 +7378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72" s="15">
         <v>41264</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="15">
         <v>41264</v>
       </c>
@@ -7417,7 +7419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7">
       <c r="A74" s="15">
         <v>41264</v>
       </c>
@@ -7440,7 +7442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="15">
         <v>41264</v>
       </c>
@@ -7460,7 +7462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="15">
         <v>41264</v>
       </c>
@@ -7483,7 +7485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="15">
         <v>41264</v>
       </c>
@@ -7503,7 +7505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="16">
       <c r="A78" s="14"/>
       <c r="B78" t="s">
         <v>40</v>
@@ -7524,7 +7526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="16">
       <c r="A79" s="14"/>
       <c r="B79" t="s">
         <v>40</v>
@@ -7545,7 +7547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="16">
       <c r="A80" s="14"/>
       <c r="B80" t="s">
         <v>39</v>
@@ -7566,7 +7568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="16">
       <c r="A81" s="14"/>
       <c r="B81" t="s">
         <v>50</v>
@@ -7587,7 +7589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="16">
       <c r="A82" s="14"/>
       <c r="B82" t="s">
         <v>50</v>
@@ -7608,7 +7610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="16">
       <c r="A83" s="14"/>
       <c r="B83" t="s">
         <v>50</v>
@@ -7629,7 +7631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="16">
       <c r="A84" s="14"/>
       <c r="B84" t="s">
         <v>50</v>
@@ -7650,7 +7652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="16">
       <c r="A85" s="14"/>
       <c r="B85" t="s">
         <v>50</v>
@@ -7671,7 +7673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="16">
       <c r="A86" s="14"/>
       <c r="B86" t="s">
         <v>50</v>
@@ -7692,7 +7694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="16">
       <c r="A87" s="14"/>
       <c r="B87" t="s">
         <v>50</v>
@@ -7713,7 +7715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="16">
       <c r="A88" s="14"/>
       <c r="B88" t="s">
         <v>50</v>
@@ -7734,7 +7736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="16">
       <c r="A89" s="14"/>
       <c r="B89" t="s">
         <v>50</v>
@@ -7755,7 +7757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="16">
       <c r="A90" s="14"/>
       <c r="B90" t="s">
         <v>50</v>
@@ -7776,7 +7778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="16">
       <c r="A91" s="14"/>
       <c r="B91" t="s">
         <v>50</v>
@@ -7797,7 +7799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="16">
       <c r="A92" s="14"/>
       <c r="B92" t="s">
         <v>50</v>
@@ -7818,7 +7820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="16">
       <c r="A93" s="14"/>
       <c r="B93" t="s">
         <v>50</v>
@@ -7839,7 +7841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="16">
       <c r="A94" s="14"/>
       <c r="B94" t="s">
         <v>50</v>
@@ -7860,7 +7862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="16">
       <c r="A95" s="14"/>
       <c r="B95" t="s">
         <v>50</v>
@@ -7881,7 +7883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="16">
       <c r="A96" s="14"/>
       <c r="B96" t="s">
         <v>50</v>
@@ -7902,7 +7904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="16">
       <c r="A97" s="14"/>
       <c r="B97" t="s">
         <v>50</v>
@@ -7923,7 +7925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="16">
       <c r="A98" s="14"/>
       <c r="B98" t="s">
         <v>50</v>
@@ -7944,7 +7946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="16">
       <c r="A99" s="14"/>
       <c r="B99" t="s">
         <v>50</v>
@@ -7965,10 +7967,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="14"/>
       <c r="B101" t="s">
         <v>40</v>
@@ -7989,10 +7991,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="14"/>
       <c r="B103" t="s">
         <v>74</v>
@@ -8013,7 +8015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="14"/>
       <c r="B104" t="s">
         <v>74</v>
@@ -8034,7 +8036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="14"/>
       <c r="B105" t="s">
         <v>74</v>
@@ -8055,7 +8057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="14"/>
       <c r="B106" t="s">
         <v>74</v>
@@ -8076,7 +8078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="14"/>
       <c r="B107" t="s">
         <v>74</v>
@@ -8097,7 +8099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="14"/>
       <c r="B108" t="s">
         <v>74</v>
@@ -8118,7 +8120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="14"/>
       <c r="B109" t="s">
         <v>74</v>
@@ -8139,7 +8141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="14"/>
       <c r="B110" t="s">
         <v>74</v>
@@ -8160,7 +8162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="14"/>
       <c r="B111" t="s">
         <v>74</v>
@@ -8181,7 +8183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="14"/>
       <c r="B112" t="s">
         <v>74</v>
@@ -8202,7 +8204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="14"/>
       <c r="B113" t="s">
         <v>74</v>
@@ -8223,7 +8225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="14"/>
       <c r="B114" t="s">
         <v>74</v>
@@ -8244,7 +8246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="14"/>
       <c r="B115" t="s">
         <v>74</v>
@@ -8265,7 +8267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="14"/>
       <c r="B116" t="s">
         <v>74</v>
@@ -8286,7 +8288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="14"/>
       <c r="B117" t="s">
         <v>74</v>
@@ -8307,7 +8309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="14"/>
       <c r="B118" t="s">
         <v>74</v>
@@ -8328,7 +8330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="14"/>
       <c r="B119" t="s">
         <v>74</v>
@@ -8349,10 +8351,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="14"/>
       <c r="B121" t="s">
         <v>16</v>
@@ -8373,7 +8375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="14"/>
       <c r="B122" t="s">
         <v>16</v>
@@ -8394,7 +8396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="14"/>
       <c r="B123" t="s">
         <v>16</v>
@@ -8415,7 +8417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="14"/>
       <c r="B124" t="s">
         <v>16</v>
@@ -8436,7 +8438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="14"/>
       <c r="B125" t="s">
         <v>16</v>
@@ -8457,7 +8459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="14"/>
       <c r="B126" t="s">
         <v>16</v>
@@ -8478,7 +8480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="14"/>
       <c r="B127" t="s">
         <v>16</v>
@@ -8499,7 +8501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="14"/>
       <c r="B128" t="s">
         <v>16</v>
@@ -8520,7 +8522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="14"/>
       <c r="B129" t="s">
         <v>16</v>
@@ -8541,7 +8543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="14"/>
       <c r="B130" t="s">
         <v>16</v>
@@ -8562,7 +8564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="14"/>
       <c r="B131" t="s">
         <v>16</v>
@@ -8583,7 +8585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="14"/>
       <c r="B132" t="s">
         <v>16</v>
@@ -8604,7 +8606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="14"/>
       <c r="B133" t="s">
         <v>16</v>
@@ -8625,7 +8627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="14"/>
       <c r="B134" t="s">
         <v>16</v>
@@ -8646,7 +8648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="14"/>
       <c r="B135" t="s">
         <v>16</v>
@@ -8667,7 +8669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="14"/>
       <c r="B136" t="s">
         <v>16</v>
@@ -8688,7 +8690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="14"/>
       <c r="B137" t="s">
         <v>16</v>
@@ -8709,7 +8711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="14"/>
       <c r="B138" t="s">
         <v>16</v>
@@ -8730,7 +8732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="14"/>
       <c r="B139" t="s">
         <v>16</v>
@@ -8751,7 +8753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="14"/>
       <c r="B140" t="s">
         <v>16</v>
@@ -8772,7 +8774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="14"/>
       <c r="B141" t="s">
         <v>16</v>
@@ -8793,7 +8795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="14"/>
       <c r="B142" t="s">
         <v>16</v>
@@ -8811,10 +8813,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="14"/>
       <c r="B144" t="s">
         <v>117</v>
@@ -8832,10 +8834,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="14"/>
       <c r="B146" t="s">
         <v>119</v>
@@ -8856,7 +8858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="14"/>
       <c r="B147" t="s">
         <v>119</v>
@@ -8877,7 +8879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="14"/>
       <c r="B148" t="s">
         <v>119</v>
@@ -8898,7 +8900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="14"/>
       <c r="B149" t="s">
         <v>119</v>
@@ -8919,7 +8921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="14"/>
       <c r="B150" t="s">
         <v>119</v>
@@ -8940,7 +8942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="14"/>
       <c r="B151" t="s">
         <v>119</v>
@@ -8961,7 +8963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="14"/>
       <c r="B152" t="s">
         <v>119</v>
@@ -8982,7 +8984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="14"/>
       <c r="B153" t="s">
         <v>119</v>
@@ -9003,7 +9005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="14"/>
       <c r="B154" t="s">
         <v>119</v>
@@ -9024,7 +9026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="14"/>
       <c r="B155" t="s">
         <v>119</v>
@@ -9045,7 +9047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="14"/>
       <c r="B156" t="s">
         <v>119</v>
@@ -9066,7 +9068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="14"/>
       <c r="B157" t="s">
         <v>119</v>
@@ -9087,7 +9089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="14"/>
       <c r="B158" t="s">
         <v>119</v>
@@ -9108,7 +9110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="14"/>
       <c r="B159" t="s">
         <v>119</v>
@@ -9129,7 +9131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="14"/>
       <c r="B160" t="s">
         <v>119</v>
@@ -9150,7 +9152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="14"/>
       <c r="B161" t="s">
         <v>119</v>
@@ -9171,7 +9173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="14"/>
       <c r="B162" t="s">
         <v>119</v>
@@ -9192,7 +9194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="14"/>
       <c r="B163" t="s">
         <v>119</v>
@@ -9213,10 +9215,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="14"/>
       <c r="B165" t="s">
         <v>139</v>
@@ -9237,10 +9239,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="14"/>
       <c r="B167" t="s">
         <v>141</v>
@@ -9261,7 +9263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="14"/>
       <c r="B168" t="s">
         <v>141</v>
@@ -9282,7 +9284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="14"/>
       <c r="B169" t="s">
         <v>141</v>
@@ -9303,7 +9305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="14"/>
       <c r="B170" t="s">
         <v>141</v>
@@ -9324,7 +9326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="14"/>
       <c r="B171" t="s">
         <v>141</v>
@@ -9345,7 +9347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="14"/>
       <c r="B172" t="s">
         <v>141</v>
@@ -9366,7 +9368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="14"/>
       <c r="B173" t="s">
         <v>141</v>
@@ -9387,7 +9389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="14"/>
       <c r="B174" t="s">
         <v>141</v>
@@ -9408,7 +9410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="14"/>
       <c r="B175" t="s">
         <v>141</v>
@@ -9429,7 +9431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="14"/>
       <c r="F176" t="s">
         <v>2</v>
@@ -9438,7 +9440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="14"/>
       <c r="B177" t="s">
         <v>152</v>
@@ -9459,7 +9461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="14"/>
       <c r="B178" t="s">
         <v>152</v>
@@ -9480,7 +9482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="14"/>
       <c r="B179" t="s">
         <v>152</v>
@@ -9501,7 +9503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="14"/>
       <c r="B180" t="s">
         <v>152</v>
@@ -9522,7 +9524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="14"/>
       <c r="B181" t="s">
         <v>152</v>
@@ -9543,7 +9545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="14"/>
       <c r="B182" t="s">
         <v>152</v>
@@ -9564,7 +9566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="14"/>
       <c r="B183" t="s">
         <v>152</v>
@@ -9585,7 +9587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="14"/>
       <c r="B184" t="s">
         <v>152</v>
@@ -9606,7 +9608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="14"/>
       <c r="B185" t="s">
         <v>152</v>
@@ -9627,7 +9629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="14"/>
       <c r="B186" t="s">
         <v>152</v>
@@ -9648,7 +9650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="14"/>
       <c r="B187" t="s">
         <v>152</v>
@@ -9669,7 +9671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="14"/>
       <c r="B188" t="s">
         <v>152</v>
@@ -9690,10 +9692,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="14"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="14"/>
       <c r="B190" t="s">
         <v>166</v>
@@ -9714,7 +9716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="14"/>
       <c r="B191" t="s">
         <v>166</v>
@@ -9735,7 +9737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="14"/>
       <c r="B192" t="s">
         <v>166</v>
@@ -9756,7 +9758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="14"/>
       <c r="B193" t="s">
         <v>166</v>
@@ -9777,7 +9779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="14"/>
       <c r="B194" t="s">
         <v>166</v>
@@ -9798,7 +9800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="14"/>
       <c r="B195" t="s">
         <v>166</v>
@@ -9819,7 +9821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="14"/>
       <c r="B196" t="s">
         <v>166</v>
@@ -9840,7 +9842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="14"/>
       <c r="B197" t="s">
         <v>166</v>
@@ -9861,7 +9863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="14"/>
       <c r="B198" t="s">
         <v>166</v>
@@ -9882,7 +9884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="14"/>
       <c r="B199" t="s">
         <v>166</v>
@@ -9903,7 +9905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="14"/>
       <c r="B200" t="s">
         <v>166</v>
@@ -9924,7 +9926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="14"/>
       <c r="B201" t="s">
         <v>166</v>
@@ -9945,7 +9947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="14"/>
       <c r="B202" t="s">
         <v>166</v>
@@ -9966,7 +9968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="14"/>
       <c r="B203" t="s">
         <v>166</v>
@@ -9987,7 +9989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="14"/>
       <c r="B204" t="s">
         <v>166</v>
@@ -10008,7 +10010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="14"/>
       <c r="B205" t="s">
         <v>166</v>
@@ -10029,7 +10031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="14"/>
       <c r="B206" t="s">
         <v>166</v>
@@ -10050,7 +10052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="14"/>
       <c r="B207" t="s">
         <v>166</v>
@@ -10071,7 +10073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="14"/>
       <c r="B208" t="s">
         <v>166</v>
@@ -10092,7 +10094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="14"/>
       <c r="B209" t="s">
         <v>166</v>
@@ -10113,7 +10115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="14"/>
       <c r="B210" t="s">
         <v>166</v>
@@ -10134,7 +10136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="14"/>
       <c r="B211" t="s">
         <v>166</v>
@@ -10155,7 +10157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="14"/>
       <c r="B212" t="s">
         <v>166</v>
@@ -10176,7 +10178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="14"/>
       <c r="B213" t="s">
         <v>166</v>
@@ -10197,7 +10199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="14"/>
       <c r="B214" t="s">
         <v>166</v>
@@ -10218,7 +10220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="14"/>
       <c r="B215" t="s">
         <v>166</v>
@@ -10239,16 +10241,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="14"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="14"/>
       <c r="B217" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="14"/>
       <c r="B218" t="s">
         <v>623</v>
@@ -10269,7 +10271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="14"/>
       <c r="B219" t="s">
         <v>623</v>
@@ -10290,7 +10292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="14"/>
       <c r="B220" t="s">
         <v>623</v>
@@ -10311,7 +10313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="14"/>
       <c r="B221" t="s">
         <v>623</v>
@@ -10332,7 +10334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="14"/>
       <c r="B222" t="s">
         <v>623</v>
@@ -10353,7 +10355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="14"/>
       <c r="B223" t="s">
         <v>623</v>
@@ -10374,7 +10376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="14"/>
       <c r="B224" t="s">
         <v>623</v>
@@ -10395,7 +10397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="14"/>
       <c r="B225" t="s">
         <v>623</v>
@@ -10416,7 +10418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="14"/>
       <c r="B226" t="s">
         <v>623</v>
@@ -10437,7 +10439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="14"/>
       <c r="B227" t="s">
         <v>623</v>
@@ -10458,7 +10460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="14"/>
       <c r="B228" t="s">
         <v>623</v>
@@ -10479,7 +10481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="14"/>
       <c r="B229" t="s">
         <v>623</v>
@@ -10500,7 +10502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="14"/>
       <c r="B230" t="s">
         <v>623</v>
@@ -10521,7 +10523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="14"/>
       <c r="B231" t="s">
         <v>623</v>
@@ -10542,7 +10544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="14"/>
       <c r="B232" t="s">
         <v>623</v>
@@ -10563,7 +10565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="14"/>
       <c r="B233" t="s">
         <v>623</v>
@@ -10584,7 +10586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="14"/>
       <c r="B234" t="s">
         <v>623</v>
@@ -10605,7 +10607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="14"/>
       <c r="B235" t="s">
         <v>623</v>
@@ -10626,7 +10628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="14"/>
       <c r="B236" t="s">
         <v>623</v>
@@ -10647,7 +10649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="14"/>
       <c r="B237" t="s">
         <v>623</v>
@@ -10668,7 +10670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="14"/>
       <c r="B238" t="s">
         <v>623</v>
@@ -10689,7 +10691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="14"/>
       <c r="B239" t="s">
         <v>623</v>
@@ -10710,7 +10712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="14"/>
       <c r="B240" t="s">
         <v>623</v>
@@ -10731,7 +10733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="14"/>
       <c r="B241" t="s">
         <v>623</v>
@@ -10752,7 +10754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="14"/>
       <c r="B242" t="s">
         <v>623</v>
@@ -10773,7 +10775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="14"/>
       <c r="B243" t="s">
         <v>623</v>
@@ -10794,7 +10796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="14"/>
       <c r="B244" t="s">
         <v>623</v>
@@ -10815,7 +10817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="14"/>
       <c r="B245" t="s">
         <v>623</v>
@@ -10836,7 +10838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="14"/>
       <c r="B246" t="s">
         <v>623</v>
@@ -10857,7 +10859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="14"/>
       <c r="B247" t="s">
         <v>623</v>
@@ -10878,7 +10880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="14"/>
       <c r="B248" t="s">
         <v>623</v>
@@ -10899,7 +10901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="14"/>
       <c r="B249" t="s">
         <v>623</v>
@@ -10920,7 +10922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="14"/>
       <c r="B250" t="s">
         <v>623</v>
@@ -10941,7 +10943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="14"/>
       <c r="B251" t="s">
         <v>623</v>
@@ -10962,7 +10964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="14"/>
       <c r="B252" t="s">
         <v>623</v>
@@ -10983,7 +10985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="14"/>
       <c r="B253" t="s">
         <v>623</v>
@@ -11004,7 +11006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="14"/>
       <c r="B254" t="s">
         <v>623</v>
@@ -11025,7 +11027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="14"/>
       <c r="B255" t="s">
         <v>623</v>
@@ -11046,7 +11048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="14"/>
       <c r="B256" t="s">
         <v>623</v>
@@ -11067,7 +11069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="14"/>
       <c r="B257" t="s">
         <v>623</v>
@@ -11088,7 +11090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="14"/>
       <c r="B258" t="s">
         <v>623</v>
@@ -11109,7 +11111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="14"/>
       <c r="B259" t="s">
         <v>623</v>
@@ -11130,7 +11132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="14"/>
       <c r="B260" t="s">
         <v>623</v>
@@ -11151,7 +11153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="14"/>
       <c r="B261" t="s">
         <v>623</v>
@@ -11172,7 +11174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="14"/>
       <c r="B262" t="s">
         <v>623</v>
@@ -11193,7 +11195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="14"/>
       <c r="B263" t="s">
         <v>623</v>
@@ -11214,7 +11216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="14"/>
       <c r="B264" t="s">
         <v>623</v>
@@ -11235,7 +11237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="14"/>
       <c r="B265" t="s">
         <v>623</v>
@@ -11256,7 +11258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="14"/>
       <c r="B266" t="s">
         <v>623</v>
@@ -11277,7 +11279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="14"/>
       <c r="B267" t="s">
         <v>623</v>
@@ -11298,7 +11300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="14"/>
       <c r="B268" t="s">
         <v>623</v>
@@ -11319,7 +11321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="14"/>
       <c r="B269" t="s">
         <v>623</v>
@@ -11340,7 +11342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="14"/>
       <c r="B270" t="s">
         <v>623</v>
@@ -11361,7 +11363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="14"/>
       <c r="B271" t="s">
         <v>623</v>
@@ -11382,10 +11384,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="14"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="14"/>
       <c r="B273" t="s">
         <v>623</v>
@@ -11406,7 +11408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="14"/>
       <c r="B274" t="s">
         <v>623</v>
@@ -11427,7 +11429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="14"/>
       <c r="B275" t="s">
         <v>623</v>
@@ -11448,7 +11450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="14"/>
       <c r="B276" t="s">
         <v>623</v>
@@ -11469,7 +11471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="14"/>
       <c r="B277" t="s">
         <v>623</v>
@@ -11490,7 +11492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="14"/>
       <c r="B278" t="s">
         <v>623</v>
@@ -11511,7 +11513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="14"/>
       <c r="B279" t="s">
         <v>623</v>
@@ -11532,7 +11534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="14"/>
       <c r="B280" t="s">
         <v>623</v>
@@ -11553,7 +11555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="14"/>
       <c r="B281" t="s">
         <v>623</v>
@@ -11574,7 +11576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="14"/>
       <c r="B282" t="s">
         <v>623</v>
@@ -11595,7 +11597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="14"/>
       <c r="B283" t="s">
         <v>623</v>
@@ -11616,7 +11618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="14"/>
       <c r="B284" t="s">
         <v>623</v>
@@ -11637,7 +11639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="14"/>
       <c r="B285" t="s">
         <v>623</v>
@@ -11658,7 +11660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="14"/>
       <c r="B286" t="s">
         <v>623</v>
@@ -11679,7 +11681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="14"/>
       <c r="B287" t="s">
         <v>623</v>
@@ -11700,7 +11702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="14"/>
       <c r="B288" t="s">
         <v>623</v>
@@ -11721,7 +11723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="14"/>
       <c r="B289" t="s">
         <v>623</v>
@@ -11742,7 +11744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="14"/>
       <c r="B290" t="s">
         <v>623</v>
@@ -11763,7 +11765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="14"/>
       <c r="B291" t="s">
         <v>623</v>
@@ -11784,7 +11786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="14"/>
       <c r="B292" t="s">
         <v>623</v>
@@ -11805,7 +11807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="14"/>
       <c r="B293" t="s">
         <v>623</v>
@@ -11826,7 +11828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="14"/>
       <c r="B294" t="s">
         <v>623</v>
@@ -11847,7 +11849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="14"/>
       <c r="B295" t="s">
         <v>623</v>
@@ -11868,7 +11870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="14"/>
       <c r="B296" t="s">
         <v>623</v>
@@ -11889,7 +11891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="14"/>
       <c r="B297" t="s">
         <v>623</v>
@@ -11910,7 +11912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="14"/>
       <c r="B298" t="s">
         <v>623</v>
@@ -11931,7 +11933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="14"/>
       <c r="B299" t="s">
         <v>623</v>
@@ -11952,7 +11954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="14"/>
       <c r="B300" t="s">
         <v>623</v>
@@ -11973,7 +11975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="14"/>
       <c r="B301" t="s">
         <v>623</v>
@@ -11994,7 +11996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="14"/>
       <c r="B302" t="s">
         <v>623</v>
@@ -12015,7 +12017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="14"/>
       <c r="B303" t="s">
         <v>623</v>
@@ -12036,7 +12038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="14"/>
       <c r="B304" t="s">
         <v>623</v>
@@ -12057,7 +12059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="14"/>
       <c r="B305" t="s">
         <v>623</v>
@@ -12078,7 +12080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="14"/>
       <c r="B306" t="s">
         <v>623</v>
@@ -12099,7 +12101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="14"/>
       <c r="B307" t="s">
         <v>623</v>
@@ -12120,7 +12122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="14"/>
       <c r="B308" t="s">
         <v>623</v>
@@ -12141,7 +12143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="14"/>
       <c r="B309" t="s">
         <v>623</v>
@@ -12162,7 +12164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="14"/>
       <c r="B310" t="s">
         <v>623</v>
@@ -12183,7 +12185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="14"/>
       <c r="B311" t="s">
         <v>623</v>
@@ -12204,7 +12206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="14"/>
       <c r="B312" t="s">
         <v>623</v>
@@ -12225,7 +12227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="14"/>
       <c r="B313" t="s">
         <v>623</v>
@@ -12246,7 +12248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="14"/>
       <c r="B314" t="s">
         <v>623</v>
@@ -12267,7 +12269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="14"/>
       <c r="B315" t="s">
         <v>623</v>
@@ -12288,7 +12290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="14"/>
       <c r="B316" t="s">
         <v>623</v>
@@ -12309,7 +12311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="14"/>
       <c r="B317" t="s">
         <v>623</v>
@@ -12330,7 +12332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" s="14"/>
       <c r="B318" t="s">
         <v>623</v>
@@ -12351,7 +12353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" s="14"/>
       <c r="B319" t="s">
         <v>623</v>
@@ -12372,7 +12374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" s="14"/>
       <c r="B320" t="s">
         <v>623</v>
@@ -12393,7 +12395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" s="14"/>
       <c r="B321" t="s">
         <v>623</v>
@@ -12414,7 +12416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" s="14"/>
       <c r="B322" t="s">
         <v>623</v>
@@ -12435,7 +12437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" s="14"/>
       <c r="B323" t="s">
         <v>623</v>
@@ -12456,7 +12458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" s="14"/>
       <c r="B324" t="s">
         <v>623</v>
@@ -12477,7 +12479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" s="14"/>
       <c r="B325" t="s">
         <v>623</v>
@@ -12498,7 +12500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" s="14"/>
       <c r="B326" t="s">
         <v>623</v>
@@ -12519,10 +12521,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" s="14"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" s="14"/>
       <c r="B328" t="s">
         <v>623</v>
@@ -12543,7 +12545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" s="14"/>
       <c r="B329" t="s">
         <v>623</v>
@@ -12564,7 +12566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" s="14"/>
       <c r="B330" t="s">
         <v>623</v>
@@ -12585,7 +12587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" s="14"/>
       <c r="B331" t="s">
         <v>623</v>
@@ -12606,7 +12608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" s="14"/>
       <c r="B332" t="s">
         <v>623</v>
@@ -12627,7 +12629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" s="14"/>
       <c r="B333" t="s">
         <v>623</v>
@@ -12648,7 +12650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" s="14"/>
       <c r="B334" t="s">
         <v>623</v>
@@ -12669,7 +12671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" s="14"/>
       <c r="B335" t="s">
         <v>623</v>
@@ -12690,7 +12692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" s="14"/>
       <c r="B336" t="s">
         <v>623</v>
@@ -12711,7 +12713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" s="14"/>
       <c r="B337" t="s">
         <v>623</v>
@@ -12732,7 +12734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" s="14"/>
       <c r="B338" t="s">
         <v>623</v>
@@ -12753,7 +12755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" s="14"/>
       <c r="B339" t="s">
         <v>623</v>
@@ -12774,7 +12776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" s="14"/>
       <c r="B340" t="s">
         <v>623</v>
@@ -12795,7 +12797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" s="14"/>
       <c r="B341" t="s">
         <v>623</v>
@@ -12816,7 +12818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" s="14"/>
       <c r="B342" t="s">
         <v>623</v>
@@ -12837,7 +12839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" s="14"/>
       <c r="B343" t="s">
         <v>623</v>
@@ -12858,7 +12860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" s="14"/>
       <c r="B344" t="s">
         <v>623</v>
@@ -12879,7 +12881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" s="14"/>
       <c r="B345" t="s">
         <v>623</v>
@@ -12900,7 +12902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" s="14"/>
       <c r="B346" t="s">
         <v>623</v>
@@ -12921,7 +12923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" s="14"/>
       <c r="B347" t="s">
         <v>623</v>
@@ -12942,7 +12944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" s="14"/>
       <c r="B348" t="s">
         <v>623</v>
@@ -12963,7 +12965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" s="14"/>
       <c r="B349" t="s">
         <v>623</v>
@@ -12984,7 +12986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" s="14"/>
       <c r="B350" t="s">
         <v>623</v>
@@ -13005,7 +13007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" s="14"/>
       <c r="B351" t="s">
         <v>623</v>
@@ -13026,7 +13028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" s="14"/>
       <c r="B352" t="s">
         <v>623</v>
@@ -13047,7 +13049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" s="14"/>
       <c r="B353" t="s">
         <v>623</v>
@@ -13068,7 +13070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" s="14"/>
       <c r="B354" t="s">
         <v>623</v>
@@ -13089,7 +13091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" s="14"/>
       <c r="B355" t="s">
         <v>623</v>
@@ -13110,7 +13112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" s="14"/>
       <c r="B356" t="s">
         <v>623</v>
@@ -13131,7 +13133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" s="14"/>
       <c r="B357" t="s">
         <v>623</v>
@@ -13152,7 +13154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" s="14"/>
       <c r="B358" t="s">
         <v>623</v>
@@ -13173,7 +13175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" s="14"/>
       <c r="B359" t="s">
         <v>623</v>
@@ -13194,7 +13196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" s="14"/>
       <c r="B360" t="s">
         <v>623</v>
@@ -13215,7 +13217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" s="14"/>
       <c r="B361" t="s">
         <v>623</v>
@@ -13236,7 +13238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" s="14"/>
       <c r="B362" t="s">
         <v>623</v>
@@ -13257,7 +13259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" s="14"/>
       <c r="B363" t="s">
         <v>623</v>
@@ -13278,7 +13280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" s="14"/>
       <c r="B364" t="s">
         <v>623</v>
@@ -13299,7 +13301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" s="14"/>
       <c r="B365" t="s">
         <v>623</v>
@@ -13320,7 +13322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" s="14"/>
       <c r="B366" t="s">
         <v>623</v>
@@ -13341,7 +13343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" s="14"/>
       <c r="B367" t="s">
         <v>623</v>
@@ -13362,7 +13364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" s="14"/>
       <c r="B368" t="s">
         <v>623</v>
@@ -13383,7 +13385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" s="14"/>
       <c r="B369" t="s">
         <v>623</v>
@@ -13404,7 +13406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" s="14"/>
       <c r="B370" t="s">
         <v>623</v>
@@ -13425,7 +13427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" s="14"/>
       <c r="B371" t="s">
         <v>623</v>
@@ -13446,7 +13448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" s="14"/>
       <c r="B372" t="s">
         <v>623</v>
@@ -13467,7 +13469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" s="14"/>
       <c r="B373" t="s">
         <v>623</v>
@@ -13488,7 +13490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" s="14"/>
       <c r="B374" t="s">
         <v>623</v>
@@ -13509,7 +13511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" s="14"/>
       <c r="B375" t="s">
         <v>623</v>
@@ -13530,7 +13532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" s="14"/>
       <c r="B376" t="s">
         <v>623</v>
@@ -13551,7 +13553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" s="14"/>
       <c r="B377" t="s">
         <v>623</v>
@@ -13572,7 +13574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" s="14"/>
       <c r="B378" t="s">
         <v>623</v>
@@ -13593,7 +13595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" s="14"/>
       <c r="B379" t="s">
         <v>623</v>
@@ -13614,7 +13616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" s="14"/>
       <c r="B380" t="s">
         <v>623</v>
@@ -13635,7 +13637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" s="14"/>
       <c r="B381" t="s">
         <v>623</v>
@@ -13656,10 +13658,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" s="14"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" s="14"/>
       <c r="B383" t="s">
         <v>623</v>
@@ -13680,7 +13682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" s="14"/>
       <c r="B384" t="s">
         <v>623</v>
@@ -13701,7 +13703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" s="14"/>
       <c r="B385" t="s">
         <v>623</v>
@@ -13722,7 +13724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" s="14"/>
       <c r="B386" t="s">
         <v>623</v>
@@ -13743,7 +13745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" s="14"/>
       <c r="B387" t="s">
         <v>623</v>
@@ -13764,7 +13766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" s="14"/>
       <c r="B388" t="s">
         <v>623</v>
@@ -13785,7 +13787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" s="14"/>
       <c r="B389" t="s">
         <v>623</v>
@@ -13806,7 +13808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" s="14"/>
       <c r="B390" t="s">
         <v>623</v>
@@ -13827,7 +13829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" s="14"/>
       <c r="B391" t="s">
         <v>623</v>
@@ -13848,7 +13850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" s="14"/>
       <c r="B392" t="s">
         <v>623</v>
@@ -13869,7 +13871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" s="14"/>
       <c r="B393" t="s">
         <v>623</v>
@@ -13890,7 +13892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" s="14"/>
       <c r="B394" t="s">
         <v>623</v>
@@ -13911,7 +13913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" s="14"/>
       <c r="B395" t="s">
         <v>623</v>
@@ -13932,7 +13934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" s="14"/>
       <c r="B396" t="s">
         <v>623</v>
@@ -13953,7 +13955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" s="14"/>
       <c r="B397" t="s">
         <v>623</v>
@@ -13974,7 +13976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" s="14"/>
       <c r="B398" t="s">
         <v>623</v>
@@ -13995,7 +13997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" s="14"/>
       <c r="B399" t="s">
         <v>623</v>
@@ -14016,7 +14018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" s="14"/>
       <c r="B400" t="s">
         <v>623</v>
@@ -14037,7 +14039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" s="14"/>
       <c r="B401" t="s">
         <v>623</v>
@@ -14058,7 +14060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" s="14"/>
       <c r="B402" t="s">
         <v>623</v>
@@ -14079,7 +14081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" s="14"/>
       <c r="B403" t="s">
         <v>623</v>
@@ -14100,7 +14102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" s="14"/>
       <c r="B404" t="s">
         <v>623</v>
@@ -14121,7 +14123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" s="14"/>
       <c r="B405" t="s">
         <v>623</v>
@@ -14142,7 +14144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" s="14"/>
       <c r="B406" t="s">
         <v>623</v>
@@ -14163,7 +14165,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" s="14"/>
       <c r="B407" t="s">
         <v>623</v>
@@ -14184,7 +14186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" s="14"/>
       <c r="B408" t="s">
         <v>623</v>
@@ -14205,7 +14207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" s="14"/>
       <c r="B409" t="s">
         <v>623</v>
@@ -14226,7 +14228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" s="14"/>
       <c r="B410" t="s">
         <v>623</v>
@@ -14247,7 +14249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" s="14"/>
       <c r="B411" t="s">
         <v>623</v>
@@ -14268,7 +14270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" s="14"/>
       <c r="B412" t="s">
         <v>623</v>
@@ -14289,7 +14291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" s="14"/>
       <c r="B413" t="s">
         <v>623</v>
@@ -14310,7 +14312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" s="14"/>
       <c r="B414" t="s">
         <v>623</v>
@@ -14331,7 +14333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" s="14"/>
       <c r="B415" t="s">
         <v>623</v>
@@ -14352,7 +14354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" s="14"/>
       <c r="B416" t="s">
         <v>623</v>
@@ -14373,7 +14375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" s="14"/>
       <c r="B417" t="s">
         <v>623</v>
@@ -14394,7 +14396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" s="14"/>
       <c r="B418" t="s">
         <v>623</v>
@@ -14415,7 +14417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" s="14"/>
       <c r="B419" t="s">
         <v>623</v>
@@ -14436,7 +14438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" s="14"/>
       <c r="B420" t="s">
         <v>623</v>
@@ -14457,7 +14459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" s="14"/>
       <c r="B421" t="s">
         <v>623</v>
@@ -14478,7 +14480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" s="14"/>
       <c r="B422" t="s">
         <v>623</v>
@@ -14499,7 +14501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" s="14"/>
       <c r="B423" t="s">
         <v>623</v>
@@ -14520,7 +14522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" s="14"/>
       <c r="B424" t="s">
         <v>623</v>
@@ -14541,7 +14543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" s="14"/>
       <c r="B425" t="s">
         <v>623</v>
@@ -14562,7 +14564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" s="14"/>
       <c r="B426" t="s">
         <v>623</v>
@@ -14583,7 +14585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" s="14"/>
       <c r="B427" t="s">
         <v>623</v>
@@ -14604,7 +14606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" s="14"/>
       <c r="B428" t="s">
         <v>623</v>
@@ -14625,7 +14627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" s="14"/>
       <c r="B429" t="s">
         <v>623</v>
@@ -14646,7 +14648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" s="14"/>
       <c r="B430" t="s">
         <v>623</v>
@@ -14667,7 +14669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" s="14"/>
       <c r="B431" t="s">
         <v>623</v>
@@ -14688,7 +14690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" s="14"/>
       <c r="B432" t="s">
         <v>623</v>
@@ -14709,7 +14711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" s="14"/>
       <c r="B433" t="s">
         <v>623</v>
@@ -14730,7 +14732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" s="14"/>
       <c r="B434" t="s">
         <v>623</v>
@@ -14751,7 +14753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" s="14"/>
       <c r="B435" t="s">
         <v>623</v>
@@ -14772,7 +14774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" s="14"/>
       <c r="B436" t="s">
         <v>623</v>
@@ -14793,7 +14795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" s="14"/>
       <c r="B437" t="s">
         <v>623</v>
@@ -14814,7 +14816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" s="14"/>
       <c r="B438" t="s">
         <v>623</v>
@@ -14835,7 +14837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" s="14"/>
       <c r="B439" t="s">
         <v>623</v>
@@ -14856,7 +14858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" s="14"/>
       <c r="B440" t="s">
         <v>623</v>
@@ -14877,7 +14879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" s="14"/>
       <c r="B441" t="s">
         <v>623</v>
@@ -14898,7 +14900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" s="14"/>
       <c r="B442" t="s">
         <v>623</v>
@@ -14919,7 +14921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" s="14"/>
       <c r="B443" t="s">
         <v>623</v>
@@ -14940,7 +14942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" s="14"/>
       <c r="B444" t="s">
         <v>623</v>
@@ -14961,7 +14963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" s="14"/>
       <c r="B445" t="s">
         <v>623</v>
@@ -14982,7 +14984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" s="14"/>
       <c r="B446" t="s">
         <v>623</v>
@@ -15003,7 +15005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" s="14"/>
       <c r="B447" t="s">
         <v>623</v>
@@ -15024,7 +15026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" s="14"/>
       <c r="B448" t="s">
         <v>623</v>
@@ -15045,7 +15047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" s="14"/>
       <c r="B449" t="s">
         <v>623</v>
@@ -15066,7 +15068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" s="14"/>
       <c r="B450" t="s">
         <v>623</v>
@@ -15087,7 +15089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" s="14"/>
       <c r="B451" t="s">
         <v>623</v>
@@ -15108,7 +15110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" s="14"/>
       <c r="B452" t="s">
         <v>623</v>
@@ -15129,7 +15131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" s="14"/>
       <c r="B453" t="s">
         <v>623</v>
@@ -15150,7 +15152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" s="14"/>
       <c r="B454" t="s">
         <v>623</v>
@@ -15171,7 +15173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" s="14"/>
       <c r="B455" t="s">
         <v>623</v>
@@ -15192,7 +15194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7">
       <c r="A456" s="14"/>
       <c r="B456" t="s">
         <v>623</v>
@@ -15213,7 +15215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" s="14"/>
       <c r="B457" t="s">
         <v>623</v>
@@ -15234,7 +15236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7">
       <c r="A458" s="14"/>
       <c r="B458" t="s">
         <v>623</v>
@@ -15255,7 +15257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" s="14"/>
       <c r="B459" t="s">
         <v>623</v>
@@ -15276,7 +15278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" s="14"/>
       <c r="B460" t="s">
         <v>623</v>
@@ -15297,7 +15299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" s="14"/>
       <c r="B461" t="s">
         <v>623</v>
@@ -15318,7 +15320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" s="14"/>
       <c r="B462" t="s">
         <v>623</v>
@@ -15339,7 +15341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" s="14"/>
       <c r="B463" t="s">
         <v>623</v>
@@ -15360,7 +15362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" s="14"/>
       <c r="B464" t="s">
         <v>623</v>
@@ -15381,7 +15383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7">
       <c r="A465" s="14"/>
       <c r="B465" t="s">
         <v>623</v>
@@ -15402,7 +15404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7">
       <c r="A466" s="14"/>
       <c r="B466" t="s">
         <v>623</v>
@@ -15423,7 +15425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7">
       <c r="A467" s="14"/>
       <c r="B467" t="s">
         <v>623</v>
@@ -15444,7 +15446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7">
       <c r="A468" s="14"/>
       <c r="B468" t="s">
         <v>623</v>
@@ -15465,7 +15467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7">
       <c r="A469" s="14"/>
       <c r="B469" t="s">
         <v>623</v>
@@ -15486,7 +15488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7">
       <c r="A470" s="14"/>
       <c r="B470" t="s">
         <v>623</v>
@@ -15507,7 +15509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7">
       <c r="A471" s="14"/>
       <c r="B471" t="s">
         <v>623</v>
@@ -15528,7 +15530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7">
       <c r="A472" s="14"/>
       <c r="B472" t="s">
         <v>623</v>
@@ -15549,7 +15551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7">
       <c r="A473" s="14"/>
       <c r="B473" t="s">
         <v>623</v>
@@ -15570,7 +15572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7">
       <c r="A474" s="14"/>
       <c r="B474" t="s">
         <v>623</v>
@@ -15591,7 +15593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7">
       <c r="A475" s="14"/>
       <c r="B475" t="s">
         <v>623</v>
@@ -15612,7 +15614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7">
       <c r="A476" s="14"/>
       <c r="B476" t="s">
         <v>623</v>
@@ -15633,7 +15635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7">
       <c r="A477" s="14"/>
       <c r="B477" t="s">
         <v>623</v>
@@ -15654,7 +15656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7">
       <c r="A478" s="14"/>
       <c r="B478" t="s">
         <v>623</v>
@@ -15675,7 +15677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7">
       <c r="A479" s="14"/>
       <c r="B479" t="s">
         <v>623</v>
@@ -15696,7 +15698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7">
       <c r="A480" s="14"/>
       <c r="B480" t="s">
         <v>623</v>
@@ -15717,7 +15719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" s="14"/>
       <c r="B481" t="s">
         <v>623</v>
@@ -15738,7 +15740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" s="14"/>
       <c r="B482" t="s">
         <v>623</v>
@@ -15759,7 +15761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" s="14"/>
       <c r="B483" t="s">
         <v>623</v>
@@ -15780,7 +15782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" s="14"/>
       <c r="B484" t="s">
         <v>623</v>
@@ -15801,7 +15803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" s="14"/>
       <c r="B485" t="s">
         <v>623</v>
@@ -15822,7 +15824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" s="14"/>
       <c r="B486" t="s">
         <v>623</v>
@@ -15843,7 +15845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" s="14"/>
       <c r="B487" t="s">
         <v>623</v>
@@ -15864,7 +15866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7">
       <c r="A488" s="14"/>
       <c r="B488" t="s">
         <v>623</v>
@@ -15885,7 +15887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7">
       <c r="A489" s="14"/>
       <c r="B489" t="s">
         <v>623</v>
@@ -15906,7 +15908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" s="14"/>
       <c r="B490" t="s">
         <v>623</v>
@@ -15927,7 +15929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" s="14"/>
       <c r="B491" t="s">
         <v>623</v>
@@ -15948,7 +15950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" s="14"/>
       <c r="B492" t="s">
         <v>623</v>
@@ -15969,7 +15971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7">
       <c r="A493" s="14"/>
       <c r="B493" t="s">
         <v>623</v>
@@ -15990,10 +15992,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" s="14"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" s="14"/>
       <c r="B495" t="s">
         <v>623</v>
@@ -16014,7 +16016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7">
       <c r="A496" s="14"/>
       <c r="B496" t="s">
         <v>623</v>
@@ -16035,7 +16037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7">
       <c r="A497" s="14"/>
       <c r="B497" t="s">
         <v>623</v>
@@ -16056,7 +16058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7">
       <c r="A498" s="14"/>
       <c r="B498" t="s">
         <v>623</v>
@@ -16077,7 +16079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7">
       <c r="A499" s="14"/>
       <c r="B499" t="s">
         <v>623</v>
@@ -16098,7 +16100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" s="14"/>
       <c r="B500" t="s">
         <v>623</v>
@@ -16119,7 +16121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" s="14"/>
       <c r="B501" t="s">
         <v>623</v>
@@ -16140,7 +16142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7">
       <c r="A502" s="14"/>
       <c r="B502" t="s">
         <v>623</v>
@@ -16161,7 +16163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" s="14"/>
       <c r="B503" t="s">
         <v>623</v>
@@ -16182,7 +16184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" s="14"/>
       <c r="B504" t="s">
         <v>623</v>
@@ -16203,7 +16205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" s="14"/>
       <c r="B505" t="s">
         <v>623</v>
@@ -16224,7 +16226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7">
       <c r="A506" s="14"/>
       <c r="B506" t="s">
         <v>623</v>
@@ -16245,7 +16247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7">
       <c r="A507" s="14"/>
       <c r="B507" t="s">
         <v>623</v>
@@ -16266,7 +16268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7">
       <c r="A508" s="14"/>
       <c r="B508" t="s">
         <v>623</v>
@@ -16287,7 +16289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7">
       <c r="A509" s="14"/>
       <c r="B509" t="s">
         <v>623</v>
@@ -16308,7 +16310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7">
       <c r="A510" s="14"/>
       <c r="B510" t="s">
         <v>623</v>
@@ -16329,7 +16331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7">
       <c r="A511" s="14"/>
       <c r="B511" t="s">
         <v>623</v>
@@ -16350,7 +16352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7">
       <c r="A512" s="14"/>
       <c r="B512" t="s">
         <v>623</v>
@@ -16371,7 +16373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7">
       <c r="A513" s="14"/>
       <c r="B513" t="s">
         <v>623</v>
@@ -16392,7 +16394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7">
       <c r="A514" s="14"/>
       <c r="B514" t="s">
         <v>623</v>
@@ -16413,7 +16415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7">
       <c r="A515" s="14"/>
       <c r="B515" t="s">
         <v>623</v>
@@ -16434,7 +16436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7">
       <c r="A516" s="14"/>
       <c r="B516" t="s">
         <v>623</v>
@@ -16455,7 +16457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7">
       <c r="A517" s="14"/>
       <c r="B517" t="s">
         <v>623</v>
@@ -16476,7 +16478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7">
       <c r="A518" s="14"/>
       <c r="B518" t="s">
         <v>623</v>
@@ -16497,7 +16499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7">
       <c r="A519" s="14"/>
       <c r="B519" t="s">
         <v>623</v>
@@ -16518,7 +16520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7">
       <c r="A520" s="14"/>
       <c r="B520" t="s">
         <v>623</v>
@@ -16539,7 +16541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7">
       <c r="A521" s="14"/>
       <c r="B521" t="s">
         <v>623</v>
@@ -16560,7 +16562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7">
       <c r="A522" s="14"/>
       <c r="B522" t="s">
         <v>623</v>
@@ -16581,7 +16583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7">
       <c r="A523" s="14"/>
       <c r="B523" t="s">
         <v>623</v>
@@ -16602,7 +16604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7">
       <c r="A524" s="14"/>
       <c r="B524" t="s">
         <v>623</v>
@@ -16623,7 +16625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7">
       <c r="A525" s="14"/>
       <c r="B525" t="s">
         <v>623</v>
@@ -16644,7 +16646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7">
       <c r="A526" s="14"/>
       <c r="B526" t="s">
         <v>623</v>
@@ -16665,7 +16667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7">
       <c r="A527" s="14"/>
       <c r="B527" t="s">
         <v>623</v>
@@ -16686,7 +16688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7">
       <c r="A528" s="14"/>
       <c r="B528" t="s">
         <v>623</v>
@@ -16707,7 +16709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7">
       <c r="A529" s="14"/>
       <c r="B529" t="s">
         <v>623</v>
@@ -16728,7 +16730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7">
       <c r="A530" s="14"/>
       <c r="B530" t="s">
         <v>623</v>
@@ -16749,7 +16751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7">
       <c r="A531" s="14"/>
       <c r="B531" t="s">
         <v>623</v>
@@ -16770,7 +16772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7">
       <c r="A532" s="14"/>
       <c r="B532" t="s">
         <v>623</v>
@@ -16791,7 +16793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7">
       <c r="A533" s="14"/>
       <c r="B533" t="s">
         <v>623</v>
@@ -16812,7 +16814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7">
       <c r="A534" s="14"/>
       <c r="B534" t="s">
         <v>623</v>
@@ -16833,7 +16835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7">
       <c r="A535" s="14"/>
       <c r="B535" t="s">
         <v>623</v>
@@ -16854,7 +16856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7">
       <c r="A536" s="14"/>
       <c r="B536" t="s">
         <v>623</v>
@@ -16875,7 +16877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7">
       <c r="A537" s="14"/>
       <c r="B537" t="s">
         <v>623</v>
@@ -16896,7 +16898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7">
       <c r="A538" s="14"/>
       <c r="B538" t="s">
         <v>623</v>
@@ -16917,7 +16919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7">
       <c r="A539" s="14"/>
       <c r="B539" t="s">
         <v>623</v>
@@ -16938,7 +16940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7">
       <c r="A540" s="14"/>
       <c r="B540" t="s">
         <v>623</v>
@@ -16959,7 +16961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7">
       <c r="A541" s="14"/>
       <c r="B541" t="s">
         <v>623</v>
@@ -16980,7 +16982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7">
       <c r="A542" s="14"/>
       <c r="B542" t="s">
         <v>623</v>
@@ -17001,7 +17003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7">
       <c r="A543" s="14"/>
       <c r="B543" t="s">
         <v>623</v>
@@ -17022,7 +17024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7">
       <c r="A544" s="14"/>
       <c r="B544" t="s">
         <v>623</v>
@@ -17043,7 +17045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7">
       <c r="A545" s="14"/>
       <c r="B545" t="s">
         <v>623</v>
@@ -17064,7 +17066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7">
       <c r="A546" s="14"/>
       <c r="B546" t="s">
         <v>623</v>
@@ -17085,7 +17087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7">
       <c r="A547" s="14"/>
       <c r="B547" t="s">
         <v>623</v>
@@ -17106,7 +17108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7">
       <c r="A548" s="14"/>
       <c r="B548" t="s">
         <v>623</v>
@@ -17127,7 +17129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7">
       <c r="A549" s="14"/>
       <c r="B549" t="s">
         <v>623</v>
@@ -17148,7 +17150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7">
       <c r="A550" s="14"/>
       <c r="B550" t="s">
         <v>623</v>
@@ -17169,7 +17171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7">
       <c r="A551" s="14"/>
       <c r="B551" t="s">
         <v>623</v>
@@ -17190,7 +17192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7">
       <c r="A552" s="14"/>
       <c r="B552" t="s">
         <v>623</v>
@@ -17211,7 +17213,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7">
       <c r="A553" s="14"/>
       <c r="B553" t="s">
         <v>623</v>
@@ -17232,7 +17234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7">
       <c r="A554" s="14"/>
       <c r="B554" t="s">
         <v>623</v>
@@ -17253,7 +17255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7">
       <c r="A555" s="14"/>
       <c r="B555" t="s">
         <v>623</v>
@@ -17274,7 +17276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7">
       <c r="A556" s="14"/>
       <c r="B556" t="s">
         <v>623</v>
@@ -17295,7 +17297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7">
       <c r="A557" s="14"/>
       <c r="B557" t="s">
         <v>623</v>
@@ -17316,7 +17318,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7">
       <c r="A558" s="14"/>
       <c r="B558" t="s">
         <v>623</v>
@@ -17337,7 +17339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7">
       <c r="A559" s="14"/>
       <c r="B559" t="s">
         <v>623</v>
@@ -17358,7 +17360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7">
       <c r="A560" s="14"/>
       <c r="B560" t="s">
         <v>623</v>
@@ -17379,7 +17381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7">
       <c r="A561" s="14"/>
       <c r="B561" t="s">
         <v>623</v>
@@ -17400,7 +17402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7">
       <c r="A562" s="14"/>
       <c r="B562" t="s">
         <v>623</v>
@@ -17421,7 +17423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7">
       <c r="A563" s="14"/>
       <c r="B563" t="s">
         <v>623</v>
@@ -17442,7 +17444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7">
       <c r="A564" s="14"/>
       <c r="B564" t="s">
         <v>623</v>
@@ -17463,7 +17465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7">
       <c r="A565" s="14"/>
       <c r="B565" t="s">
         <v>623</v>
@@ -17484,7 +17486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7">
       <c r="A566" s="14"/>
       <c r="B566" t="s">
         <v>623</v>
@@ -17505,7 +17507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7">
       <c r="A567" s="14"/>
       <c r="B567" t="s">
         <v>623</v>
@@ -17526,7 +17528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7">
       <c r="A568" s="14"/>
       <c r="B568" t="s">
         <v>623</v>
@@ -17547,7 +17549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7">
       <c r="A569" s="14"/>
       <c r="B569" t="s">
         <v>623</v>
@@ -17568,7 +17570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7">
       <c r="A570" s="14"/>
       <c r="B570" t="s">
         <v>623</v>
@@ -17589,7 +17591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7">
       <c r="A571" s="14"/>
       <c r="B571" t="s">
         <v>623</v>
@@ -17610,7 +17612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7">
       <c r="A572" s="14"/>
       <c r="B572" t="s">
         <v>623</v>
@@ -17631,7 +17633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7">
       <c r="A573" s="14"/>
       <c r="B573" t="s">
         <v>623</v>
@@ -17652,7 +17654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7">
       <c r="A574" s="14"/>
       <c r="B574" t="s">
         <v>623</v>
@@ -17673,7 +17675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7">
       <c r="A575" s="14"/>
       <c r="B575" t="s">
         <v>623</v>
@@ -17694,7 +17696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7">
       <c r="A576" s="14"/>
       <c r="B576" t="s">
         <v>623</v>
@@ -17715,7 +17717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7">
       <c r="A577" s="14"/>
       <c r="B577" t="s">
         <v>623</v>
@@ -17736,7 +17738,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7">
       <c r="A578" s="14"/>
       <c r="B578" t="s">
         <v>623</v>
@@ -17757,7 +17759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7">
       <c r="A579" s="14"/>
       <c r="B579" t="s">
         <v>623</v>
@@ -17778,7 +17780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7">
       <c r="A580" s="14"/>
       <c r="B580" t="s">
         <v>623</v>
@@ -17799,7 +17801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7">
       <c r="A581" s="14"/>
       <c r="B581" t="s">
         <v>623</v>
@@ -17820,7 +17822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7">
       <c r="A582" s="14"/>
       <c r="B582" t="s">
         <v>623</v>
@@ -17841,7 +17843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7">
       <c r="A583" s="14"/>
       <c r="B583" t="s">
         <v>623</v>
@@ -17862,7 +17864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7">
       <c r="A584" s="14"/>
       <c r="B584" t="s">
         <v>623</v>
@@ -17883,7 +17885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7">
       <c r="A585" s="14"/>
       <c r="B585" t="s">
         <v>623</v>
@@ -17904,7 +17906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7">
       <c r="A586" s="14"/>
       <c r="B586" t="s">
         <v>623</v>
@@ -17925,7 +17927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7">
       <c r="A587" s="14"/>
       <c r="B587" t="s">
         <v>623</v>
@@ -17946,7 +17948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7">
       <c r="A588" s="14"/>
       <c r="B588" t="s">
         <v>623</v>
@@ -17967,7 +17969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7">
       <c r="A589" s="14"/>
       <c r="B589" t="s">
         <v>623</v>
@@ -17988,7 +17990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7">
       <c r="A590" s="14"/>
       <c r="B590" t="s">
         <v>623</v>
@@ -18009,7 +18011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7">
       <c r="A591" s="14"/>
       <c r="B591" t="s">
         <v>623</v>
@@ -18030,7 +18032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7">
       <c r="A592" s="14"/>
       <c r="B592" t="s">
         <v>623</v>
@@ -18051,7 +18053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7">
       <c r="A593" s="14"/>
       <c r="B593" t="s">
         <v>623</v>
@@ -18072,7 +18074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7">
       <c r="A594" s="14"/>
       <c r="B594" t="s">
         <v>623</v>
@@ -18093,7 +18095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7">
       <c r="A595" s="14"/>
       <c r="B595" t="s">
         <v>623</v>
@@ -18114,7 +18116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7">
       <c r="A596" s="14"/>
       <c r="B596" t="s">
         <v>623</v>
@@ -18135,7 +18137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7">
       <c r="A597" s="14"/>
       <c r="B597" t="s">
         <v>623</v>
@@ -18156,7 +18158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7">
       <c r="A598" s="14"/>
       <c r="B598" t="s">
         <v>623</v>
@@ -18177,7 +18179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7">
       <c r="A599" s="14"/>
       <c r="B599" t="s">
         <v>623</v>
@@ -18198,7 +18200,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7">
       <c r="A600" s="14"/>
       <c r="B600" t="s">
         <v>623</v>
@@ -18219,7 +18221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7">
       <c r="A601" s="14"/>
       <c r="B601" t="s">
         <v>623</v>
@@ -18240,7 +18242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7">
       <c r="A602" s="14"/>
       <c r="B602" t="s">
         <v>623</v>
@@ -18261,7 +18263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7">
       <c r="A603" s="14"/>
       <c r="B603" t="s">
         <v>623</v>
@@ -18282,7 +18284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7">
       <c r="A604" s="14"/>
       <c r="B604" t="s">
         <v>623</v>
@@ -18303,7 +18305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7">
       <c r="A605" s="14"/>
       <c r="B605" t="s">
         <v>623</v>
@@ -18324,7 +18326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7">
       <c r="A606" s="14"/>
       <c r="B606" t="s">
         <v>623</v>
@@ -18345,7 +18347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7">
       <c r="A607" s="14"/>
       <c r="B607" t="s">
         <v>623</v>
@@ -18366,7 +18368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7">
       <c r="A608" s="14"/>
       <c r="B608" t="s">
         <v>623</v>
@@ -18387,7 +18389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7">
       <c r="A609" s="14"/>
       <c r="B609" t="s">
         <v>623</v>
@@ -18408,7 +18410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7">
       <c r="A610" s="14"/>
       <c r="B610" t="s">
         <v>623</v>
@@ -18429,7 +18431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7">
       <c r="A611" s="14"/>
       <c r="B611" t="s">
         <v>623</v>
@@ -18450,7 +18452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7">
       <c r="A612" s="14"/>
       <c r="B612" t="s">
         <v>623</v>
@@ -18471,7 +18473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7">
       <c r="A613" s="14"/>
       <c r="B613" t="s">
         <v>623</v>
@@ -18492,7 +18494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7">
       <c r="A614" s="14"/>
       <c r="B614" t="s">
         <v>623</v>
@@ -18513,7 +18515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7">
       <c r="A615" s="14"/>
       <c r="B615" t="s">
         <v>623</v>
@@ -18534,7 +18536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7">
       <c r="A616" s="14"/>
       <c r="B616" t="s">
         <v>623</v>
@@ -18555,7 +18557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7">
       <c r="A617" s="14"/>
       <c r="B617" t="s">
         <v>623</v>
@@ -18576,7 +18578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7">
       <c r="A618" s="14"/>
       <c r="B618" t="s">
         <v>623</v>
@@ -18597,7 +18599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7">
       <c r="A619" s="14"/>
       <c r="B619" t="s">
         <v>623</v>
@@ -18618,7 +18620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7">
       <c r="A620" s="14"/>
       <c r="B620" t="s">
         <v>623</v>
@@ -18639,7 +18641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7">
       <c r="A621" s="14"/>
       <c r="B621" t="s">
         <v>623</v>
@@ -18660,10 +18662,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7">
       <c r="A622" s="14"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7">
       <c r="A623" s="14"/>
       <c r="B623" t="s">
         <v>623</v>
@@ -18684,7 +18686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7">
       <c r="A624" s="14"/>
       <c r="B624" t="s">
         <v>623</v>
@@ -18705,7 +18707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7">
       <c r="A625" s="14"/>
       <c r="B625" t="s">
         <v>623</v>
@@ -18726,7 +18728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7">
       <c r="A626" s="14"/>
       <c r="B626" t="s">
         <v>623</v>
@@ -18747,7 +18749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7">
       <c r="A627" s="14"/>
       <c r="B627" t="s">
         <v>623</v>
@@ -18768,7 +18770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7">
       <c r="A628" s="14"/>
       <c r="B628" t="s">
         <v>623</v>
@@ -18789,7 +18791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7">
       <c r="A629" s="14"/>
       <c r="B629" t="s">
         <v>623</v>
@@ -18810,7 +18812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7">
       <c r="A630" s="14"/>
       <c r="B630" t="s">
         <v>623</v>
@@ -18831,7 +18833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7">
       <c r="A631" s="14"/>
       <c r="B631" t="s">
         <v>623</v>
@@ -18852,7 +18854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7">
       <c r="A632" s="14"/>
       <c r="B632" t="s">
         <v>623</v>
@@ -18873,7 +18875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7">
       <c r="A633" s="14"/>
       <c r="B633" t="s">
         <v>623</v>
@@ -18894,7 +18896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7">
       <c r="A634" s="14"/>
       <c r="B634" t="s">
         <v>623</v>
@@ -18915,7 +18917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7">
       <c r="A635" s="14"/>
       <c r="B635" t="s">
         <v>623</v>
@@ -18936,7 +18938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7">
       <c r="A636" s="14"/>
       <c r="B636" t="s">
         <v>623</v>
@@ -18957,7 +18959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7">
       <c r="A637" s="14"/>
       <c r="B637" t="s">
         <v>623</v>
@@ -18978,7 +18980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7">
       <c r="A638" s="14"/>
       <c r="B638" t="s">
         <v>623</v>
@@ -18999,7 +19001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7">
       <c r="A639" s="14"/>
       <c r="B639" t="s">
         <v>623</v>
@@ -19020,7 +19022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7">
       <c r="A640" s="14"/>
       <c r="B640" t="s">
         <v>623</v>
@@ -19041,7 +19043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7">
       <c r="A641" s="14"/>
       <c r="B641" t="s">
         <v>623</v>
@@ -19062,7 +19064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7">
       <c r="A642" s="14"/>
       <c r="B642" t="s">
         <v>623</v>
@@ -19083,10 +19085,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7">
       <c r="A643" s="14"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7">
       <c r="A644" s="14"/>
       <c r="B644" t="s">
         <v>623</v>
@@ -19107,7 +19109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7">
       <c r="A645" s="14"/>
       <c r="B645" t="s">
         <v>623</v>
@@ -19128,7 +19130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7">
       <c r="A646" s="14"/>
       <c r="B646" t="s">
         <v>623</v>
@@ -19149,7 +19151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7">
       <c r="A647" s="14"/>
       <c r="B647" t="s">
         <v>623</v>
@@ -19170,7 +19172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7">
       <c r="A648" s="14"/>
       <c r="B648" t="s">
         <v>623</v>
@@ -19191,7 +19193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7">
       <c r="A649" s="14"/>
       <c r="B649" t="s">
         <v>623</v>
@@ -19212,7 +19214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7">
       <c r="A650" s="14"/>
       <c r="B650" t="s">
         <v>623</v>
@@ -19233,10 +19235,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7">
       <c r="A651" s="14"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7">
       <c r="A652" s="14"/>
       <c r="B652" t="s">
         <v>625</v>
@@ -19257,10 +19259,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7">
       <c r="A653" s="14"/>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7">
       <c r="A654" s="14"/>
       <c r="B654" t="s">
         <v>630</v>
@@ -19281,7 +19283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7">
       <c r="A655" s="14"/>
       <c r="B655" t="s">
         <v>630</v>
@@ -19302,7 +19304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7">
       <c r="A656" s="14"/>
       <c r="B656" t="s">
         <v>630</v>
@@ -19323,7 +19325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7">
       <c r="A657" s="14"/>
       <c r="B657" t="s">
         <v>630</v>
@@ -19344,10 +19346,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7">
       <c r="A658" s="14"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7">
       <c r="A659" s="14"/>
       <c r="B659" t="s">
         <v>630</v>
@@ -19368,7 +19370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7">
       <c r="A660" s="14"/>
       <c r="B660" t="s">
         <v>630</v>
@@ -19389,7 +19391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7">
       <c r="A661" s="14"/>
       <c r="B661" t="s">
         <v>630</v>
@@ -19410,7 +19412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7">
       <c r="A662" s="14"/>
       <c r="B662" t="s">
         <v>630</v>
@@ -19431,7 +19433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7">
       <c r="A663" s="14"/>
       <c r="B663" t="s">
         <v>630</v>
@@ -19452,7 +19454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7">
       <c r="A664" s="14"/>
       <c r="B664" t="s">
         <v>630</v>
@@ -19473,7 +19475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7">
       <c r="A665" s="14"/>
       <c r="B665" t="s">
         <v>630</v>
@@ -19494,7 +19496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7">
       <c r="A666" s="14"/>
       <c r="B666" t="s">
         <v>630</v>
@@ -19515,10 +19517,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7">
       <c r="A667" s="14"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7">
       <c r="A668" s="14"/>
       <c r="B668" t="s">
         <v>646</v>
@@ -19539,7 +19541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7">
       <c r="A669" s="14"/>
       <c r="B669" t="s">
         <v>646</v>
@@ -19560,7 +19562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7">
       <c r="A670" s="14"/>
       <c r="B670" t="s">
         <v>646</v>
@@ -19581,7 +19583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7">
       <c r="A671" s="14"/>
       <c r="B671" t="s">
         <v>646</v>
@@ -19593,7 +19595,7 @@
         <v>7162</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7">
       <c r="A672" s="14"/>
       <c r="B672" t="s">
         <v>646</v>
@@ -19605,7 +19607,7 @@
         <v>7279</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7">
       <c r="A673" s="14"/>
       <c r="B673" t="s">
         <v>646</v>
@@ -19617,7 +19619,7 @@
         <v>7281</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7">
       <c r="A674" s="14"/>
       <c r="B674" t="s">
         <v>646</v>
@@ -19629,7 +19631,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7">
       <c r="A675" s="14"/>
       <c r="B675" t="s">
         <v>646</v>
@@ -19641,7 +19643,7 @@
         <v>7169</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7">
       <c r="A676" s="14"/>
       <c r="B676" t="s">
         <v>646</v>
@@ -19653,7 +19655,7 @@
         <v>7172</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7">
       <c r="A677" s="14"/>
       <c r="B677" t="s">
         <v>646</v>
@@ -19665,10 +19667,10 @@
         <v>7165</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7">
       <c r="A678" s="14"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7">
       <c r="A679" s="14"/>
       <c r="B679" t="s">
         <v>30</v>
@@ -19689,7 +19691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7">
       <c r="A680" s="14"/>
       <c r="B680" t="s">
         <v>30</v>
@@ -19704,7 +19706,7 @@
         <v>7116</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7">
       <c r="A681" s="14"/>
       <c r="B681" t="s">
         <v>30</v>
@@ -19719,7 +19721,7 @@
         <v>7119</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7">
       <c r="A682" s="14"/>
       <c r="B682" t="s">
         <v>30</v>
@@ -19734,7 +19736,7 @@
         <v>7130</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7">
       <c r="A683" s="14"/>
       <c r="B683" t="s">
         <v>30</v>
@@ -19749,7 +19751,7 @@
         <v>7132</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7">
       <c r="A684" s="14"/>
       <c r="B684" t="s">
         <v>30</v>
@@ -19764,7 +19766,7 @@
         <v>7133</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7">
       <c r="A685" s="14"/>
       <c r="B685" t="s">
         <v>30</v>
@@ -19779,7 +19781,7 @@
         <v>7134</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7">
       <c r="A686" s="14"/>
       <c r="B686" t="s">
         <v>30</v>
@@ -19794,10 +19796,10 @@
         <v>7135</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7">
       <c r="A687" s="14"/>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7">
       <c r="A688" s="14"/>
       <c r="B688" t="s">
         <v>659</v>
@@ -19818,7 +19820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8">
       <c r="A689" s="14"/>
       <c r="B689" t="s">
         <v>659</v>
@@ -19839,10 +19841,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8">
       <c r="A690" s="14"/>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8">
       <c r="A691" s="14"/>
       <c r="B691" t="s">
         <v>664</v>
@@ -19866,7 +19868,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8">
       <c r="A692" s="14"/>
       <c r="B692" t="s">
         <v>664</v>
@@ -19890,10 +19892,10 @@
         <v>775</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8">
       <c r="A693" s="14"/>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8">
       <c r="A694" s="14"/>
       <c r="B694" t="s">
         <v>669</v>
@@ -19914,16 +19916,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8">
       <c r="A695" s="14"/>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8">
       <c r="A696" s="14"/>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8">
       <c r="A697" s="14"/>
     </row>
-    <row r="702" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:8">
       <c r="A702" s="15"/>
       <c r="C702" s="16"/>
     </row>
@@ -19944,50 +19946,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S40"/>
+  <dimension ref="A2:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="19" t="s">
         <v>685</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" t="s">
         <v>686</v>
       </c>
@@ -20010,7 +20012,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>797</v>
       </c>
@@ -20051,7 +20053,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>17942</v>
       </c>
@@ -20096,7 +20098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>17955</v>
       </c>
@@ -20141,7 +20143,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>18142</v>
       </c>
@@ -20183,7 +20185,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>18145</v>
       </c>
@@ -20225,7 +20227,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>18148</v>
       </c>
@@ -20267,7 +20269,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>18151</v>
       </c>
@@ -20312,7 +20314,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>18154</v>
       </c>
@@ -20351,7 +20353,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>18851</v>
       </c>
@@ -20390,7 +20392,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>18852</v>
       </c>
@@ -20429,7 +20431,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>18853</v>
       </c>
@@ -20468,7 +20470,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>17956</v>
       </c>
@@ -20504,7 +20506,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>17957</v>
       </c>
@@ -20540,7 +20542,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>17959</v>
       </c>
@@ -20554,7 +20556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>18144</v>
       </c>
@@ -20568,10 +20570,10 @@
         <v>731</v>
       </c>
       <c r="E18" t="s">
-        <v>732</v>
-      </c>
-      <c r="F18" t="s">
         <v>115</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -20595,7 +20597,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>18147</v>
       </c>
@@ -20603,25 +20605,25 @@
         <v>730</v>
       </c>
       <c r="C19" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D19" t="s">
-        <v>731</v>
+        <v>809</v>
       </c>
       <c r="E19" t="s">
-        <v>698</v>
-      </c>
-      <c r="F19" t="s">
-        <v>115</v>
+        <v>713</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
       </c>
       <c r="G19">
         <v>24</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>803</v>
+      <c r="H19" t="s">
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>808</v>
+        <v>115</v>
       </c>
       <c r="J19" t="s">
         <v>701</v>
@@ -20636,7 +20638,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>18150</v>
       </c>
@@ -20644,22 +20646,22 @@
         <v>730</v>
       </c>
       <c r="C20" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="D20" t="s">
-        <v>731</v>
+        <v>810</v>
       </c>
       <c r="E20" t="s">
-        <v>706</v>
-      </c>
-      <c r="F20" t="s">
-        <v>115</v>
+        <v>716</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
       </c>
       <c r="G20">
         <v>36</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>804</v>
+      <c r="H20" t="s">
+        <v>115</v>
       </c>
       <c r="I20" t="s">
         <v>808</v>
@@ -20677,7 +20679,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>18156</v>
       </c>
@@ -20685,25 +20687,25 @@
         <v>730</v>
       </c>
       <c r="C21" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="D21" t="s">
-        <v>731</v>
+        <v>811</v>
       </c>
       <c r="E21" t="s">
-        <v>710</v>
-      </c>
-      <c r="F21" t="s">
-        <v>115</v>
+        <v>718</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
       </c>
       <c r="G21">
         <v>12</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>805</v>
+      <c r="H21" t="s">
+        <v>115</v>
       </c>
       <c r="I21" t="s">
-        <v>808</v>
+        <v>115</v>
       </c>
       <c r="J21" t="s">
         <v>701</v>
@@ -20718,7 +20720,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>17962</v>
       </c>
@@ -20726,28 +20728,28 @@
         <v>730</v>
       </c>
       <c r="C22" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="D22" t="s">
-        <v>731</v>
+        <v>812</v>
       </c>
       <c r="E22" t="s">
-        <v>713</v>
-      </c>
-      <c r="F22" t="s">
-        <v>115</v>
+        <v>721</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>24</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>806</v>
+      <c r="H22" t="s">
+        <v>115</v>
       </c>
       <c r="I22" t="s">
         <v>808</v>
       </c>
       <c r="J22" t="s">
-        <v>701</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
         <v>700</v>
@@ -20759,7 +20761,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>17963</v>
       </c>
@@ -20770,13 +20772,13 @@
         <v>697</v>
       </c>
       <c r="D23" t="s">
-        <v>731</v>
+        <v>813</v>
       </c>
       <c r="E23" t="s">
-        <v>716</v>
-      </c>
-      <c r="F23" t="s">
-        <v>700</v>
+        <v>723</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
       </c>
       <c r="G23">
         <v>36</v>
@@ -20800,112 +20802,58 @@
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24">
-        <v>17964</v>
+        <v>18736</v>
       </c>
       <c r="B24" t="s">
         <v>730</v>
       </c>
       <c r="C24" t="s">
-        <v>705</v>
-      </c>
-      <c r="D24" t="s">
-        <v>731</v>
-      </c>
-      <c r="E24" t="s">
-        <v>718</v>
-      </c>
-      <c r="F24" t="s">
-        <v>700</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
+        <v>697</v>
+      </c>
+      <c r="K24" t="s">
         <v>115</v>
-      </c>
-      <c r="I24" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" t="s">
-        <v>700</v>
       </c>
       <c r="P24" s="12" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>17966</v>
-      </c>
-      <c r="B25" t="s">
-        <v>730</v>
-      </c>
-      <c r="C25" t="s">
-        <v>709</v>
-      </c>
-      <c r="D25" t="s">
-        <v>731</v>
-      </c>
-      <c r="E25" t="s">
-        <v>721</v>
-      </c>
-      <c r="F25" t="s">
-        <v>700</v>
-      </c>
-      <c r="G25">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" t="s">
-        <v>700</v>
-      </c>
+    <row r="25" spans="1:16">
       <c r="P25" s="12" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26">
-        <v>17967</v>
+        <v>18143</v>
       </c>
       <c r="B26" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C26" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="D26" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E26" t="s">
-        <v>723</v>
-      </c>
-      <c r="F26" t="s">
         <v>700</v>
       </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
       <c r="G26">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>115</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>802</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>701</v>
       </c>
       <c r="K26" t="s">
         <v>700</v>
@@ -20914,36 +20862,36 @@
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27">
-        <v>17968</v>
+        <v>18146</v>
       </c>
       <c r="B27" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C27" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="D27" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="E27" t="s">
-        <v>725</v>
-      </c>
-      <c r="F27" t="s">
         <v>700</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>803</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>802</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>701</v>
       </c>
       <c r="K27" t="s">
         <v>700</v>
@@ -20952,44 +20900,100 @@
         <v>720</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28">
-        <v>18736</v>
+        <v>18149</v>
       </c>
       <c r="B28" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C28" t="s">
-        <v>697</v>
+        <v>709</v>
+      </c>
+      <c r="D28" t="s">
+        <v>736</v>
+      </c>
+      <c r="E28" t="s">
+        <v>700</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>804</v>
+      </c>
+      <c r="I28" t="s">
+        <v>802</v>
+      </c>
+      <c r="J28" t="s">
+        <v>701</v>
       </c>
       <c r="K28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>18152</v>
+      </c>
+      <c r="B29" t="s">
+        <v>733</v>
+      </c>
+      <c r="C29" t="s">
+        <v>712</v>
+      </c>
+      <c r="D29" t="s">
+        <v>734</v>
+      </c>
+      <c r="E29" t="s">
+        <v>700</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>805</v>
+      </c>
+      <c r="I29" t="s">
+        <v>802</v>
+      </c>
+      <c r="J29" t="s">
+        <v>701</v>
+      </c>
+      <c r="K29" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
-        <v>18143</v>
+        <v>18153</v>
       </c>
       <c r="B30" t="s">
         <v>733</v>
       </c>
       <c r="C30" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="D30" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E30" t="s">
         <v>700</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>806</v>
       </c>
       <c r="I30" t="s">
         <v>802</v>
@@ -21007,36 +21011,36 @@
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31">
-        <v>18146</v>
+        <v>18155</v>
       </c>
       <c r="B31" t="s">
         <v>733</v>
       </c>
       <c r="C31" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D31" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E31" t="s">
-        <v>700</v>
+        <v>115</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>803</v>
+        <v>115</v>
       </c>
       <c r="I31" t="s">
-        <v>802</v>
+        <v>115</v>
       </c>
       <c r="J31" t="s">
-        <v>701</v>
+        <v>56</v>
       </c>
       <c r="K31" t="s">
         <v>700</v>
@@ -21048,21 +21052,21 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32">
-        <v>18149</v>
+        <v>17970</v>
       </c>
       <c r="B32" t="s">
         <v>733</v>
       </c>
       <c r="C32" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D32" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E32" t="s">
-        <v>700</v>
+        <v>115</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -21071,13 +21075,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>804</v>
+        <v>115</v>
       </c>
       <c r="I32" t="s">
-        <v>802</v>
+        <v>115</v>
       </c>
       <c r="J32" t="s">
-        <v>701</v>
+        <v>56</v>
       </c>
       <c r="K32" t="s">
         <v>700</v>
@@ -21086,36 +21090,36 @@
         <v>704</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33">
-        <v>18152</v>
+        <v>17971</v>
       </c>
       <c r="B33" t="s">
         <v>733</v>
       </c>
       <c r="C33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D33" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E33" t="s">
-        <v>700</v>
+        <v>115</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>805</v>
+        <v>115</v>
       </c>
       <c r="I33" t="s">
-        <v>802</v>
+        <v>115</v>
       </c>
       <c r="J33" t="s">
-        <v>701</v>
+        <v>56</v>
       </c>
       <c r="K33" t="s">
         <v>700</v>
@@ -21124,36 +21128,36 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34">
-        <v>18153</v>
+        <v>17972</v>
       </c>
       <c r="B34" t="s">
         <v>733</v>
       </c>
       <c r="C34" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D34" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E34" t="s">
-        <v>700</v>
+        <v>115</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>806</v>
+        <v>115</v>
       </c>
       <c r="I34" t="s">
-        <v>802</v>
+        <v>115</v>
       </c>
       <c r="J34" t="s">
-        <v>701</v>
+        <v>56</v>
       </c>
       <c r="K34" t="s">
         <v>700</v>
@@ -21162,18 +21166,18 @@
         <v>704</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35">
-        <v>18155</v>
+        <v>17973</v>
       </c>
       <c r="B35" t="s">
         <v>733</v>
       </c>
       <c r="C35" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="D35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E35" t="s">
         <v>115</v>
@@ -21200,170 +21204,21 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36">
-        <v>17970</v>
+        <v>17974</v>
       </c>
       <c r="B36" t="s">
         <v>733</v>
       </c>
       <c r="C36" t="s">
-        <v>705</v>
-      </c>
-      <c r="D36" t="s">
-        <v>734</v>
-      </c>
-      <c r="E36" t="s">
+        <v>697</v>
+      </c>
+      <c r="K36" t="s">
         <v>115</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" t="s">
-        <v>115</v>
-      </c>
-      <c r="J36" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" t="s">
-        <v>700</v>
       </c>
       <c r="P36" s="12" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>17971</v>
-      </c>
-      <c r="B37" t="s">
-        <v>733</v>
-      </c>
-      <c r="C37" t="s">
-        <v>709</v>
-      </c>
-      <c r="D37" t="s">
-        <v>735</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" t="s">
-        <v>700</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>17972</v>
-      </c>
-      <c r="B38" t="s">
-        <v>733</v>
-      </c>
-      <c r="C38" t="s">
-        <v>712</v>
-      </c>
-      <c r="D38" t="s">
-        <v>736</v>
-      </c>
-      <c r="E38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" t="s">
-        <v>700</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>17973</v>
-      </c>
-      <c r="B39" t="s">
-        <v>733</v>
-      </c>
-      <c r="C39" t="s">
-        <v>715</v>
-      </c>
-      <c r="D39" t="s">
-        <v>734</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>12</v>
-      </c>
-      <c r="H39" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" t="s">
-        <v>700</v>
-      </c>
-      <c r="P39" s="12" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>17974</v>
-      </c>
-      <c r="B40" t="s">
-        <v>733</v>
-      </c>
-      <c r="C40" t="s">
-        <v>697</v>
-      </c>
-      <c r="K40" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/automation_tracking.xlsx
+++ b/automation_tracking.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="100" windowWidth="12140" windowHeight="8380" activeTab="3"/>
+    <workbookView xWindow="105" yWindow="105" windowWidth="23325" windowHeight="12495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Add New Partner Detail" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="817">
   <si>
     <t>Billing Automation Test Plan</t>
   </si>
@@ -2534,6 +2535,15 @@
   </si>
   <si>
     <t>600 Users</t>
+  </si>
+  <si>
+    <t>Up to 10GB</t>
+  </si>
+  <si>
+    <t>Up to 500GB</t>
+  </si>
+  <si>
+    <t>Down to none</t>
   </si>
 </sst>
 </file>
@@ -3123,13 +3133,13 @@
       <selection activeCell="B28" sqref="B28:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -3143,7 +3153,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>41222</v>
       </c>
@@ -3157,7 +3167,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>41222</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>41222</v>
       </c>
@@ -3185,7 +3195,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>41222</v>
       </c>
@@ -3199,7 +3209,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>41222</v>
       </c>
@@ -3213,7 +3223,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>41222</v>
       </c>
@@ -3227,7 +3237,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>41222</v>
       </c>
@@ -3241,7 +3251,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>41222</v>
       </c>
@@ -3255,7 +3265,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>41222</v>
       </c>
@@ -3269,7 +3279,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>41222</v>
       </c>
@@ -3283,7 +3293,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>41222</v>
       </c>
@@ -3297,7 +3307,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>41222</v>
       </c>
@@ -3311,7 +3321,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>41222</v>
       </c>
@@ -3325,7 +3335,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>41222</v>
       </c>
@@ -3339,7 +3349,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>41222</v>
       </c>
@@ -3353,7 +3363,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>41222</v>
       </c>
@@ -3367,7 +3377,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>41222</v>
       </c>
@@ -3381,7 +3391,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>41222</v>
       </c>
@@ -3395,7 +3405,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>41222</v>
       </c>
@@ -3409,7 +3419,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>41222</v>
       </c>
@@ -3423,7 +3433,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>41222</v>
       </c>
@@ -3437,7 +3447,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>41222</v>
       </c>
@@ -3451,7 +3461,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>41222</v>
       </c>
@@ -3465,7 +3475,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>41222</v>
       </c>
@@ -3479,7 +3489,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>41222</v>
       </c>
@@ -3493,7 +3503,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>41222</v>
       </c>
@@ -3507,7 +3517,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>41222</v>
       </c>
@@ -3521,7 +3531,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>41222</v>
       </c>
@@ -3535,7 +3545,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>41222</v>
       </c>
@@ -3549,7 +3559,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>41222</v>
       </c>
@@ -3563,7 +3573,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>41222</v>
       </c>
@@ -3577,7 +3587,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>41222</v>
       </c>
@@ -3591,7 +3601,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>41222</v>
       </c>
@@ -3605,7 +3615,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>41222</v>
       </c>
@@ -3619,7 +3629,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>41250</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>41250</v>
       </c>
@@ -3647,7 +3657,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>41250</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>41250</v>
       </c>
@@ -3675,7 +3685,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>41250</v>
       </c>
@@ -3689,7 +3699,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>41250</v>
       </c>
@@ -3703,7 +3713,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>41250</v>
       </c>
@@ -3717,7 +3727,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>41250</v>
       </c>
@@ -3731,7 +3741,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>41250</v>
       </c>
@@ -3745,7 +3755,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>41250</v>
       </c>
@@ -3759,7 +3769,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>41250</v>
       </c>
@@ -3773,7 +3783,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>41250</v>
       </c>
@@ -3787,7 +3797,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>41250</v>
       </c>
@@ -3801,7 +3811,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>41250</v>
       </c>
@@ -3815,7 +3825,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>41250</v>
       </c>
@@ -3829,7 +3839,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>41250</v>
       </c>
@@ -3843,7 +3853,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>41250</v>
       </c>
@@ -3857,7 +3867,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>41264</v>
       </c>
@@ -3871,7 +3881,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>41264</v>
       </c>
@@ -3885,7 +3895,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>41264</v>
       </c>
@@ -3899,7 +3909,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>41264</v>
       </c>
@@ -3913,7 +3923,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>41264</v>
       </c>
@@ -3927,7 +3937,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>41264</v>
       </c>
@@ -3941,7 +3951,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>41264</v>
       </c>
@@ -3955,7 +3965,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>41264</v>
       </c>
@@ -3969,7 +3979,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>41264</v>
       </c>
@@ -3983,7 +3993,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>41264</v>
       </c>
@@ -4000,7 +4010,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>41264</v>
       </c>
@@ -4017,7 +4027,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>41264</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>40912</v>
       </c>
@@ -4048,7 +4058,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>40912</v>
       </c>
@@ -4062,7 +4072,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>40912</v>
       </c>
@@ -4076,7 +4086,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>40912</v>
       </c>
@@ -4090,7 +4100,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>40912</v>
       </c>
@@ -4104,7 +4114,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>40912</v>
       </c>
@@ -4118,7 +4128,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>40912</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>40912</v>
       </c>
@@ -4146,7 +4156,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>40912</v>
       </c>
@@ -4160,7 +4170,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>40912</v>
       </c>
@@ -4193,22 +4203,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>684</v>
       </c>
@@ -4231,12 +4241,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -4250,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -4278,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -4292,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -4306,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -4320,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -4334,7 +4344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -4348,12 +4358,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -4367,7 +4377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -4381,7 +4391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -4395,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -4409,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -4423,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -4437,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -4451,7 +4461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -4465,12 +4475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -4484,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -4498,7 +4508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -4512,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -4526,12 +4536,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -4545,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -4559,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>8</v>
       </c>
@@ -4573,7 +4583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -4587,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>13</v>
       </c>
@@ -4598,12 +4608,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -4617,7 +4627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -4631,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>17</v>
       </c>
@@ -4645,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -4659,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -4673,12 +4683,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>20</v>
       </c>
@@ -4692,12 +4702,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>17</v>
       </c>
@@ -4711,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -4725,7 +4735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>8</v>
       </c>
@@ -4739,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -4753,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -4767,7 +4777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>24</v>
       </c>
@@ -4781,12 +4791,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>25</v>
       </c>
@@ -4800,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -4814,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>22</v>
       </c>
@@ -4828,7 +4838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>16</v>
       </c>
@@ -4842,12 +4852,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>13</v>
       </c>
@@ -4861,7 +4871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>27</v>
       </c>
@@ -4875,7 +4885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>28</v>
       </c>
@@ -4889,12 +4899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>29</v>
       </c>
@@ -4908,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>27</v>
       </c>
@@ -4922,12 +4932,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>14</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>31</v>
       </c>
@@ -4955,7 +4965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>9</v>
       </c>
@@ -4969,7 +4979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>10</v>
       </c>
@@ -4983,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>11</v>
       </c>
@@ -4997,7 +5007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>13</v>
       </c>
@@ -5025,7 +5035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -5039,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>33</v>
       </c>
@@ -5072,26 +5082,26 @@
       <selection pane="bottomLeft" activeCell="D67" sqref="D67:D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -5120,12 +5130,12 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -5151,7 +5161,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>693</v>
       </c>
@@ -5168,7 +5178,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>41222</v>
       </c>
@@ -5216,7 +5226,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>41222</v>
       </c>
@@ -5264,7 +5274,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>41222</v>
       </c>
@@ -5312,7 +5322,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>41222</v>
       </c>
@@ -5360,7 +5370,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>41222</v>
       </c>
@@ -5408,7 +5418,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>41222</v>
       </c>
@@ -5456,7 +5466,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>41222</v>
       </c>
@@ -5501,7 +5511,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>41222</v>
       </c>
@@ -5546,7 +5556,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>41222</v>
       </c>
@@ -5591,7 +5601,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>41222</v>
       </c>
@@ -5636,7 +5646,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>41222</v>
       </c>
@@ -5665,7 +5675,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>41222</v>
       </c>
@@ -5715,7 +5725,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>41222</v>
       </c>
@@ -5765,7 +5775,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>41222</v>
       </c>
@@ -5815,7 +5825,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>41222</v>
       </c>
@@ -5865,7 +5875,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>41222</v>
       </c>
@@ -5915,7 +5925,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>41222</v>
       </c>
@@ -5965,7 +5975,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>41222</v>
       </c>
@@ -6012,7 +6022,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>41222</v>
       </c>
@@ -6059,7 +6069,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>41222</v>
       </c>
@@ -6106,7 +6116,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>41222</v>
       </c>
@@ -6153,7 +6163,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>41222</v>
       </c>
@@ -6179,7 +6189,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>41222</v>
       </c>
@@ -6229,7 +6239,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>41222</v>
       </c>
@@ -6279,7 +6289,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>41222</v>
       </c>
@@ -6326,7 +6336,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>41222</v>
       </c>
@@ -6373,7 +6383,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>41222</v>
       </c>
@@ -6420,7 +6430,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>41222</v>
       </c>
@@ -6467,7 +6477,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>41222</v>
       </c>
@@ -6514,7 +6524,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>41222</v>
       </c>
@@ -6561,7 +6571,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>41222</v>
       </c>
@@ -6608,7 +6618,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>41222</v>
       </c>
@@ -6655,7 +6665,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>41222</v>
       </c>
@@ -6681,7 +6691,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>42</v>
       </c>
@@ -6701,7 +6711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>41236</v>
       </c>
@@ -6724,7 +6734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>41236</v>
       </c>
@@ -6747,7 +6757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>41236</v>
       </c>
@@ -6770,7 +6780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>41236</v>
       </c>
@@ -6793,7 +6803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>41236</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>41236</v>
       </c>
@@ -6833,7 +6843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>41236</v>
       </c>
@@ -6853,7 +6863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>41236</v>
       </c>
@@ -6873,7 +6883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>41236</v>
       </c>
@@ -6893,7 +6903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>41236</v>
       </c>
@@ -6913,7 +6923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>41236</v>
       </c>
@@ -6933,7 +6943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>41236</v>
       </c>
@@ -6953,7 +6963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>41236</v>
       </c>
@@ -6973,7 +6983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>41236</v>
       </c>
@@ -6996,7 +7006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>41236</v>
       </c>
@@ -7019,7 +7029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>41236</v>
       </c>
@@ -7042,7 +7052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>41236</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>41250</v>
       </c>
@@ -7088,7 +7098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>41250</v>
       </c>
@@ -7111,7 +7121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>41250</v>
       </c>
@@ -7134,7 +7144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>41250</v>
       </c>
@@ -7157,7 +7167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>41250</v>
       </c>
@@ -7180,7 +7190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>41250</v>
       </c>
@@ -7203,7 +7213,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>41250</v>
       </c>
@@ -7226,7 +7236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>41250</v>
       </c>
@@ -7249,7 +7259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>41250</v>
       </c>
@@ -7272,7 +7282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>41250</v>
       </c>
@@ -7292,7 +7302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>41250</v>
       </c>
@@ -7312,7 +7322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>41250</v>
       </c>
@@ -7332,7 +7342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <v>41264</v>
       </c>
@@ -7355,7 +7365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <v>41264</v>
       </c>
@@ -7378,7 +7388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <v>41264</v>
       </c>
@@ -7399,7 +7409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>41264</v>
       </c>
@@ -7419,7 +7429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <v>41264</v>
       </c>
@@ -7442,7 +7452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>41264</v>
       </c>
@@ -7462,7 +7472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>41264</v>
       </c>
@@ -7485,7 +7495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>41264</v>
       </c>
@@ -7505,7 +7515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16">
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" t="s">
         <v>40</v>
@@ -7526,7 +7536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16">
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" t="s">
         <v>40</v>
@@ -7547,7 +7557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16">
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" t="s">
         <v>39</v>
@@ -7568,7 +7578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16">
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" t="s">
         <v>50</v>
@@ -7589,7 +7599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16">
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" t="s">
         <v>50</v>
@@ -7610,7 +7620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16">
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" t="s">
         <v>50</v>
@@ -7631,7 +7641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16">
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" t="s">
         <v>50</v>
@@ -7652,7 +7662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16">
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" t="s">
         <v>50</v>
@@ -7673,7 +7683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16">
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" t="s">
         <v>50</v>
@@ -7694,7 +7704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16">
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" t="s">
         <v>50</v>
@@ -7715,7 +7725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16">
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" t="s">
         <v>50</v>
@@ -7736,7 +7746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16">
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" t="s">
         <v>50</v>
@@ -7757,7 +7767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16">
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" t="s">
         <v>50</v>
@@ -7778,7 +7788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16">
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" t="s">
         <v>50</v>
@@ -7799,7 +7809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16">
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" t="s">
         <v>50</v>
@@ -7820,7 +7830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16">
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" t="s">
         <v>50</v>
@@ -7841,7 +7851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16">
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" t="s">
         <v>50</v>
@@ -7862,7 +7872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16">
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" t="s">
         <v>50</v>
@@ -7883,7 +7893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16">
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" t="s">
         <v>50</v>
@@ -7904,7 +7914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16">
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" t="s">
         <v>50</v>
@@ -7925,7 +7935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16">
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" t="s">
         <v>50</v>
@@ -7946,7 +7956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16">
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" t="s">
         <v>50</v>
@@ -7967,10 +7977,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" t="s">
         <v>40</v>
@@ -7991,10 +8001,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" t="s">
         <v>74</v>
@@ -8015,7 +8025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" t="s">
         <v>74</v>
@@ -8036,7 +8046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" t="s">
         <v>74</v>
@@ -8057,7 +8067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" t="s">
         <v>74</v>
@@ -8078,7 +8088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" t="s">
         <v>74</v>
@@ -8099,7 +8109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" t="s">
         <v>74</v>
@@ -8120,7 +8130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" t="s">
         <v>74</v>
@@ -8141,7 +8151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" t="s">
         <v>74</v>
@@ -8162,7 +8172,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" t="s">
         <v>74</v>
@@ -8183,7 +8193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" t="s">
         <v>74</v>
@@ -8204,7 +8214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" t="s">
         <v>74</v>
@@ -8225,7 +8235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" t="s">
         <v>74</v>
@@ -8246,7 +8256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" t="s">
         <v>74</v>
@@ -8267,7 +8277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" t="s">
         <v>74</v>
@@ -8288,7 +8298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" t="s">
         <v>74</v>
@@ -8309,7 +8319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" t="s">
         <v>74</v>
@@ -8330,7 +8340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" t="s">
         <v>74</v>
@@ -8351,10 +8361,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" t="s">
         <v>16</v>
@@ -8375,7 +8385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" t="s">
         <v>16</v>
@@ -8396,7 +8406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" t="s">
         <v>16</v>
@@ -8417,7 +8427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" t="s">
         <v>16</v>
@@ -8438,7 +8448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" t="s">
         <v>16</v>
@@ -8459,7 +8469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" t="s">
         <v>16</v>
@@ -8480,7 +8490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" t="s">
         <v>16</v>
@@ -8501,7 +8511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" t="s">
         <v>16</v>
@@ -8522,7 +8532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" t="s">
         <v>16</v>
@@ -8543,7 +8553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" t="s">
         <v>16</v>
@@ -8564,7 +8574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" t="s">
         <v>16</v>
@@ -8585,7 +8595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" t="s">
         <v>16</v>
@@ -8606,7 +8616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" t="s">
         <v>16</v>
@@ -8627,7 +8637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" t="s">
         <v>16</v>
@@ -8648,7 +8658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" t="s">
         <v>16</v>
@@ -8669,7 +8679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" t="s">
         <v>16</v>
@@ -8690,7 +8700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" t="s">
         <v>16</v>
@@ -8711,7 +8721,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" t="s">
         <v>16</v>
@@ -8732,7 +8742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" t="s">
         <v>16</v>
@@ -8753,7 +8763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" t="s">
         <v>16</v>
@@ -8774,7 +8784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" t="s">
         <v>16</v>
@@ -8795,7 +8805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" t="s">
         <v>16</v>
@@ -8813,10 +8823,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" t="s">
         <v>117</v>
@@ -8834,10 +8844,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" t="s">
         <v>119</v>
@@ -8858,7 +8868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" t="s">
         <v>119</v>
@@ -8879,7 +8889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" t="s">
         <v>119</v>
@@ -8900,7 +8910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" t="s">
         <v>119</v>
@@ -8921,7 +8931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" t="s">
         <v>119</v>
@@ -8942,7 +8952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" t="s">
         <v>119</v>
@@ -8963,7 +8973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" t="s">
         <v>119</v>
@@ -8984,7 +8994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" t="s">
         <v>119</v>
@@ -9005,7 +9015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" t="s">
         <v>119</v>
@@ -9026,7 +9036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" t="s">
         <v>119</v>
@@ -9047,7 +9057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" t="s">
         <v>119</v>
@@ -9068,7 +9078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" t="s">
         <v>119</v>
@@ -9089,7 +9099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" t="s">
         <v>119</v>
@@ -9110,7 +9120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" t="s">
         <v>119</v>
@@ -9131,7 +9141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" t="s">
         <v>119</v>
@@ -9152,7 +9162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" t="s">
         <v>119</v>
@@ -9173,7 +9183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
       <c r="B162" t="s">
         <v>119</v>
@@ -9194,7 +9204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
       <c r="B163" t="s">
         <v>119</v>
@@ -9215,10 +9225,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
       <c r="B165" t="s">
         <v>139</v>
@@ -9239,10 +9249,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" t="s">
         <v>141</v>
@@ -9263,7 +9273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" t="s">
         <v>141</v>
@@ -9284,7 +9294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" t="s">
         <v>141</v>
@@ -9305,7 +9315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" t="s">
         <v>141</v>
@@ -9326,7 +9336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" t="s">
         <v>141</v>
@@ -9347,7 +9357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" t="s">
         <v>141</v>
@@ -9368,7 +9378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" t="s">
         <v>141</v>
@@ -9389,7 +9399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" t="s">
         <v>141</v>
@@ -9410,7 +9420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" t="s">
         <v>141</v>
@@ -9431,7 +9441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="F176" t="s">
         <v>2</v>
@@ -9440,7 +9450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" t="s">
         <v>152</v>
@@ -9461,7 +9471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" t="s">
         <v>152</v>
@@ -9482,7 +9492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" t="s">
         <v>152</v>
@@ -9503,7 +9513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" t="s">
         <v>152</v>
@@ -9524,7 +9534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" t="s">
         <v>152</v>
@@ -9545,7 +9555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" t="s">
         <v>152</v>
@@ -9566,7 +9576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" t="s">
         <v>152</v>
@@ -9587,7 +9597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" t="s">
         <v>152</v>
@@ -9608,7 +9618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" t="s">
         <v>152</v>
@@ -9629,7 +9639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" t="s">
         <v>152</v>
@@ -9650,7 +9660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" t="s">
         <v>152</v>
@@ -9671,7 +9681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" t="s">
         <v>152</v>
@@ -9692,10 +9702,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" t="s">
         <v>166</v>
@@ -9716,7 +9726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" t="s">
         <v>166</v>
@@ -9737,7 +9747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" t="s">
         <v>166</v>
@@ -9758,7 +9768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" t="s">
         <v>166</v>
@@ -9779,7 +9789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" t="s">
         <v>166</v>
@@ -9800,7 +9810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" t="s">
         <v>166</v>
@@ -9821,7 +9831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" t="s">
         <v>166</v>
@@ -9842,7 +9852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" t="s">
         <v>166</v>
@@ -9863,7 +9873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" t="s">
         <v>166</v>
@@ -9884,7 +9894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" t="s">
         <v>166</v>
@@ -9905,7 +9915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" t="s">
         <v>166</v>
@@ -9926,7 +9936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" t="s">
         <v>166</v>
@@ -9947,7 +9957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
       <c r="B202" t="s">
         <v>166</v>
@@ -9968,7 +9978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
       <c r="B203" t="s">
         <v>166</v>
@@ -9989,7 +9999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" t="s">
         <v>166</v>
@@ -10010,7 +10020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
       <c r="B205" t="s">
         <v>166</v>
@@ -10031,7 +10041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" t="s">
         <v>166</v>
@@ -10052,7 +10062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="14"/>
       <c r="B207" t="s">
         <v>166</v>
@@ -10073,7 +10083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
       <c r="B208" t="s">
         <v>166</v>
@@ -10094,7 +10104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
       <c r="B209" t="s">
         <v>166</v>
@@ -10115,7 +10125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
       <c r="B210" t="s">
         <v>166</v>
@@ -10136,7 +10146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
       <c r="B211" t="s">
         <v>166</v>
@@ -10157,7 +10167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
       <c r="B212" t="s">
         <v>166</v>
@@ -10178,7 +10188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
       <c r="B213" t="s">
         <v>166</v>
@@ -10199,7 +10209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" t="s">
         <v>166</v>
@@ -10220,7 +10230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" t="s">
         <v>166</v>
@@ -10241,16 +10251,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
       <c r="B217" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
       <c r="B218" t="s">
         <v>623</v>
@@ -10271,7 +10281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" t="s">
         <v>623</v>
@@ -10292,7 +10302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
       <c r="B220" t="s">
         <v>623</v>
@@ -10313,7 +10323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
       <c r="B221" t="s">
         <v>623</v>
@@ -10334,7 +10344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" t="s">
         <v>623</v>
@@ -10355,7 +10365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
       <c r="B223" t="s">
         <v>623</v>
@@ -10376,7 +10386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="14"/>
       <c r="B224" t="s">
         <v>623</v>
@@ -10397,7 +10407,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="14"/>
       <c r="B225" t="s">
         <v>623</v>
@@ -10418,7 +10428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
       <c r="B226" t="s">
         <v>623</v>
@@ -10439,7 +10449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
       <c r="B227" t="s">
         <v>623</v>
@@ -10460,7 +10470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="14"/>
       <c r="B228" t="s">
         <v>623</v>
@@ -10481,7 +10491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="14"/>
       <c r="B229" t="s">
         <v>623</v>
@@ -10502,7 +10512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="14"/>
       <c r="B230" t="s">
         <v>623</v>
@@ -10523,7 +10533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="14"/>
       <c r="B231" t="s">
         <v>623</v>
@@ -10544,7 +10554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
       <c r="B232" t="s">
         <v>623</v>
@@ -10565,7 +10575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
       <c r="B233" t="s">
         <v>623</v>
@@ -10586,7 +10596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
       <c r="B234" t="s">
         <v>623</v>
@@ -10607,7 +10617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="14"/>
       <c r="B235" t="s">
         <v>623</v>
@@ -10628,7 +10638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="14"/>
       <c r="B236" t="s">
         <v>623</v>
@@ -10649,7 +10659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="14"/>
       <c r="B237" t="s">
         <v>623</v>
@@ -10670,7 +10680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="14"/>
       <c r="B238" t="s">
         <v>623</v>
@@ -10691,7 +10701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="14"/>
       <c r="B239" t="s">
         <v>623</v>
@@ -10712,7 +10722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="14"/>
       <c r="B240" t="s">
         <v>623</v>
@@ -10733,7 +10743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
       <c r="B241" t="s">
         <v>623</v>
@@ -10754,7 +10764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
       <c r="B242" t="s">
         <v>623</v>
@@ -10775,7 +10785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
       <c r="B243" t="s">
         <v>623</v>
@@ -10796,7 +10806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
       <c r="B244" t="s">
         <v>623</v>
@@ -10817,7 +10827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
       <c r="B245" t="s">
         <v>623</v>
@@ -10838,7 +10848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
       <c r="B246" t="s">
         <v>623</v>
@@ -10859,7 +10869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
       <c r="B247" t="s">
         <v>623</v>
@@ -10880,7 +10890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" t="s">
         <v>623</v>
@@ -10901,7 +10911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" t="s">
         <v>623</v>
@@ -10922,7 +10932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" t="s">
         <v>623</v>
@@ -10943,7 +10953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" t="s">
         <v>623</v>
@@ -10964,7 +10974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" t="s">
         <v>623</v>
@@ -10985,7 +10995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" t="s">
         <v>623</v>
@@ -11006,7 +11016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" t="s">
         <v>623</v>
@@ -11027,7 +11037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" t="s">
         <v>623</v>
@@ -11048,7 +11058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
       <c r="B256" t="s">
         <v>623</v>
@@ -11069,7 +11079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" t="s">
         <v>623</v>
@@ -11090,7 +11100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" t="s">
         <v>623</v>
@@ -11111,7 +11121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" t="s">
         <v>623</v>
@@ -11132,7 +11142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" t="s">
         <v>623</v>
@@ -11153,7 +11163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" t="s">
         <v>623</v>
@@ -11174,7 +11184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" t="s">
         <v>623</v>
@@ -11195,7 +11205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" t="s">
         <v>623</v>
@@ -11216,7 +11226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" t="s">
         <v>623</v>
@@ -11237,7 +11247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" t="s">
         <v>623</v>
@@ -11258,7 +11268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" t="s">
         <v>623</v>
@@ -11279,7 +11289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" t="s">
         <v>623</v>
@@ -11300,7 +11310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" t="s">
         <v>623</v>
@@ -11321,7 +11331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
       <c r="B269" t="s">
         <v>623</v>
@@ -11342,7 +11352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
       <c r="B270" t="s">
         <v>623</v>
@@ -11363,7 +11373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
       <c r="B271" t="s">
         <v>623</v>
@@ -11384,10 +11394,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" t="s">
         <v>623</v>
@@ -11408,7 +11418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" t="s">
         <v>623</v>
@@ -11429,7 +11439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" t="s">
         <v>623</v>
@@ -11450,7 +11460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" t="s">
         <v>623</v>
@@ -11471,7 +11481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" t="s">
         <v>623</v>
@@ -11492,7 +11502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" t="s">
         <v>623</v>
@@ -11513,7 +11523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
       <c r="B279" t="s">
         <v>623</v>
@@ -11534,7 +11544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="14"/>
       <c r="B280" t="s">
         <v>623</v>
@@ -11555,7 +11565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" t="s">
         <v>623</v>
@@ -11576,7 +11586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" t="s">
         <v>623</v>
@@ -11597,7 +11607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" t="s">
         <v>623</v>
@@ -11618,7 +11628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
       <c r="B284" t="s">
         <v>623</v>
@@ -11639,7 +11649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" t="s">
         <v>623</v>
@@ -11660,7 +11670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" t="s">
         <v>623</v>
@@ -11681,7 +11691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" t="s">
         <v>623</v>
@@ -11702,7 +11712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" t="s">
         <v>623</v>
@@ -11723,7 +11733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
       <c r="B289" t="s">
         <v>623</v>
@@ -11744,7 +11754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" t="s">
         <v>623</v>
@@ -11765,7 +11775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" t="s">
         <v>623</v>
@@ -11786,7 +11796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" t="s">
         <v>623</v>
@@ -11807,7 +11817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" t="s">
         <v>623</v>
@@ -11828,7 +11838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" t="s">
         <v>623</v>
@@ -11849,7 +11859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" t="s">
         <v>623</v>
@@ -11870,7 +11880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" t="s">
         <v>623</v>
@@ -11891,7 +11901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" t="s">
         <v>623</v>
@@ -11912,7 +11922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" t="s">
         <v>623</v>
@@ -11933,7 +11943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
       <c r="B299" t="s">
         <v>623</v>
@@ -11954,7 +11964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" t="s">
         <v>623</v>
@@ -11975,7 +11985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
       <c r="B301" t="s">
         <v>623</v>
@@ -11996,7 +12006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" t="s">
         <v>623</v>
@@ -12017,7 +12027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" t="s">
         <v>623</v>
@@ -12038,7 +12048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
       <c r="B304" t="s">
         <v>623</v>
@@ -12059,7 +12069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
       <c r="B305" t="s">
         <v>623</v>
@@ -12080,7 +12090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
       <c r="B306" t="s">
         <v>623</v>
@@ -12101,7 +12111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
       <c r="B307" t="s">
         <v>623</v>
@@ -12122,7 +12132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
       <c r="B308" t="s">
         <v>623</v>
@@ -12143,7 +12153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
       <c r="B309" t="s">
         <v>623</v>
@@ -12164,7 +12174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
       <c r="B310" t="s">
         <v>623</v>
@@ -12185,7 +12195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
       <c r="B311" t="s">
         <v>623</v>
@@ -12206,7 +12216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
       <c r="B312" t="s">
         <v>623</v>
@@ -12227,7 +12237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
       <c r="B313" t="s">
         <v>623</v>
@@ -12248,7 +12258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
       <c r="B314" t="s">
         <v>623</v>
@@ -12269,7 +12279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="14"/>
       <c r="B315" t="s">
         <v>623</v>
@@ -12290,7 +12300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
       <c r="B316" t="s">
         <v>623</v>
@@ -12311,7 +12321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
       <c r="B317" t="s">
         <v>623</v>
@@ -12332,7 +12342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
       <c r="B318" t="s">
         <v>623</v>
@@ -12353,7 +12363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
       <c r="B319" t="s">
         <v>623</v>
@@ -12374,7 +12384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
       <c r="B320" t="s">
         <v>623</v>
@@ -12395,7 +12405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
       <c r="B321" t="s">
         <v>623</v>
@@ -12416,7 +12426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="14"/>
       <c r="B322" t="s">
         <v>623</v>
@@ -12437,7 +12447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
       <c r="B323" t="s">
         <v>623</v>
@@ -12458,7 +12468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
       <c r="B324" t="s">
         <v>623</v>
@@ -12479,7 +12489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
       <c r="B325" t="s">
         <v>623</v>
@@ -12500,7 +12510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
       <c r="B326" t="s">
         <v>623</v>
@@ -12521,10 +12531,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
       <c r="B328" t="s">
         <v>623</v>
@@ -12545,7 +12555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
       <c r="B329" t="s">
         <v>623</v>
@@ -12566,7 +12576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
       <c r="B330" t="s">
         <v>623</v>
@@ -12587,7 +12597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
       <c r="B331" t="s">
         <v>623</v>
@@ -12608,7 +12618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
       <c r="B332" t="s">
         <v>623</v>
@@ -12629,7 +12639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
       <c r="B333" t="s">
         <v>623</v>
@@ -12650,7 +12660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
       <c r="B334" t="s">
         <v>623</v>
@@ -12671,7 +12681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
       <c r="B335" t="s">
         <v>623</v>
@@ -12692,7 +12702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
       <c r="B336" t="s">
         <v>623</v>
@@ -12713,7 +12723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="14"/>
       <c r="B337" t="s">
         <v>623</v>
@@ -12734,7 +12744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="14"/>
       <c r="B338" t="s">
         <v>623</v>
@@ -12755,7 +12765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
       <c r="B339" t="s">
         <v>623</v>
@@ -12776,7 +12786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
       <c r="B340" t="s">
         <v>623</v>
@@ -12797,7 +12807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
       <c r="B341" t="s">
         <v>623</v>
@@ -12818,7 +12828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
       <c r="B342" t="s">
         <v>623</v>
@@ -12839,7 +12849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
       <c r="B343" t="s">
         <v>623</v>
@@ -12860,7 +12870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
       <c r="B344" t="s">
         <v>623</v>
@@ -12881,7 +12891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
       <c r="B345" t="s">
         <v>623</v>
@@ -12902,7 +12912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="14"/>
       <c r="B346" t="s">
         <v>623</v>
@@ -12923,7 +12933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
       <c r="B347" t="s">
         <v>623</v>
@@ -12944,7 +12954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="14"/>
       <c r="B348" t="s">
         <v>623</v>
@@ -12965,7 +12975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" t="s">
         <v>623</v>
@@ -12986,7 +12996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
       <c r="B350" t="s">
         <v>623</v>
@@ -13007,7 +13017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" t="s">
         <v>623</v>
@@ -13028,7 +13038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" t="s">
         <v>623</v>
@@ -13049,7 +13059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
       <c r="B353" t="s">
         <v>623</v>
@@ -13070,7 +13080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
       <c r="B354" t="s">
         <v>623</v>
@@ -13091,7 +13101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
       <c r="B355" t="s">
         <v>623</v>
@@ -13112,7 +13122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" t="s">
         <v>623</v>
@@ -13133,7 +13143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
       <c r="B357" t="s">
         <v>623</v>
@@ -13154,7 +13164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" t="s">
         <v>623</v>
@@ -13175,7 +13185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" t="s">
         <v>623</v>
@@ -13196,7 +13206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" t="s">
         <v>623</v>
@@ -13217,7 +13227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" t="s">
         <v>623</v>
@@ -13238,7 +13248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" t="s">
         <v>623</v>
@@ -13259,7 +13269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
       <c r="B363" t="s">
         <v>623</v>
@@ -13280,7 +13290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
       <c r="B364" t="s">
         <v>623</v>
@@ -13301,7 +13311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
       <c r="B365" t="s">
         <v>623</v>
@@ -13322,7 +13332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
       <c r="B366" t="s">
         <v>623</v>
@@ -13343,7 +13353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" t="s">
         <v>623</v>
@@ -13364,7 +13374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
       <c r="B368" t="s">
         <v>623</v>
@@ -13385,7 +13395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" t="s">
         <v>623</v>
@@ -13406,7 +13416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
       <c r="B370" t="s">
         <v>623</v>
@@ -13427,7 +13437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" t="s">
         <v>623</v>
@@ -13448,7 +13458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
       <c r="B372" t="s">
         <v>623</v>
@@ -13469,7 +13479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="14"/>
       <c r="B373" t="s">
         <v>623</v>
@@ -13490,7 +13500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="14"/>
       <c r="B374" t="s">
         <v>623</v>
@@ -13511,7 +13521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="14"/>
       <c r="B375" t="s">
         <v>623</v>
@@ -13532,7 +13542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="14"/>
       <c r="B376" t="s">
         <v>623</v>
@@ -13553,7 +13563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="14"/>
       <c r="B377" t="s">
         <v>623</v>
@@ -13574,7 +13584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="14"/>
       <c r="B378" t="s">
         <v>623</v>
@@ -13595,7 +13605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="14"/>
       <c r="B379" t="s">
         <v>623</v>
@@ -13616,7 +13626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="14"/>
       <c r="B380" t="s">
         <v>623</v>
@@ -13637,7 +13647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="14"/>
       <c r="B381" t="s">
         <v>623</v>
@@ -13658,10 +13668,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="14"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="14"/>
       <c r="B383" t="s">
         <v>623</v>
@@ -13682,7 +13692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="14"/>
       <c r="B384" t="s">
         <v>623</v>
@@ -13703,7 +13713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
       <c r="B385" t="s">
         <v>623</v>
@@ -13724,7 +13734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
       <c r="B386" t="s">
         <v>623</v>
@@ -13745,7 +13755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="14"/>
       <c r="B387" t="s">
         <v>623</v>
@@ -13766,7 +13776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
       <c r="B388" t="s">
         <v>623</v>
@@ -13787,7 +13797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="14"/>
       <c r="B389" t="s">
         <v>623</v>
@@ -13808,7 +13818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
       <c r="B390" t="s">
         <v>623</v>
@@ -13829,7 +13839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="14"/>
       <c r="B391" t="s">
         <v>623</v>
@@ -13850,7 +13860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="14"/>
       <c r="B392" t="s">
         <v>623</v>
@@ -13871,7 +13881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
       <c r="B393" t="s">
         <v>623</v>
@@ -13892,7 +13902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
       <c r="B394" t="s">
         <v>623</v>
@@ -13913,7 +13923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
       <c r="B395" t="s">
         <v>623</v>
@@ -13934,7 +13944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
       <c r="B396" t="s">
         <v>623</v>
@@ -13955,7 +13965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="14"/>
       <c r="B397" t="s">
         <v>623</v>
@@ -13976,7 +13986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="14"/>
       <c r="B398" t="s">
         <v>623</v>
@@ -13997,7 +14007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="14"/>
       <c r="B399" t="s">
         <v>623</v>
@@ -14018,7 +14028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
       <c r="B400" t="s">
         <v>623</v>
@@ -14039,7 +14049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
       <c r="B401" t="s">
         <v>623</v>
@@ -14060,7 +14070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="14"/>
       <c r="B402" t="s">
         <v>623</v>
@@ -14081,7 +14091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="14"/>
       <c r="B403" t="s">
         <v>623</v>
@@ -14102,7 +14112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="14"/>
       <c r="B404" t="s">
         <v>623</v>
@@ -14123,7 +14133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
       <c r="B405" t="s">
         <v>623</v>
@@ -14144,7 +14154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
       <c r="B406" t="s">
         <v>623</v>
@@ -14165,7 +14175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="14"/>
       <c r="B407" t="s">
         <v>623</v>
@@ -14186,7 +14196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="14"/>
       <c r="B408" t="s">
         <v>623</v>
@@ -14207,7 +14217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="14"/>
       <c r="B409" t="s">
         <v>623</v>
@@ -14228,7 +14238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="14"/>
       <c r="B410" t="s">
         <v>623</v>
@@ -14249,7 +14259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="14"/>
       <c r="B411" t="s">
         <v>623</v>
@@ -14270,7 +14280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="14"/>
       <c r="B412" t="s">
         <v>623</v>
@@ -14291,7 +14301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="14"/>
       <c r="B413" t="s">
         <v>623</v>
@@ -14312,7 +14322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="14"/>
       <c r="B414" t="s">
         <v>623</v>
@@ -14333,7 +14343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="14"/>
       <c r="B415" t="s">
         <v>623</v>
@@ -14354,7 +14364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="14"/>
       <c r="B416" t="s">
         <v>623</v>
@@ -14375,7 +14385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="14"/>
       <c r="B417" t="s">
         <v>623</v>
@@ -14396,7 +14406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="14"/>
       <c r="B418" t="s">
         <v>623</v>
@@ -14417,7 +14427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="14"/>
       <c r="B419" t="s">
         <v>623</v>
@@ -14438,7 +14448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="14"/>
       <c r="B420" t="s">
         <v>623</v>
@@ -14459,7 +14469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="14"/>
       <c r="B421" t="s">
         <v>623</v>
@@ -14480,7 +14490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="14"/>
       <c r="B422" t="s">
         <v>623</v>
@@ -14501,7 +14511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="14"/>
       <c r="B423" t="s">
         <v>623</v>
@@ -14522,7 +14532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="14"/>
       <c r="B424" t="s">
         <v>623</v>
@@ -14543,7 +14553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="14"/>
       <c r="B425" t="s">
         <v>623</v>
@@ -14564,7 +14574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="14"/>
       <c r="B426" t="s">
         <v>623</v>
@@ -14585,7 +14595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="14"/>
       <c r="B427" t="s">
         <v>623</v>
@@ -14606,7 +14616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="14"/>
       <c r="B428" t="s">
         <v>623</v>
@@ -14627,7 +14637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="14"/>
       <c r="B429" t="s">
         <v>623</v>
@@ -14648,7 +14658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="14"/>
       <c r="B430" t="s">
         <v>623</v>
@@ -14669,7 +14679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="14"/>
       <c r="B431" t="s">
         <v>623</v>
@@ -14690,7 +14700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="14"/>
       <c r="B432" t="s">
         <v>623</v>
@@ -14711,7 +14721,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="14"/>
       <c r="B433" t="s">
         <v>623</v>
@@ -14732,7 +14742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="14"/>
       <c r="B434" t="s">
         <v>623</v>
@@ -14753,7 +14763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="14"/>
       <c r="B435" t="s">
         <v>623</v>
@@ -14774,7 +14784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="14"/>
       <c r="B436" t="s">
         <v>623</v>
@@ -14795,7 +14805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="14"/>
       <c r="B437" t="s">
         <v>623</v>
@@ -14816,7 +14826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="14"/>
       <c r="B438" t="s">
         <v>623</v>
@@ -14837,7 +14847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="14"/>
       <c r="B439" t="s">
         <v>623</v>
@@ -14858,7 +14868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="14"/>
       <c r="B440" t="s">
         <v>623</v>
@@ -14879,7 +14889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="14"/>
       <c r="B441" t="s">
         <v>623</v>
@@ -14900,7 +14910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="14"/>
       <c r="B442" t="s">
         <v>623</v>
@@ -14921,7 +14931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="14"/>
       <c r="B443" t="s">
         <v>623</v>
@@ -14942,7 +14952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="14"/>
       <c r="B444" t="s">
         <v>623</v>
@@ -14963,7 +14973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="14"/>
       <c r="B445" t="s">
         <v>623</v>
@@ -14984,7 +14994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="14"/>
       <c r="B446" t="s">
         <v>623</v>
@@ -15005,7 +15015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="14"/>
       <c r="B447" t="s">
         <v>623</v>
@@ -15026,7 +15036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="14"/>
       <c r="B448" t="s">
         <v>623</v>
@@ -15047,7 +15057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="14"/>
       <c r="B449" t="s">
         <v>623</v>
@@ -15068,7 +15078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="14"/>
       <c r="B450" t="s">
         <v>623</v>
@@ -15089,7 +15099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="14"/>
       <c r="B451" t="s">
         <v>623</v>
@@ -15110,7 +15120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="14"/>
       <c r="B452" t="s">
         <v>623</v>
@@ -15131,7 +15141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="14"/>
       <c r="B453" t="s">
         <v>623</v>
@@ -15152,7 +15162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="14"/>
       <c r="B454" t="s">
         <v>623</v>
@@ -15173,7 +15183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="14"/>
       <c r="B455" t="s">
         <v>623</v>
@@ -15194,7 +15204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="14"/>
       <c r="B456" t="s">
         <v>623</v>
@@ -15215,7 +15225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="14"/>
       <c r="B457" t="s">
         <v>623</v>
@@ -15236,7 +15246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="14"/>
       <c r="B458" t="s">
         <v>623</v>
@@ -15257,7 +15267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="14"/>
       <c r="B459" t="s">
         <v>623</v>
@@ -15278,7 +15288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="14"/>
       <c r="B460" t="s">
         <v>623</v>
@@ -15299,7 +15309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="14"/>
       <c r="B461" t="s">
         <v>623</v>
@@ -15320,7 +15330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="14"/>
       <c r="B462" t="s">
         <v>623</v>
@@ -15341,7 +15351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="14"/>
       <c r="B463" t="s">
         <v>623</v>
@@ -15362,7 +15372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="14"/>
       <c r="B464" t="s">
         <v>623</v>
@@ -15383,7 +15393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="14"/>
       <c r="B465" t="s">
         <v>623</v>
@@ -15404,7 +15414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="14"/>
       <c r="B466" t="s">
         <v>623</v>
@@ -15425,7 +15435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="14"/>
       <c r="B467" t="s">
         <v>623</v>
@@ -15446,7 +15456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="14"/>
       <c r="B468" t="s">
         <v>623</v>
@@ -15467,7 +15477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="14"/>
       <c r="B469" t="s">
         <v>623</v>
@@ -15488,7 +15498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="14"/>
       <c r="B470" t="s">
         <v>623</v>
@@ -15509,7 +15519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="14"/>
       <c r="B471" t="s">
         <v>623</v>
@@ -15530,7 +15540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="14"/>
       <c r="B472" t="s">
         <v>623</v>
@@ -15551,7 +15561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="14"/>
       <c r="B473" t="s">
         <v>623</v>
@@ -15572,7 +15582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="14"/>
       <c r="B474" t="s">
         <v>623</v>
@@ -15593,7 +15603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="14"/>
       <c r="B475" t="s">
         <v>623</v>
@@ -15614,7 +15624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="14"/>
       <c r="B476" t="s">
         <v>623</v>
@@ -15635,7 +15645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="14"/>
       <c r="B477" t="s">
         <v>623</v>
@@ -15656,7 +15666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="14"/>
       <c r="B478" t="s">
         <v>623</v>
@@ -15677,7 +15687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="14"/>
       <c r="B479" t="s">
         <v>623</v>
@@ -15698,7 +15708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="14"/>
       <c r="B480" t="s">
         <v>623</v>
@@ -15719,7 +15729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="14"/>
       <c r="B481" t="s">
         <v>623</v>
@@ -15740,7 +15750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="14"/>
       <c r="B482" t="s">
         <v>623</v>
@@ -15761,7 +15771,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="14"/>
       <c r="B483" t="s">
         <v>623</v>
@@ -15782,7 +15792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="14"/>
       <c r="B484" t="s">
         <v>623</v>
@@ -15803,7 +15813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="14"/>
       <c r="B485" t="s">
         <v>623</v>
@@ -15824,7 +15834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="14"/>
       <c r="B486" t="s">
         <v>623</v>
@@ -15845,7 +15855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="14"/>
       <c r="B487" t="s">
         <v>623</v>
@@ -15866,7 +15876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="14"/>
       <c r="B488" t="s">
         <v>623</v>
@@ -15887,7 +15897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="14"/>
       <c r="B489" t="s">
         <v>623</v>
@@ -15908,7 +15918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="14"/>
       <c r="B490" t="s">
         <v>623</v>
@@ -15929,7 +15939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="14"/>
       <c r="B491" t="s">
         <v>623</v>
@@ -15950,7 +15960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="14"/>
       <c r="B492" t="s">
         <v>623</v>
@@ -15971,7 +15981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="14"/>
       <c r="B493" t="s">
         <v>623</v>
@@ -15992,10 +16002,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="14"/>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="14"/>
       <c r="B495" t="s">
         <v>623</v>
@@ -16016,7 +16026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="14"/>
       <c r="B496" t="s">
         <v>623</v>
@@ -16037,7 +16047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="14"/>
       <c r="B497" t="s">
         <v>623</v>
@@ -16058,7 +16068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="14"/>
       <c r="B498" t="s">
         <v>623</v>
@@ -16079,7 +16089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="14"/>
       <c r="B499" t="s">
         <v>623</v>
@@ -16100,7 +16110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="14"/>
       <c r="B500" t="s">
         <v>623</v>
@@ -16121,7 +16131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="14"/>
       <c r="B501" t="s">
         <v>623</v>
@@ -16142,7 +16152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="14"/>
       <c r="B502" t="s">
         <v>623</v>
@@ -16163,7 +16173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="14"/>
       <c r="B503" t="s">
         <v>623</v>
@@ -16184,7 +16194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="14"/>
       <c r="B504" t="s">
         <v>623</v>
@@ -16205,7 +16215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="14"/>
       <c r="B505" t="s">
         <v>623</v>
@@ -16226,7 +16236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="14"/>
       <c r="B506" t="s">
         <v>623</v>
@@ -16247,7 +16257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="14"/>
       <c r="B507" t="s">
         <v>623</v>
@@ -16268,7 +16278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="14"/>
       <c r="B508" t="s">
         <v>623</v>
@@ -16289,7 +16299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="14"/>
       <c r="B509" t="s">
         <v>623</v>
@@ -16310,7 +16320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="14"/>
       <c r="B510" t="s">
         <v>623</v>
@@ -16331,7 +16341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="14"/>
       <c r="B511" t="s">
         <v>623</v>
@@ -16352,7 +16362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="14"/>
       <c r="B512" t="s">
         <v>623</v>
@@ -16373,7 +16383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="14"/>
       <c r="B513" t="s">
         <v>623</v>
@@ -16394,7 +16404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="14"/>
       <c r="B514" t="s">
         <v>623</v>
@@ -16415,7 +16425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="14"/>
       <c r="B515" t="s">
         <v>623</v>
@@ -16436,7 +16446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="14"/>
       <c r="B516" t="s">
         <v>623</v>
@@ -16457,7 +16467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="14"/>
       <c r="B517" t="s">
         <v>623</v>
@@ -16478,7 +16488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="14"/>
       <c r="B518" t="s">
         <v>623</v>
@@ -16499,7 +16509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="14"/>
       <c r="B519" t="s">
         <v>623</v>
@@ -16520,7 +16530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="14"/>
       <c r="B520" t="s">
         <v>623</v>
@@ -16541,7 +16551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="14"/>
       <c r="B521" t="s">
         <v>623</v>
@@ -16562,7 +16572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="14"/>
       <c r="B522" t="s">
         <v>623</v>
@@ -16583,7 +16593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="14"/>
       <c r="B523" t="s">
         <v>623</v>
@@ -16604,7 +16614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="14"/>
       <c r="B524" t="s">
         <v>623</v>
@@ -16625,7 +16635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="14"/>
       <c r="B525" t="s">
         <v>623</v>
@@ -16646,7 +16656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="14"/>
       <c r="B526" t="s">
         <v>623</v>
@@ -16667,7 +16677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="14"/>
       <c r="B527" t="s">
         <v>623</v>
@@ -16688,7 +16698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="14"/>
       <c r="B528" t="s">
         <v>623</v>
@@ -16709,7 +16719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="14"/>
       <c r="B529" t="s">
         <v>623</v>
@@ -16730,7 +16740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="14"/>
       <c r="B530" t="s">
         <v>623</v>
@@ -16751,7 +16761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="14"/>
       <c r="B531" t="s">
         <v>623</v>
@@ -16772,7 +16782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="14"/>
       <c r="B532" t="s">
         <v>623</v>
@@ -16793,7 +16803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="14"/>
       <c r="B533" t="s">
         <v>623</v>
@@ -16814,7 +16824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="14"/>
       <c r="B534" t="s">
         <v>623</v>
@@ -16835,7 +16845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="14"/>
       <c r="B535" t="s">
         <v>623</v>
@@ -16856,7 +16866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="14"/>
       <c r="B536" t="s">
         <v>623</v>
@@ -16877,7 +16887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="14"/>
       <c r="B537" t="s">
         <v>623</v>
@@ -16898,7 +16908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="14"/>
       <c r="B538" t="s">
         <v>623</v>
@@ -16919,7 +16929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="14"/>
       <c r="B539" t="s">
         <v>623</v>
@@ -16940,7 +16950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="14"/>
       <c r="B540" t="s">
         <v>623</v>
@@ -16961,7 +16971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="14"/>
       <c r="B541" t="s">
         <v>623</v>
@@ -16982,7 +16992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="14"/>
       <c r="B542" t="s">
         <v>623</v>
@@ -17003,7 +17013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="14"/>
       <c r="B543" t="s">
         <v>623</v>
@@ -17024,7 +17034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="14"/>
       <c r="B544" t="s">
         <v>623</v>
@@ -17045,7 +17055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="14"/>
       <c r="B545" t="s">
         <v>623</v>
@@ -17066,7 +17076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="14"/>
       <c r="B546" t="s">
         <v>623</v>
@@ -17087,7 +17097,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="14"/>
       <c r="B547" t="s">
         <v>623</v>
@@ -17108,7 +17118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="14"/>
       <c r="B548" t="s">
         <v>623</v>
@@ -17129,7 +17139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="14"/>
       <c r="B549" t="s">
         <v>623</v>
@@ -17150,7 +17160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="14"/>
       <c r="B550" t="s">
         <v>623</v>
@@ -17171,7 +17181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="14"/>
       <c r="B551" t="s">
         <v>623</v>
@@ -17192,7 +17202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="14"/>
       <c r="B552" t="s">
         <v>623</v>
@@ -17213,7 +17223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="14"/>
       <c r="B553" t="s">
         <v>623</v>
@@ -17234,7 +17244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="14"/>
       <c r="B554" t="s">
         <v>623</v>
@@ -17255,7 +17265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="14"/>
       <c r="B555" t="s">
         <v>623</v>
@@ -17276,7 +17286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="14"/>
       <c r="B556" t="s">
         <v>623</v>
@@ -17297,7 +17307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="14"/>
       <c r="B557" t="s">
         <v>623</v>
@@ -17318,7 +17328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="14"/>
       <c r="B558" t="s">
         <v>623</v>
@@ -17339,7 +17349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="14"/>
       <c r="B559" t="s">
         <v>623</v>
@@ -17360,7 +17370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="14"/>
       <c r="B560" t="s">
         <v>623</v>
@@ -17381,7 +17391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="14"/>
       <c r="B561" t="s">
         <v>623</v>
@@ -17402,7 +17412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="14"/>
       <c r="B562" t="s">
         <v>623</v>
@@ -17423,7 +17433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="14"/>
       <c r="B563" t="s">
         <v>623</v>
@@ -17444,7 +17454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="14"/>
       <c r="B564" t="s">
         <v>623</v>
@@ -17465,7 +17475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="14"/>
       <c r="B565" t="s">
         <v>623</v>
@@ -17486,7 +17496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="14"/>
       <c r="B566" t="s">
         <v>623</v>
@@ -17507,7 +17517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="14"/>
       <c r="B567" t="s">
         <v>623</v>
@@ -17528,7 +17538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="14"/>
       <c r="B568" t="s">
         <v>623</v>
@@ -17549,7 +17559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="14"/>
       <c r="B569" t="s">
         <v>623</v>
@@ -17570,7 +17580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="14"/>
       <c r="B570" t="s">
         <v>623</v>
@@ -17591,7 +17601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="14"/>
       <c r="B571" t="s">
         <v>623</v>
@@ -17612,7 +17622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="14"/>
       <c r="B572" t="s">
         <v>623</v>
@@ -17633,7 +17643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="14"/>
       <c r="B573" t="s">
         <v>623</v>
@@ -17654,7 +17664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="14"/>
       <c r="B574" t="s">
         <v>623</v>
@@ -17675,7 +17685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="14"/>
       <c r="B575" t="s">
         <v>623</v>
@@ -17696,7 +17706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="14"/>
       <c r="B576" t="s">
         <v>623</v>
@@ -17717,7 +17727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="14"/>
       <c r="B577" t="s">
         <v>623</v>
@@ -17738,7 +17748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="14"/>
       <c r="B578" t="s">
         <v>623</v>
@@ -17759,7 +17769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="14"/>
       <c r="B579" t="s">
         <v>623</v>
@@ -17780,7 +17790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="14"/>
       <c r="B580" t="s">
         <v>623</v>
@@ -17801,7 +17811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="14"/>
       <c r="B581" t="s">
         <v>623</v>
@@ -17822,7 +17832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="14"/>
       <c r="B582" t="s">
         <v>623</v>
@@ -17843,7 +17853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="14"/>
       <c r="B583" t="s">
         <v>623</v>
@@ -17864,7 +17874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="14"/>
       <c r="B584" t="s">
         <v>623</v>
@@ -17885,7 +17895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="14"/>
       <c r="B585" t="s">
         <v>623</v>
@@ -17906,7 +17916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="14"/>
       <c r="B586" t="s">
         <v>623</v>
@@ -17927,7 +17937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="14"/>
       <c r="B587" t="s">
         <v>623</v>
@@ -17948,7 +17958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="14"/>
       <c r="B588" t="s">
         <v>623</v>
@@ -17969,7 +17979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="14"/>
       <c r="B589" t="s">
         <v>623</v>
@@ -17990,7 +18000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="14"/>
       <c r="B590" t="s">
         <v>623</v>
@@ -18011,7 +18021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="14"/>
       <c r="B591" t="s">
         <v>623</v>
@@ -18032,7 +18042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="14"/>
       <c r="B592" t="s">
         <v>623</v>
@@ -18053,7 +18063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="14"/>
       <c r="B593" t="s">
         <v>623</v>
@@ -18074,7 +18084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="14"/>
       <c r="B594" t="s">
         <v>623</v>
@@ -18095,7 +18105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="14"/>
       <c r="B595" t="s">
         <v>623</v>
@@ -18116,7 +18126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="14"/>
       <c r="B596" t="s">
         <v>623</v>
@@ -18137,7 +18147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="14"/>
       <c r="B597" t="s">
         <v>623</v>
@@ -18158,7 +18168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="14"/>
       <c r="B598" t="s">
         <v>623</v>
@@ -18179,7 +18189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="14"/>
       <c r="B599" t="s">
         <v>623</v>
@@ -18200,7 +18210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="14"/>
       <c r="B600" t="s">
         <v>623</v>
@@ -18221,7 +18231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="14"/>
       <c r="B601" t="s">
         <v>623</v>
@@ -18242,7 +18252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="14"/>
       <c r="B602" t="s">
         <v>623</v>
@@ -18263,7 +18273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="14"/>
       <c r="B603" t="s">
         <v>623</v>
@@ -18284,7 +18294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="14"/>
       <c r="B604" t="s">
         <v>623</v>
@@ -18305,7 +18315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="14"/>
       <c r="B605" t="s">
         <v>623</v>
@@ -18326,7 +18336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="14"/>
       <c r="B606" t="s">
         <v>623</v>
@@ -18347,7 +18357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="14"/>
       <c r="B607" t="s">
         <v>623</v>
@@ -18368,7 +18378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="14"/>
       <c r="B608" t="s">
         <v>623</v>
@@ -18389,7 +18399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="14"/>
       <c r="B609" t="s">
         <v>623</v>
@@ -18410,7 +18420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="14"/>
       <c r="B610" t="s">
         <v>623</v>
@@ -18431,7 +18441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="14"/>
       <c r="B611" t="s">
         <v>623</v>
@@ -18452,7 +18462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="14"/>
       <c r="B612" t="s">
         <v>623</v>
@@ -18473,7 +18483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="14"/>
       <c r="B613" t="s">
         <v>623</v>
@@ -18494,7 +18504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="14"/>
       <c r="B614" t="s">
         <v>623</v>
@@ -18515,7 +18525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="14"/>
       <c r="B615" t="s">
         <v>623</v>
@@ -18536,7 +18546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="14"/>
       <c r="B616" t="s">
         <v>623</v>
@@ -18557,7 +18567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="14"/>
       <c r="B617" t="s">
         <v>623</v>
@@ -18578,7 +18588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="14"/>
       <c r="B618" t="s">
         <v>623</v>
@@ -18599,7 +18609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="14"/>
       <c r="B619" t="s">
         <v>623</v>
@@ -18620,7 +18630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="14"/>
       <c r="B620" t="s">
         <v>623</v>
@@ -18641,7 +18651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="14"/>
       <c r="B621" t="s">
         <v>623</v>
@@ -18662,10 +18672,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="14"/>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="14"/>
       <c r="B623" t="s">
         <v>623</v>
@@ -18686,7 +18696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="14"/>
       <c r="B624" t="s">
         <v>623</v>
@@ -18707,7 +18717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="14"/>
       <c r="B625" t="s">
         <v>623</v>
@@ -18728,7 +18738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="14"/>
       <c r="B626" t="s">
         <v>623</v>
@@ -18749,7 +18759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="14"/>
       <c r="B627" t="s">
         <v>623</v>
@@ -18770,7 +18780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="14"/>
       <c r="B628" t="s">
         <v>623</v>
@@ -18791,7 +18801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="14"/>
       <c r="B629" t="s">
         <v>623</v>
@@ -18812,7 +18822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="14"/>
       <c r="B630" t="s">
         <v>623</v>
@@ -18833,7 +18843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="14"/>
       <c r="B631" t="s">
         <v>623</v>
@@ -18854,7 +18864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="14"/>
       <c r="B632" t="s">
         <v>623</v>
@@ -18875,7 +18885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="14"/>
       <c r="B633" t="s">
         <v>623</v>
@@ -18896,7 +18906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="14"/>
       <c r="B634" t="s">
         <v>623</v>
@@ -18917,7 +18927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="14"/>
       <c r="B635" t="s">
         <v>623</v>
@@ -18938,7 +18948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="14"/>
       <c r="B636" t="s">
         <v>623</v>
@@ -18959,7 +18969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="14"/>
       <c r="B637" t="s">
         <v>623</v>
@@ -18980,7 +18990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="14"/>
       <c r="B638" t="s">
         <v>623</v>
@@ -19001,7 +19011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="14"/>
       <c r="B639" t="s">
         <v>623</v>
@@ -19022,7 +19032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="14"/>
       <c r="B640" t="s">
         <v>623</v>
@@ -19043,7 +19053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="14"/>
       <c r="B641" t="s">
         <v>623</v>
@@ -19064,7 +19074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="14"/>
       <c r="B642" t="s">
         <v>623</v>
@@ -19085,10 +19095,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="14"/>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="14"/>
       <c r="B644" t="s">
         <v>623</v>
@@ -19109,7 +19119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="14"/>
       <c r="B645" t="s">
         <v>623</v>
@@ -19130,7 +19140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="14"/>
       <c r="B646" t="s">
         <v>623</v>
@@ -19151,7 +19161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="14"/>
       <c r="B647" t="s">
         <v>623</v>
@@ -19172,7 +19182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="14"/>
       <c r="B648" t="s">
         <v>623</v>
@@ -19193,7 +19203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="14"/>
       <c r="B649" t="s">
         <v>623</v>
@@ -19214,7 +19224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="14"/>
       <c r="B650" t="s">
         <v>623</v>
@@ -19235,10 +19245,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="14"/>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="14"/>
       <c r="B652" t="s">
         <v>625</v>
@@ -19259,10 +19269,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="14"/>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="14"/>
       <c r="B654" t="s">
         <v>630</v>
@@ -19283,7 +19293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="14"/>
       <c r="B655" t="s">
         <v>630</v>
@@ -19304,7 +19314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="14"/>
       <c r="B656" t="s">
         <v>630</v>
@@ -19325,7 +19335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="14"/>
       <c r="B657" t="s">
         <v>630</v>
@@ -19346,10 +19356,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="14"/>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="14"/>
       <c r="B659" t="s">
         <v>630</v>
@@ -19370,7 +19380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="14"/>
       <c r="B660" t="s">
         <v>630</v>
@@ -19391,7 +19401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="14"/>
       <c r="B661" t="s">
         <v>630</v>
@@ -19412,7 +19422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="14"/>
       <c r="B662" t="s">
         <v>630</v>
@@ -19433,7 +19443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="14"/>
       <c r="B663" t="s">
         <v>630</v>
@@ -19454,7 +19464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="14"/>
       <c r="B664" t="s">
         <v>630</v>
@@ -19475,7 +19485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="14"/>
       <c r="B665" t="s">
         <v>630</v>
@@ -19496,7 +19506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="14"/>
       <c r="B666" t="s">
         <v>630</v>
@@ -19517,10 +19527,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="14"/>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="14"/>
       <c r="B668" t="s">
         <v>646</v>
@@ -19541,7 +19551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="14"/>
       <c r="B669" t="s">
         <v>646</v>
@@ -19562,7 +19572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="14"/>
       <c r="B670" t="s">
         <v>646</v>
@@ -19583,7 +19593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="14"/>
       <c r="B671" t="s">
         <v>646</v>
@@ -19595,7 +19605,7 @@
         <v>7162</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="14"/>
       <c r="B672" t="s">
         <v>646</v>
@@ -19607,7 +19617,7 @@
         <v>7279</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="14"/>
       <c r="B673" t="s">
         <v>646</v>
@@ -19619,7 +19629,7 @@
         <v>7281</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="14"/>
       <c r="B674" t="s">
         <v>646</v>
@@ -19631,7 +19641,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="14"/>
       <c r="B675" t="s">
         <v>646</v>
@@ -19643,7 +19653,7 @@
         <v>7169</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="14"/>
       <c r="B676" t="s">
         <v>646</v>
@@ -19655,7 +19665,7 @@
         <v>7172</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="14"/>
       <c r="B677" t="s">
         <v>646</v>
@@ -19667,10 +19677,10 @@
         <v>7165</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="14"/>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="14"/>
       <c r="B679" t="s">
         <v>30</v>
@@ -19691,7 +19701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="14"/>
       <c r="B680" t="s">
         <v>30</v>
@@ -19706,7 +19716,7 @@
         <v>7116</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="14"/>
       <c r="B681" t="s">
         <v>30</v>
@@ -19721,7 +19731,7 @@
         <v>7119</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="14"/>
       <c r="B682" t="s">
         <v>30</v>
@@ -19736,7 +19746,7 @@
         <v>7130</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="14"/>
       <c r="B683" t="s">
         <v>30</v>
@@ -19751,7 +19761,7 @@
         <v>7132</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="14"/>
       <c r="B684" t="s">
         <v>30</v>
@@ -19766,7 +19776,7 @@
         <v>7133</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="14"/>
       <c r="B685" t="s">
         <v>30</v>
@@ -19781,7 +19791,7 @@
         <v>7134</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="14"/>
       <c r="B686" t="s">
         <v>30</v>
@@ -19796,10 +19806,10 @@
         <v>7135</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="14"/>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="14"/>
       <c r="B688" t="s">
         <v>659</v>
@@ -19820,7 +19830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" s="14"/>
       <c r="B689" t="s">
         <v>659</v>
@@ -19841,10 +19851,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="14"/>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="14"/>
       <c r="B691" t="s">
         <v>664</v>
@@ -19868,7 +19878,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="14"/>
       <c r="B692" t="s">
         <v>664</v>
@@ -19892,10 +19902,10 @@
         <v>775</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" s="14"/>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="14"/>
       <c r="B694" t="s">
         <v>669</v>
@@ -19916,16 +19926,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" s="14"/>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="14"/>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" s="14"/>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A702" s="15"/>
       <c r="C702" s="16"/>
     </row>
@@ -19949,34 +19959,34 @@
   <dimension ref="A2:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>685</v>
       </c>
@@ -20012,7 +20022,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>797</v>
       </c>
@@ -20053,7 +20063,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17942</v>
       </c>
@@ -20098,7 +20108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17955</v>
       </c>
@@ -20143,7 +20153,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18142</v>
       </c>
@@ -20185,7 +20195,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18145</v>
       </c>
@@ -20227,7 +20237,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18148</v>
       </c>
@@ -20269,7 +20279,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18151</v>
       </c>
@@ -20314,7 +20324,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18154</v>
       </c>
@@ -20353,7 +20363,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18851</v>
       </c>
@@ -20392,7 +20402,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18852</v>
       </c>
@@ -20431,7 +20441,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18853</v>
       </c>
@@ -20470,7 +20480,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17956</v>
       </c>
@@ -20506,7 +20516,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17957</v>
       </c>
@@ -20542,7 +20552,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17959</v>
       </c>
@@ -20556,7 +20566,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18144</v>
       </c>
@@ -20590,6 +20600,9 @@
       <c r="K18" t="s">
         <v>700</v>
       </c>
+      <c r="M18" t="s">
+        <v>814</v>
+      </c>
       <c r="O18" s="8">
         <v>24</v>
       </c>
@@ -20597,7 +20610,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18147</v>
       </c>
@@ -20631,6 +20644,9 @@
       <c r="K19" t="s">
         <v>700</v>
       </c>
+      <c r="M19" t="s">
+        <v>815</v>
+      </c>
       <c r="O19" s="8">
         <v>36</v>
       </c>
@@ -20638,7 +20654,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18150</v>
       </c>
@@ -20672,6 +20688,9 @@
       <c r="K20" t="s">
         <v>700</v>
       </c>
+      <c r="M20" t="s">
+        <v>714</v>
+      </c>
       <c r="O20" s="8">
         <v>12</v>
       </c>
@@ -20679,7 +20698,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18156</v>
       </c>
@@ -20713,6 +20732,9 @@
       <c r="K21" t="s">
         <v>700</v>
       </c>
+      <c r="M21" t="s">
+        <v>724</v>
+      </c>
       <c r="O21" s="8">
         <v>36</v>
       </c>
@@ -20720,7 +20742,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17962</v>
       </c>
@@ -20754,6 +20776,9 @@
       <c r="K22" t="s">
         <v>700</v>
       </c>
+      <c r="M22" t="s">
+        <v>816</v>
+      </c>
       <c r="O22" s="8">
         <v>12</v>
       </c>
@@ -20761,7 +20786,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17963</v>
       </c>
@@ -20795,6 +20820,9 @@
       <c r="K23" t="s">
         <v>700</v>
       </c>
+      <c r="M23" t="s">
+        <v>726</v>
+      </c>
       <c r="O23" s="8">
         <v>24</v>
       </c>
@@ -20802,7 +20830,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18736</v>
       </c>
@@ -20819,12 +20847,12 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P25" s="12" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18143</v>
       </c>
@@ -20862,7 +20890,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18146</v>
       </c>
@@ -20900,7 +20928,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18149</v>
       </c>
@@ -20935,7 +20963,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18152</v>
       </c>
@@ -20970,7 +20998,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18153</v>
       </c>
@@ -21011,7 +21039,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18155</v>
       </c>
@@ -21052,7 +21080,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17970</v>
       </c>
@@ -21090,7 +21118,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>17971</v>
       </c>
@@ -21128,7 +21156,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>17972</v>
       </c>
@@ -21166,7 +21194,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17973</v>
       </c>
@@ -21204,7 +21232,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17974</v>
       </c>

--- a/automation_tracking.xlsx
+++ b/automation_tracking.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="105" windowWidth="23325" windowHeight="12495" activeTab="3"/>
+    <workbookView xWindow="100" yWindow="540" windowWidth="23320" windowHeight="12500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments" sheetId="4" r:id="rId1"/>
     <sheet name="Automation Coverage" sheetId="1" r:id="rId2"/>
     <sheet name="Test Case Detail" sheetId="2" r:id="rId3"/>
     <sheet name="Add New Partner Detail" sheetId="3" r:id="rId4"/>
+    <sheet name="Plan" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="874">
   <si>
     <t>Billing Automation Test Plan</t>
   </si>
@@ -2544,6 +2544,177 @@
   </si>
   <si>
     <t>Down to none</t>
+  </si>
+  <si>
+    <t>Login Screen</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Partner Settings</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>External ID changes</t>
+  </si>
+  <si>
+    <t>Search/List Machines</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Configuration / Alerts</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Bugs found in QA durring .36 testing</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Automation Candidates</t>
+  </si>
+  <si>
+    <t>Complete Cases</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Leong</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Add New Partners</t>
+  </si>
+  <si>
+    <t>Billing Information</t>
+  </si>
+  <si>
+    <t>Billing History</t>
+  </si>
+  <si>
+    <t>Modify CC nd Billing Contact Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stash </t>
+  </si>
+  <si>
+    <t>Data Shuttle</t>
+  </si>
+  <si>
+    <t>Branding/Customization</t>
+  </si>
+  <si>
+    <t>BUS 1.10 Federated ID Phase II</t>
+  </si>
+  <si>
+    <t>BUS Smoke Test (for qa)</t>
+  </si>
+  <si>
+    <t>Captcha image for CreditCard (hotfix)</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>EMEA Re-architecture</t>
+  </si>
+  <si>
+    <t>Functionality Test Cases .52.2 and before</t>
+  </si>
+  <si>
+    <t>EMEA Re-architecture phase 2 (MozyPro)</t>
+  </si>
+  <si>
+    <t>Bus 1.6</t>
+  </si>
+  <si>
+    <t>McAfee Wrapper/Connector</t>
+  </si>
+  <si>
+    <t>SMB Phase one</t>
+  </si>
+  <si>
+    <t>MozyLife</t>
+  </si>
+  <si>
+    <t>Auditing &amp; logging for changes</t>
+  </si>
+  <si>
+    <t>Atmos Bus Testing</t>
+  </si>
+  <si>
+    <t>BUS 1.0</t>
+  </si>
+  <si>
+    <t>BUS 1.2.0</t>
+  </si>
+  <si>
+    <t>Bus 1.3</t>
+  </si>
+  <si>
+    <t>BUS 1.6 Auditing Phase 1</t>
+  </si>
+  <si>
+    <t>BUS 1.7 Federated-ID</t>
+  </si>
+  <si>
+    <t>Resizing Reseller Add-ons</t>
+  </si>
+  <si>
+    <t>Subpartner purchase resources</t>
+  </si>
+  <si>
+    <t>Assign storage to  a new user</t>
+  </si>
+  <si>
+    <t>User Storage Details</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Wait for BUS 2.5 Release</t>
+  </si>
+  <si>
+    <t>Client Controller</t>
+  </si>
+  <si>
+    <t>BUS API</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Smoke Test</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Admins</t>
+  </si>
+  <si>
+    <t>CongShan</t>
   </si>
 </sst>
 </file>
@@ -2728,7 +2899,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2755,8 +2926,76 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -2781,8 +3020,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="94">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="6" builtinId="38"/>
@@ -2797,6 +3049,40 @@
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
@@ -2806,11 +3092,121 @@
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2835,6 +3231,28 @@
     <tableColumn id="9" name="Coupons"/>
     <tableColumn id="10" name="Payment Type"/>
     <tableColumn id="11" name=" Initial Purchase?"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:H52" totalsRowCount="1" headerRowDxfId="11">
+  <autoFilter ref="B2:H51"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Feature Name" totalsRowLabel="Total" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Total Cases" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(Table13[Total Cases])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Automation Candidates" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(Table13[Automation Candidates])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Complete Cases" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(Table13[Complete Cases])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Status" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Owner" dataDxfId="10" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Note" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3130,16 +3548,16 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D35"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -3153,7 +3571,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="18">
         <v>41222</v>
       </c>
@@ -3167,7 +3585,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="18">
         <v>41222</v>
       </c>
@@ -3181,7 +3599,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="18">
         <v>41222</v>
       </c>
@@ -3195,7 +3613,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="18">
         <v>41222</v>
       </c>
@@ -3209,7 +3627,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="18">
         <v>41222</v>
       </c>
@@ -3223,7 +3641,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="18">
         <v>41222</v>
       </c>
@@ -3237,7 +3655,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="18">
         <v>41222</v>
       </c>
@@ -3251,7 +3669,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="18">
         <v>41222</v>
       </c>
@@ -3265,7 +3683,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="18">
         <v>41222</v>
       </c>
@@ -3279,7 +3697,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="18">
         <v>41222</v>
       </c>
@@ -3293,7 +3711,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="18">
         <v>41222</v>
       </c>
@@ -3307,7 +3725,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="18">
         <v>41222</v>
       </c>
@@ -3321,7 +3739,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="18">
         <v>41222</v>
       </c>
@@ -3335,7 +3753,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="18">
         <v>41222</v>
       </c>
@@ -3349,7 +3767,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="18">
         <v>41222</v>
       </c>
@@ -3363,7 +3781,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="18">
         <v>41222</v>
       </c>
@@ -3377,7 +3795,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18">
         <v>41222</v>
       </c>
@@ -3391,7 +3809,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="18">
         <v>41222</v>
       </c>
@@ -3405,7 +3823,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18">
         <v>41222</v>
       </c>
@@ -3419,7 +3837,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="18">
         <v>41222</v>
       </c>
@@ -3433,7 +3851,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="18">
         <v>41222</v>
       </c>
@@ -3447,7 +3865,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="18">
         <v>41222</v>
       </c>
@@ -3461,7 +3879,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18">
         <v>41222</v>
       </c>
@@ -3475,7 +3893,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="18">
         <v>41222</v>
       </c>
@@ -3489,7 +3907,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="18">
         <v>41222</v>
       </c>
@@ -3503,7 +3921,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="18">
         <v>41222</v>
       </c>
@@ -3517,7 +3935,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="18">
         <v>41222</v>
       </c>
@@ -3531,7 +3949,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="18">
         <v>41222</v>
       </c>
@@ -3545,7 +3963,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="18">
         <v>41222</v>
       </c>
@@ -3559,7 +3977,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="18">
         <v>41222</v>
       </c>
@@ -3573,7 +3991,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="18">
         <v>41222</v>
       </c>
@@ -3587,7 +4005,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="18">
         <v>41222</v>
       </c>
@@ -3601,7 +4019,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="18">
         <v>41222</v>
       </c>
@@ -3615,7 +4033,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="18">
         <v>41222</v>
       </c>
@@ -3629,7 +4047,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="17">
         <v>41250</v>
       </c>
@@ -3643,7 +4061,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="17">
         <v>41250</v>
       </c>
@@ -3657,7 +4075,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="17">
         <v>41250</v>
       </c>
@@ -3671,7 +4089,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="17">
         <v>41250</v>
       </c>
@@ -3685,7 +4103,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="17">
         <v>41250</v>
       </c>
@@ -3699,7 +4117,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="17">
         <v>41250</v>
       </c>
@@ -3713,7 +4131,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="17">
         <v>41250</v>
       </c>
@@ -3727,7 +4145,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="17">
         <v>41250</v>
       </c>
@@ -3741,7 +4159,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="17">
         <v>41250</v>
       </c>
@@ -3755,7 +4173,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="17">
         <v>41250</v>
       </c>
@@ -3769,7 +4187,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="17">
         <v>41250</v>
       </c>
@@ -3783,7 +4201,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="17">
         <v>41250</v>
       </c>
@@ -3797,7 +4215,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="17">
         <v>41250</v>
       </c>
@@ -3811,7 +4229,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="17">
         <v>41250</v>
       </c>
@@ -3825,7 +4243,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="17">
         <v>41250</v>
       </c>
@@ -3839,7 +4257,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="17">
         <v>41250</v>
       </c>
@@ -3853,7 +4271,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="17">
         <v>41250</v>
       </c>
@@ -3867,7 +4285,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="15">
         <v>41264</v>
       </c>
@@ -3881,7 +4299,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="15">
         <v>41264</v>
       </c>
@@ -3895,7 +4313,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="15">
         <v>41264</v>
       </c>
@@ -3909,7 +4327,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="15">
         <v>41264</v>
       </c>
@@ -3923,7 +4341,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="15">
         <v>41264</v>
       </c>
@@ -3937,7 +4355,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="15">
         <v>41264</v>
       </c>
@@ -3951,7 +4369,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="15">
         <v>41264</v>
       </c>
@@ -3965,7 +4383,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="15">
         <v>41264</v>
       </c>
@@ -3979,7 +4397,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="15">
         <v>41264</v>
       </c>
@@ -3993,7 +4411,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="15">
         <v>41264</v>
       </c>
@@ -4010,7 +4428,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="15">
         <v>41264</v>
       </c>
@@ -4027,7 +4445,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="15">
         <v>41264</v>
       </c>
@@ -4044,7 +4462,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="15">
         <v>40912</v>
       </c>
@@ -4058,7 +4476,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="15">
         <v>40912</v>
       </c>
@@ -4072,7 +4490,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="15">
         <v>40912</v>
       </c>
@@ -4086,7 +4504,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="15">
         <v>40912</v>
       </c>
@@ -4100,7 +4518,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="15">
         <v>40912</v>
       </c>
@@ -4114,7 +4532,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="15">
         <v>40912</v>
       </c>
@@ -4128,7 +4546,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="15">
         <v>40912</v>
       </c>
@@ -4142,7 +4560,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="15">
         <v>40912</v>
       </c>
@@ -4156,7 +4574,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="15">
         <v>40912</v>
       </c>
@@ -4170,7 +4588,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="15">
         <v>40912</v>
       </c>
@@ -4199,26 +4617,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>684</v>
       </c>
@@ -4241,12 +4659,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -4260,7 +4678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -4274,7 +4692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -4288,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -4302,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -4316,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -4330,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -4344,7 +4762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -4358,12 +4776,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -4377,7 +4795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -4391,7 +4809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -4405,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -4419,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -4433,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -4447,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -4461,7 +4879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -4475,12 +4893,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -4494,7 +4912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -4508,7 +4926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -4522,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -4536,12 +4954,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -4555,7 +4973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -4569,7 +4987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>8</v>
       </c>
@@ -4583,7 +5001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -4597,7 +5015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>13</v>
       </c>
@@ -4608,12 +5026,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -4627,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -4641,7 +5059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>17</v>
       </c>
@@ -4655,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -4669,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -4683,12 +5101,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>20</v>
       </c>
@@ -4702,12 +5120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>17</v>
       </c>
@@ -4721,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -4735,7 +5153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>8</v>
       </c>
@@ -4749,7 +5167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -4763,7 +5181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -4777,7 +5195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>24</v>
       </c>
@@ -4791,12 +5209,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="B48" t="s">
         <v>25</v>
       </c>
@@ -4810,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -4824,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="B50" t="s">
         <v>22</v>
       </c>
@@ -4838,7 +5256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="B51" t="s">
         <v>16</v>
       </c>
@@ -4852,12 +5270,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="B53" t="s">
         <v>13</v>
       </c>
@@ -4871,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="B54" t="s">
         <v>27</v>
       </c>
@@ -4885,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="B55" t="s">
         <v>28</v>
       </c>
@@ -4899,12 +5317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="B57" t="s">
         <v>29</v>
       </c>
@@ -4918,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="B58" t="s">
         <v>27</v>
       </c>
@@ -4932,12 +5350,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="B60" t="s">
         <v>14</v>
       </c>
@@ -4951,7 +5369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="B61" t="s">
         <v>31</v>
       </c>
@@ -4965,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="B62" t="s">
         <v>9</v>
       </c>
@@ -4979,7 +5397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="B63" t="s">
         <v>10</v>
       </c>
@@ -4993,7 +5411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="B64" t="s">
         <v>11</v>
       </c>
@@ -5007,7 +5425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5">
       <c r="B65" t="s">
         <v>12</v>
       </c>
@@ -5021,7 +5439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5">
       <c r="B66" t="s">
         <v>13</v>
       </c>
@@ -5035,7 +5453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -5049,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5">
       <c r="B68" t="s">
         <v>33</v>
       </c>
@@ -5079,29 +5497,29 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67:D69"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -5130,12 +5548,12 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="G2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -5161,7 +5579,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="D4" t="s">
         <v>693</v>
       </c>
@@ -5178,7 +5596,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="15">
         <v>41222</v>
       </c>
@@ -5226,7 +5644,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="15">
         <v>41222</v>
       </c>
@@ -5274,7 +5692,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="15">
         <v>41222</v>
       </c>
@@ -5322,7 +5740,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="15">
         <v>41222</v>
       </c>
@@ -5370,7 +5788,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="15">
         <v>41222</v>
       </c>
@@ -5418,7 +5836,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="15">
         <v>41222</v>
       </c>
@@ -5466,7 +5884,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="15">
         <v>41222</v>
       </c>
@@ -5511,7 +5929,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="15">
         <v>41222</v>
       </c>
@@ -5556,7 +5974,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="15">
         <v>41222</v>
       </c>
@@ -5601,7 +6019,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="15">
         <v>41222</v>
       </c>
@@ -5646,7 +6064,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="15">
         <v>41222</v>
       </c>
@@ -5675,7 +6093,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="15">
         <v>41222</v>
       </c>
@@ -5725,7 +6143,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="15">
         <v>41222</v>
       </c>
@@ -5775,7 +6193,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="15">
         <v>41222</v>
       </c>
@@ -5825,7 +6243,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="15">
         <v>41222</v>
       </c>
@@ -5875,7 +6293,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="15">
         <v>41222</v>
       </c>
@@ -5925,7 +6343,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="15">
         <v>41222</v>
       </c>
@@ -5975,7 +6393,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="15">
         <v>41222</v>
       </c>
@@ -6022,7 +6440,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="15">
         <v>41222</v>
       </c>
@@ -6069,7 +6487,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="15">
         <v>41222</v>
       </c>
@@ -6116,7 +6534,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="15">
         <v>41222</v>
       </c>
@@ -6163,7 +6581,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="15">
         <v>41222</v>
       </c>
@@ -6189,7 +6607,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="15">
         <v>41222</v>
       </c>
@@ -6239,7 +6657,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="15">
         <v>41222</v>
       </c>
@@ -6289,7 +6707,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="15">
         <v>41222</v>
       </c>
@@ -6336,7 +6754,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="15">
         <v>41222</v>
       </c>
@@ -6383,7 +6801,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="15">
         <v>41222</v>
       </c>
@@ -6430,7 +6848,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="15">
         <v>41222</v>
       </c>
@@ -6477,7 +6895,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="15">
         <v>41222</v>
       </c>
@@ -6524,7 +6942,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="15">
         <v>41222</v>
       </c>
@@ -6571,7 +6989,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="15">
         <v>41222</v>
       </c>
@@ -6618,7 +7036,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="15">
         <v>41222</v>
       </c>
@@ -6665,7 +7083,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="15">
         <v>41222</v>
       </c>
@@ -6691,7 +7109,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="B40" t="s">
         <v>42</v>
       </c>
@@ -6711,7 +7129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="17">
         <v>41236</v>
       </c>
@@ -6734,7 +7152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="17">
         <v>41236</v>
       </c>
@@ -6757,7 +7175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="17">
         <v>41236</v>
       </c>
@@ -6780,7 +7198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="17">
         <v>41236</v>
       </c>
@@ -6803,7 +7221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="17">
         <v>41236</v>
       </c>
@@ -6823,7 +7241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="17">
         <v>41236</v>
       </c>
@@ -6843,7 +7261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="17">
         <v>41236</v>
       </c>
@@ -6863,7 +7281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="17">
         <v>41236</v>
       </c>
@@ -6883,7 +7301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="17">
         <v>41236</v>
       </c>
@@ -6903,7 +7321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="17">
         <v>41236</v>
       </c>
@@ -6923,7 +7341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="17">
         <v>41236</v>
       </c>
@@ -6943,7 +7361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="17">
         <v>41236</v>
       </c>
@@ -6963,7 +7381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="17">
         <v>41236</v>
       </c>
@@ -6983,7 +7401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="17">
         <v>41236</v>
       </c>
@@ -7006,7 +7424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="17">
         <v>41236</v>
       </c>
@@ -7029,7 +7447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="17">
         <v>41236</v>
       </c>
@@ -7052,7 +7470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="17">
         <v>41236</v>
       </c>
@@ -7075,7 +7493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="15">
         <v>41250</v>
       </c>
@@ -7098,7 +7516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="15">
         <v>41250</v>
       </c>
@@ -7121,7 +7539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="15">
         <v>41250</v>
       </c>
@@ -7144,7 +7562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="15">
         <v>41250</v>
       </c>
@@ -7167,7 +7585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="15">
         <v>41250</v>
       </c>
@@ -7190,7 +7608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="15">
         <v>41250</v>
       </c>
@@ -7213,7 +7631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="15">
         <v>41250</v>
       </c>
@@ -7236,7 +7654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="15">
         <v>41250</v>
       </c>
@@ -7259,7 +7677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="15">
         <v>41250</v>
       </c>
@@ -7282,7 +7700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="15">
         <v>41250</v>
       </c>
@@ -7302,7 +7720,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="15">
         <v>41250</v>
       </c>
@@ -7322,7 +7740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="15">
         <v>41250</v>
       </c>
@@ -7342,7 +7760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70" s="15">
         <v>41264</v>
       </c>
@@ -7365,7 +7783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71" s="15">
         <v>41264</v>
       </c>
@@ -7388,7 +7806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72" s="15">
         <v>41264</v>
       </c>
@@ -7409,7 +7827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="15">
         <v>41264</v>
       </c>
@@ -7429,7 +7847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7">
       <c r="A74" s="15">
         <v>41264</v>
       </c>
@@ -7452,7 +7870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="15">
         <v>41264</v>
       </c>
@@ -7472,7 +7890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="15">
         <v>41264</v>
       </c>
@@ -7495,7 +7913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="15">
         <v>41264</v>
       </c>
@@ -7515,7 +7933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="16">
       <c r="A78" s="14"/>
       <c r="B78" t="s">
         <v>40</v>
@@ -7536,7 +7954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="16">
       <c r="A79" s="14"/>
       <c r="B79" t="s">
         <v>40</v>
@@ -7557,7 +7975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="16">
       <c r="A80" s="14"/>
       <c r="B80" t="s">
         <v>39</v>
@@ -7578,7 +7996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="16">
       <c r="A81" s="14"/>
       <c r="B81" t="s">
         <v>50</v>
@@ -7599,7 +8017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="16">
       <c r="A82" s="14"/>
       <c r="B82" t="s">
         <v>50</v>
@@ -7620,7 +8038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="16">
       <c r="A83" s="14"/>
       <c r="B83" t="s">
         <v>50</v>
@@ -7641,7 +8059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="16">
       <c r="A84" s="14"/>
       <c r="B84" t="s">
         <v>50</v>
@@ -7662,7 +8080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="16">
       <c r="A85" s="14"/>
       <c r="B85" t="s">
         <v>50</v>
@@ -7683,7 +8101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="16">
       <c r="A86" s="14"/>
       <c r="B86" t="s">
         <v>50</v>
@@ -7704,7 +8122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="16">
       <c r="A87" s="14"/>
       <c r="B87" t="s">
         <v>50</v>
@@ -7725,7 +8143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="16">
       <c r="A88" s="14"/>
       <c r="B88" t="s">
         <v>50</v>
@@ -7746,7 +8164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="16">
       <c r="A89" s="14"/>
       <c r="B89" t="s">
         <v>50</v>
@@ -7767,7 +8185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="16">
       <c r="A90" s="14"/>
       <c r="B90" t="s">
         <v>50</v>
@@ -7788,7 +8206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="16">
       <c r="A91" s="14"/>
       <c r="B91" t="s">
         <v>50</v>
@@ -7809,7 +8227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="16">
       <c r="A92" s="14"/>
       <c r="B92" t="s">
         <v>50</v>
@@ -7830,7 +8248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="16">
       <c r="A93" s="14"/>
       <c r="B93" t="s">
         <v>50</v>
@@ -7851,7 +8269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="16">
       <c r="A94" s="14"/>
       <c r="B94" t="s">
         <v>50</v>
@@ -7872,7 +8290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="16">
       <c r="A95" s="14"/>
       <c r="B95" t="s">
         <v>50</v>
@@ -7893,7 +8311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="16">
       <c r="A96" s="14"/>
       <c r="B96" t="s">
         <v>50</v>
@@ -7914,7 +8332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="16">
       <c r="A97" s="14"/>
       <c r="B97" t="s">
         <v>50</v>
@@ -7935,7 +8353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="16">
       <c r="A98" s="14"/>
       <c r="B98" t="s">
         <v>50</v>
@@ -7956,7 +8374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="16">
       <c r="A99" s="14"/>
       <c r="B99" t="s">
         <v>50</v>
@@ -7977,10 +8395,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="14"/>
       <c r="B101" t="s">
         <v>40</v>
@@ -8001,10 +8419,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="14"/>
       <c r="B103" t="s">
         <v>74</v>
@@ -8025,7 +8443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="14"/>
       <c r="B104" t="s">
         <v>74</v>
@@ -8046,7 +8464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="14"/>
       <c r="B105" t="s">
         <v>74</v>
@@ -8067,7 +8485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="14"/>
       <c r="B106" t="s">
         <v>74</v>
@@ -8088,7 +8506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="14"/>
       <c r="B107" t="s">
         <v>74</v>
@@ -8109,7 +8527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="14"/>
       <c r="B108" t="s">
         <v>74</v>
@@ -8130,7 +8548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="14"/>
       <c r="B109" t="s">
         <v>74</v>
@@ -8151,7 +8569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="14"/>
       <c r="B110" t="s">
         <v>74</v>
@@ -8172,7 +8590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="14"/>
       <c r="B111" t="s">
         <v>74</v>
@@ -8193,7 +8611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="14"/>
       <c r="B112" t="s">
         <v>74</v>
@@ -8214,7 +8632,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="14"/>
       <c r="B113" t="s">
         <v>74</v>
@@ -8235,7 +8653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="14"/>
       <c r="B114" t="s">
         <v>74</v>
@@ -8256,7 +8674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="14"/>
       <c r="B115" t="s">
         <v>74</v>
@@ -8277,7 +8695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="14"/>
       <c r="B116" t="s">
         <v>74</v>
@@ -8298,7 +8716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="14"/>
       <c r="B117" t="s">
         <v>74</v>
@@ -8319,7 +8737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="14"/>
       <c r="B118" t="s">
         <v>74</v>
@@ -8340,7 +8758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="14"/>
       <c r="B119" t="s">
         <v>74</v>
@@ -8361,10 +8779,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="14"/>
       <c r="B121" t="s">
         <v>16</v>
@@ -8385,7 +8803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="14"/>
       <c r="B122" t="s">
         <v>16</v>
@@ -8406,7 +8824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="14"/>
       <c r="B123" t="s">
         <v>16</v>
@@ -8427,7 +8845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="14"/>
       <c r="B124" t="s">
         <v>16</v>
@@ -8448,7 +8866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="14"/>
       <c r="B125" t="s">
         <v>16</v>
@@ -8469,7 +8887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="14"/>
       <c r="B126" t="s">
         <v>16</v>
@@ -8490,7 +8908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="14"/>
       <c r="B127" t="s">
         <v>16</v>
@@ -8511,7 +8929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="14"/>
       <c r="B128" t="s">
         <v>16</v>
@@ -8532,7 +8950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="14"/>
       <c r="B129" t="s">
         <v>16</v>
@@ -8553,7 +8971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="14"/>
       <c r="B130" t="s">
         <v>16</v>
@@ -8574,7 +8992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="14"/>
       <c r="B131" t="s">
         <v>16</v>
@@ -8595,7 +9013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="14"/>
       <c r="B132" t="s">
         <v>16</v>
@@ -8616,7 +9034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="14"/>
       <c r="B133" t="s">
         <v>16</v>
@@ -8637,7 +9055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="14"/>
       <c r="B134" t="s">
         <v>16</v>
@@ -8658,7 +9076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="14"/>
       <c r="B135" t="s">
         <v>16</v>
@@ -8679,7 +9097,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="14"/>
       <c r="B136" t="s">
         <v>16</v>
@@ -8700,7 +9118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="14"/>
       <c r="B137" t="s">
         <v>16</v>
@@ -8721,7 +9139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="14"/>
       <c r="B138" t="s">
         <v>16</v>
@@ -8742,7 +9160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="14"/>
       <c r="B139" t="s">
         <v>16</v>
@@ -8763,7 +9181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="14"/>
       <c r="B140" t="s">
         <v>16</v>
@@ -8784,7 +9202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="14"/>
       <c r="B141" t="s">
         <v>16</v>
@@ -8805,7 +9223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="14"/>
       <c r="B142" t="s">
         <v>16</v>
@@ -8823,10 +9241,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="14"/>
       <c r="B144" t="s">
         <v>117</v>
@@ -8844,10 +9262,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="14"/>
       <c r="B146" t="s">
         <v>119</v>
@@ -8868,7 +9286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="14"/>
       <c r="B147" t="s">
         <v>119</v>
@@ -8889,7 +9307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="14"/>
       <c r="B148" t="s">
         <v>119</v>
@@ -8910,7 +9328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="14"/>
       <c r="B149" t="s">
         <v>119</v>
@@ -8931,7 +9349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="14"/>
       <c r="B150" t="s">
         <v>119</v>
@@ -8952,7 +9370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="14"/>
       <c r="B151" t="s">
         <v>119</v>
@@ -8973,7 +9391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="14"/>
       <c r="B152" t="s">
         <v>119</v>
@@ -8994,7 +9412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="14"/>
       <c r="B153" t="s">
         <v>119</v>
@@ -9015,7 +9433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="14"/>
       <c r="B154" t="s">
         <v>119</v>
@@ -9036,7 +9454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="14"/>
       <c r="B155" t="s">
         <v>119</v>
@@ -9057,7 +9475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="14"/>
       <c r="B156" t="s">
         <v>119</v>
@@ -9078,7 +9496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="14"/>
       <c r="B157" t="s">
         <v>119</v>
@@ -9099,7 +9517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="14"/>
       <c r="B158" t="s">
         <v>119</v>
@@ -9120,7 +9538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="14"/>
       <c r="B159" t="s">
         <v>119</v>
@@ -9141,7 +9559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="14"/>
       <c r="B160" t="s">
         <v>119</v>
@@ -9162,7 +9580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="14"/>
       <c r="B161" t="s">
         <v>119</v>
@@ -9183,7 +9601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="14"/>
       <c r="B162" t="s">
         <v>119</v>
@@ -9204,7 +9622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="14"/>
       <c r="B163" t="s">
         <v>119</v>
@@ -9225,10 +9643,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="14"/>
       <c r="B165" t="s">
         <v>139</v>
@@ -9249,10 +9667,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="14"/>
       <c r="B167" t="s">
         <v>141</v>
@@ -9273,7 +9691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="14"/>
       <c r="B168" t="s">
         <v>141</v>
@@ -9294,7 +9712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="14"/>
       <c r="B169" t="s">
         <v>141</v>
@@ -9315,7 +9733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="14"/>
       <c r="B170" t="s">
         <v>141</v>
@@ -9336,7 +9754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="14"/>
       <c r="B171" t="s">
         <v>141</v>
@@ -9357,7 +9775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="14"/>
       <c r="B172" t="s">
         <v>141</v>
@@ -9378,7 +9796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="14"/>
       <c r="B173" t="s">
         <v>141</v>
@@ -9399,7 +9817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="14"/>
       <c r="B174" t="s">
         <v>141</v>
@@ -9420,7 +9838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="14"/>
       <c r="B175" t="s">
         <v>141</v>
@@ -9441,7 +9859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="14"/>
       <c r="F176" t="s">
         <v>2</v>
@@ -9450,7 +9868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="14"/>
       <c r="B177" t="s">
         <v>152</v>
@@ -9471,7 +9889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="14"/>
       <c r="B178" t="s">
         <v>152</v>
@@ -9492,7 +9910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="14"/>
       <c r="B179" t="s">
         <v>152</v>
@@ -9513,7 +9931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="14"/>
       <c r="B180" t="s">
         <v>152</v>
@@ -9534,7 +9952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="14"/>
       <c r="B181" t="s">
         <v>152</v>
@@ -9555,7 +9973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="14"/>
       <c r="B182" t="s">
         <v>152</v>
@@ -9576,7 +9994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="14"/>
       <c r="B183" t="s">
         <v>152</v>
@@ -9597,7 +10015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="14"/>
       <c r="B184" t="s">
         <v>152</v>
@@ -9618,7 +10036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="14"/>
       <c r="B185" t="s">
         <v>152</v>
@@ -9639,7 +10057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="14"/>
       <c r="B186" t="s">
         <v>152</v>
@@ -9660,7 +10078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="14"/>
       <c r="B187" t="s">
         <v>152</v>
@@ -9681,7 +10099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="14"/>
       <c r="B188" t="s">
         <v>152</v>
@@ -9702,10 +10120,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="14"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="14"/>
       <c r="B190" t="s">
         <v>166</v>
@@ -9726,7 +10144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="14"/>
       <c r="B191" t="s">
         <v>166</v>
@@ -9747,7 +10165,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="14"/>
       <c r="B192" t="s">
         <v>166</v>
@@ -9768,7 +10186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="14"/>
       <c r="B193" t="s">
         <v>166</v>
@@ -9789,7 +10207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="14"/>
       <c r="B194" t="s">
         <v>166</v>
@@ -9810,7 +10228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="14"/>
       <c r="B195" t="s">
         <v>166</v>
@@ -9831,7 +10249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="14"/>
       <c r="B196" t="s">
         <v>166</v>
@@ -9852,7 +10270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="14"/>
       <c r="B197" t="s">
         <v>166</v>
@@ -9873,7 +10291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="14"/>
       <c r="B198" t="s">
         <v>166</v>
@@ -9894,7 +10312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="14"/>
       <c r="B199" t="s">
         <v>166</v>
@@ -9915,7 +10333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="14"/>
       <c r="B200" t="s">
         <v>166</v>
@@ -9936,7 +10354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="14"/>
       <c r="B201" t="s">
         <v>166</v>
@@ -9957,7 +10375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="14"/>
       <c r="B202" t="s">
         <v>166</v>
@@ -9978,7 +10396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="14"/>
       <c r="B203" t="s">
         <v>166</v>
@@ -9999,7 +10417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="14"/>
       <c r="B204" t="s">
         <v>166</v>
@@ -10020,7 +10438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="14"/>
       <c r="B205" t="s">
         <v>166</v>
@@ -10041,7 +10459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="14"/>
       <c r="B206" t="s">
         <v>166</v>
@@ -10062,7 +10480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="14"/>
       <c r="B207" t="s">
         <v>166</v>
@@ -10083,7 +10501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="14"/>
       <c r="B208" t="s">
         <v>166</v>
@@ -10104,7 +10522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="14"/>
       <c r="B209" t="s">
         <v>166</v>
@@ -10125,7 +10543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="14"/>
       <c r="B210" t="s">
         <v>166</v>
@@ -10146,7 +10564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="14"/>
       <c r="B211" t="s">
         <v>166</v>
@@ -10167,7 +10585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="14"/>
       <c r="B212" t="s">
         <v>166</v>
@@ -10188,7 +10606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="14"/>
       <c r="B213" t="s">
         <v>166</v>
@@ -10209,7 +10627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="14"/>
       <c r="B214" t="s">
         <v>166</v>
@@ -10230,7 +10648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="14"/>
       <c r="B215" t="s">
         <v>166</v>
@@ -10251,16 +10669,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="14"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="14"/>
       <c r="B217" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="14"/>
       <c r="B218" t="s">
         <v>623</v>
@@ -10281,7 +10699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="14"/>
       <c r="B219" t="s">
         <v>623</v>
@@ -10302,7 +10720,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="14"/>
       <c r="B220" t="s">
         <v>623</v>
@@ -10323,7 +10741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="14"/>
       <c r="B221" t="s">
         <v>623</v>
@@ -10344,7 +10762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="14"/>
       <c r="B222" t="s">
         <v>623</v>
@@ -10365,7 +10783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="14"/>
       <c r="B223" t="s">
         <v>623</v>
@@ -10386,7 +10804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="14"/>
       <c r="B224" t="s">
         <v>623</v>
@@ -10407,7 +10825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="14"/>
       <c r="B225" t="s">
         <v>623</v>
@@ -10428,7 +10846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="14"/>
       <c r="B226" t="s">
         <v>623</v>
@@ -10449,7 +10867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="14"/>
       <c r="B227" t="s">
         <v>623</v>
@@ -10470,7 +10888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="14"/>
       <c r="B228" t="s">
         <v>623</v>
@@ -10491,7 +10909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="14"/>
       <c r="B229" t="s">
         <v>623</v>
@@ -10512,7 +10930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="14"/>
       <c r="B230" t="s">
         <v>623</v>
@@ -10533,7 +10951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="14"/>
       <c r="B231" t="s">
         <v>623</v>
@@ -10554,7 +10972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="14"/>
       <c r="B232" t="s">
         <v>623</v>
@@ -10575,7 +10993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="14"/>
       <c r="B233" t="s">
         <v>623</v>
@@ -10596,7 +11014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="14"/>
       <c r="B234" t="s">
         <v>623</v>
@@ -10617,7 +11035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="14"/>
       <c r="B235" t="s">
         <v>623</v>
@@ -10638,7 +11056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="14"/>
       <c r="B236" t="s">
         <v>623</v>
@@ -10659,7 +11077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="14"/>
       <c r="B237" t="s">
         <v>623</v>
@@ -10680,7 +11098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="14"/>
       <c r="B238" t="s">
         <v>623</v>
@@ -10701,7 +11119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="14"/>
       <c r="B239" t="s">
         <v>623</v>
@@ -10722,7 +11140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="14"/>
       <c r="B240" t="s">
         <v>623</v>
@@ -10743,7 +11161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="14"/>
       <c r="B241" t="s">
         <v>623</v>
@@ -10764,7 +11182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="14"/>
       <c r="B242" t="s">
         <v>623</v>
@@ -10785,7 +11203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="14"/>
       <c r="B243" t="s">
         <v>623</v>
@@ -10806,7 +11224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="14"/>
       <c r="B244" t="s">
         <v>623</v>
@@ -10827,7 +11245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="14"/>
       <c r="B245" t="s">
         <v>623</v>
@@ -10848,7 +11266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="14"/>
       <c r="B246" t="s">
         <v>623</v>
@@ -10869,7 +11287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="14"/>
       <c r="B247" t="s">
         <v>623</v>
@@ -10890,7 +11308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="14"/>
       <c r="B248" t="s">
         <v>623</v>
@@ -10911,7 +11329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="14"/>
       <c r="B249" t="s">
         <v>623</v>
@@ -10932,7 +11350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="14"/>
       <c r="B250" t="s">
         <v>623</v>
@@ -10953,7 +11371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="14"/>
       <c r="B251" t="s">
         <v>623</v>
@@ -10974,7 +11392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="14"/>
       <c r="B252" t="s">
         <v>623</v>
@@ -10995,7 +11413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="14"/>
       <c r="B253" t="s">
         <v>623</v>
@@ -11016,7 +11434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="14"/>
       <c r="B254" t="s">
         <v>623</v>
@@ -11037,7 +11455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="14"/>
       <c r="B255" t="s">
         <v>623</v>
@@ -11058,7 +11476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="14"/>
       <c r="B256" t="s">
         <v>623</v>
@@ -11079,7 +11497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="14"/>
       <c r="B257" t="s">
         <v>623</v>
@@ -11100,7 +11518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="14"/>
       <c r="B258" t="s">
         <v>623</v>
@@ -11121,7 +11539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="14"/>
       <c r="B259" t="s">
         <v>623</v>
@@ -11142,7 +11560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="14"/>
       <c r="B260" t="s">
         <v>623</v>
@@ -11163,7 +11581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="14"/>
       <c r="B261" t="s">
         <v>623</v>
@@ -11184,7 +11602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="14"/>
       <c r="B262" t="s">
         <v>623</v>
@@ -11205,7 +11623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="14"/>
       <c r="B263" t="s">
         <v>623</v>
@@ -11226,7 +11644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="14"/>
       <c r="B264" t="s">
         <v>623</v>
@@ -11247,7 +11665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="14"/>
       <c r="B265" t="s">
         <v>623</v>
@@ -11268,7 +11686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="14"/>
       <c r="B266" t="s">
         <v>623</v>
@@ -11289,7 +11707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="14"/>
       <c r="B267" t="s">
         <v>623</v>
@@ -11310,7 +11728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="14"/>
       <c r="B268" t="s">
         <v>623</v>
@@ -11331,7 +11749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="14"/>
       <c r="B269" t="s">
         <v>623</v>
@@ -11352,7 +11770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="14"/>
       <c r="B270" t="s">
         <v>623</v>
@@ -11373,7 +11791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="14"/>
       <c r="B271" t="s">
         <v>623</v>
@@ -11394,10 +11812,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="14"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="14"/>
       <c r="B273" t="s">
         <v>623</v>
@@ -11418,7 +11836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="14"/>
       <c r="B274" t="s">
         <v>623</v>
@@ -11439,7 +11857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="14"/>
       <c r="B275" t="s">
         <v>623</v>
@@ -11460,7 +11878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="14"/>
       <c r="B276" t="s">
         <v>623</v>
@@ -11481,7 +11899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="14"/>
       <c r="B277" t="s">
         <v>623</v>
@@ -11502,7 +11920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="14"/>
       <c r="B278" t="s">
         <v>623</v>
@@ -11523,7 +11941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="14"/>
       <c r="B279" t="s">
         <v>623</v>
@@ -11544,7 +11962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="14"/>
       <c r="B280" t="s">
         <v>623</v>
@@ -11565,7 +11983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="14"/>
       <c r="B281" t="s">
         <v>623</v>
@@ -11586,7 +12004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="14"/>
       <c r="B282" t="s">
         <v>623</v>
@@ -11607,7 +12025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="14"/>
       <c r="B283" t="s">
         <v>623</v>
@@ -11628,7 +12046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="14"/>
       <c r="B284" t="s">
         <v>623</v>
@@ -11649,7 +12067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="14"/>
       <c r="B285" t="s">
         <v>623</v>
@@ -11670,7 +12088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="14"/>
       <c r="B286" t="s">
         <v>623</v>
@@ -11691,7 +12109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="14"/>
       <c r="B287" t="s">
         <v>623</v>
@@ -11712,7 +12130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="14"/>
       <c r="B288" t="s">
         <v>623</v>
@@ -11733,7 +12151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="14"/>
       <c r="B289" t="s">
         <v>623</v>
@@ -11754,7 +12172,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="14"/>
       <c r="B290" t="s">
         <v>623</v>
@@ -11775,7 +12193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="14"/>
       <c r="B291" t="s">
         <v>623</v>
@@ -11796,7 +12214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="14"/>
       <c r="B292" t="s">
         <v>623</v>
@@ -11817,7 +12235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="14"/>
       <c r="B293" t="s">
         <v>623</v>
@@ -11838,7 +12256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="14"/>
       <c r="B294" t="s">
         <v>623</v>
@@ -11859,7 +12277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="14"/>
       <c r="B295" t="s">
         <v>623</v>
@@ -11880,7 +12298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="14"/>
       <c r="B296" t="s">
         <v>623</v>
@@ -11901,7 +12319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="14"/>
       <c r="B297" t="s">
         <v>623</v>
@@ -11922,7 +12340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="14"/>
       <c r="B298" t="s">
         <v>623</v>
@@ -11943,7 +12361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="14"/>
       <c r="B299" t="s">
         <v>623</v>
@@ -11964,7 +12382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="14"/>
       <c r="B300" t="s">
         <v>623</v>
@@ -11985,7 +12403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="14"/>
       <c r="B301" t="s">
         <v>623</v>
@@ -12006,7 +12424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="14"/>
       <c r="B302" t="s">
         <v>623</v>
@@ -12027,7 +12445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="14"/>
       <c r="B303" t="s">
         <v>623</v>
@@ -12048,7 +12466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="14"/>
       <c r="B304" t="s">
         <v>623</v>
@@ -12069,7 +12487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="14"/>
       <c r="B305" t="s">
         <v>623</v>
@@ -12090,7 +12508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="14"/>
       <c r="B306" t="s">
         <v>623</v>
@@ -12111,7 +12529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="14"/>
       <c r="B307" t="s">
         <v>623</v>
@@ -12132,7 +12550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="14"/>
       <c r="B308" t="s">
         <v>623</v>
@@ -12153,7 +12571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="14"/>
       <c r="B309" t="s">
         <v>623</v>
@@ -12174,7 +12592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="14"/>
       <c r="B310" t="s">
         <v>623</v>
@@ -12195,7 +12613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="14"/>
       <c r="B311" t="s">
         <v>623</v>
@@ -12216,7 +12634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="14"/>
       <c r="B312" t="s">
         <v>623</v>
@@ -12237,7 +12655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="14"/>
       <c r="B313" t="s">
         <v>623</v>
@@ -12258,7 +12676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="14"/>
       <c r="B314" t="s">
         <v>623</v>
@@ -12279,7 +12697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="14"/>
       <c r="B315" t="s">
         <v>623</v>
@@ -12300,7 +12718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="14"/>
       <c r="B316" t="s">
         <v>623</v>
@@ -12321,7 +12739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="14"/>
       <c r="B317" t="s">
         <v>623</v>
@@ -12342,7 +12760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" s="14"/>
       <c r="B318" t="s">
         <v>623</v>
@@ -12363,7 +12781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" s="14"/>
       <c r="B319" t="s">
         <v>623</v>
@@ -12384,7 +12802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" s="14"/>
       <c r="B320" t="s">
         <v>623</v>
@@ -12405,7 +12823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" s="14"/>
       <c r="B321" t="s">
         <v>623</v>
@@ -12426,7 +12844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" s="14"/>
       <c r="B322" t="s">
         <v>623</v>
@@ -12447,7 +12865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" s="14"/>
       <c r="B323" t="s">
         <v>623</v>
@@ -12468,7 +12886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" s="14"/>
       <c r="B324" t="s">
         <v>623</v>
@@ -12489,7 +12907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" s="14"/>
       <c r="B325" t="s">
         <v>623</v>
@@ -12510,7 +12928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" s="14"/>
       <c r="B326" t="s">
         <v>623</v>
@@ -12531,10 +12949,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" s="14"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" s="14"/>
       <c r="B328" t="s">
         <v>623</v>
@@ -12555,7 +12973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" s="14"/>
       <c r="B329" t="s">
         <v>623</v>
@@ -12576,7 +12994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" s="14"/>
       <c r="B330" t="s">
         <v>623</v>
@@ -12597,7 +13015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" s="14"/>
       <c r="B331" t="s">
         <v>623</v>
@@ -12618,7 +13036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" s="14"/>
       <c r="B332" t="s">
         <v>623</v>
@@ -12639,7 +13057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" s="14"/>
       <c r="B333" t="s">
         <v>623</v>
@@ -12660,7 +13078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" s="14"/>
       <c r="B334" t="s">
         <v>623</v>
@@ -12681,7 +13099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" s="14"/>
       <c r="B335" t="s">
         <v>623</v>
@@ -12702,7 +13120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" s="14"/>
       <c r="B336" t="s">
         <v>623</v>
@@ -12723,7 +13141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" s="14"/>
       <c r="B337" t="s">
         <v>623</v>
@@ -12744,7 +13162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" s="14"/>
       <c r="B338" t="s">
         <v>623</v>
@@ -12765,7 +13183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" s="14"/>
       <c r="B339" t="s">
         <v>623</v>
@@ -12786,7 +13204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" s="14"/>
       <c r="B340" t="s">
         <v>623</v>
@@ -12807,7 +13225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" s="14"/>
       <c r="B341" t="s">
         <v>623</v>
@@ -12828,7 +13246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" s="14"/>
       <c r="B342" t="s">
         <v>623</v>
@@ -12849,7 +13267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" s="14"/>
       <c r="B343" t="s">
         <v>623</v>
@@ -12870,7 +13288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" s="14"/>
       <c r="B344" t="s">
         <v>623</v>
@@ -12891,7 +13309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" s="14"/>
       <c r="B345" t="s">
         <v>623</v>
@@ -12912,7 +13330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" s="14"/>
       <c r="B346" t="s">
         <v>623</v>
@@ -12933,7 +13351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" s="14"/>
       <c r="B347" t="s">
         <v>623</v>
@@ -12954,7 +13372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" s="14"/>
       <c r="B348" t="s">
         <v>623</v>
@@ -12975,7 +13393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" s="14"/>
       <c r="B349" t="s">
         <v>623</v>
@@ -12996,7 +13414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" s="14"/>
       <c r="B350" t="s">
         <v>623</v>
@@ -13017,7 +13435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" s="14"/>
       <c r="B351" t="s">
         <v>623</v>
@@ -13038,7 +13456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" s="14"/>
       <c r="B352" t="s">
         <v>623</v>
@@ -13059,7 +13477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" s="14"/>
       <c r="B353" t="s">
         <v>623</v>
@@ -13080,7 +13498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" s="14"/>
       <c r="B354" t="s">
         <v>623</v>
@@ -13101,7 +13519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" s="14"/>
       <c r="B355" t="s">
         <v>623</v>
@@ -13122,7 +13540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" s="14"/>
       <c r="B356" t="s">
         <v>623</v>
@@ -13143,7 +13561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" s="14"/>
       <c r="B357" t="s">
         <v>623</v>
@@ -13164,7 +13582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" s="14"/>
       <c r="B358" t="s">
         <v>623</v>
@@ -13185,7 +13603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" s="14"/>
       <c r="B359" t="s">
         <v>623</v>
@@ -13206,7 +13624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" s="14"/>
       <c r="B360" t="s">
         <v>623</v>
@@ -13227,7 +13645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" s="14"/>
       <c r="B361" t="s">
         <v>623</v>
@@ -13248,7 +13666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" s="14"/>
       <c r="B362" t="s">
         <v>623</v>
@@ -13269,7 +13687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" s="14"/>
       <c r="B363" t="s">
         <v>623</v>
@@ -13290,7 +13708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" s="14"/>
       <c r="B364" t="s">
         <v>623</v>
@@ -13311,7 +13729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" s="14"/>
       <c r="B365" t="s">
         <v>623</v>
@@ -13332,7 +13750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" s="14"/>
       <c r="B366" t="s">
         <v>623</v>
@@ -13353,7 +13771,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" s="14"/>
       <c r="B367" t="s">
         <v>623</v>
@@ -13374,7 +13792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" s="14"/>
       <c r="B368" t="s">
         <v>623</v>
@@ -13395,7 +13813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" s="14"/>
       <c r="B369" t="s">
         <v>623</v>
@@ -13416,7 +13834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" s="14"/>
       <c r="B370" t="s">
         <v>623</v>
@@ -13437,7 +13855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" s="14"/>
       <c r="B371" t="s">
         <v>623</v>
@@ -13458,7 +13876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" s="14"/>
       <c r="B372" t="s">
         <v>623</v>
@@ -13479,7 +13897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" s="14"/>
       <c r="B373" t="s">
         <v>623</v>
@@ -13500,7 +13918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" s="14"/>
       <c r="B374" t="s">
         <v>623</v>
@@ -13521,7 +13939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" s="14"/>
       <c r="B375" t="s">
         <v>623</v>
@@ -13542,7 +13960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" s="14"/>
       <c r="B376" t="s">
         <v>623</v>
@@ -13563,7 +13981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" s="14"/>
       <c r="B377" t="s">
         <v>623</v>
@@ -13584,7 +14002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" s="14"/>
       <c r="B378" t="s">
         <v>623</v>
@@ -13605,7 +14023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" s="14"/>
       <c r="B379" t="s">
         <v>623</v>
@@ -13626,7 +14044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" s="14"/>
       <c r="B380" t="s">
         <v>623</v>
@@ -13647,7 +14065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" s="14"/>
       <c r="B381" t="s">
         <v>623</v>
@@ -13668,10 +14086,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" s="14"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" s="14"/>
       <c r="B383" t="s">
         <v>623</v>
@@ -13692,7 +14110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" s="14"/>
       <c r="B384" t="s">
         <v>623</v>
@@ -13713,7 +14131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" s="14"/>
       <c r="B385" t="s">
         <v>623</v>
@@ -13734,7 +14152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" s="14"/>
       <c r="B386" t="s">
         <v>623</v>
@@ -13755,7 +14173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" s="14"/>
       <c r="B387" t="s">
         <v>623</v>
@@ -13776,7 +14194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" s="14"/>
       <c r="B388" t="s">
         <v>623</v>
@@ -13797,7 +14215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" s="14"/>
       <c r="B389" t="s">
         <v>623</v>
@@ -13818,7 +14236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" s="14"/>
       <c r="B390" t="s">
         <v>623</v>
@@ -13839,7 +14257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" s="14"/>
       <c r="B391" t="s">
         <v>623</v>
@@ -13860,7 +14278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" s="14"/>
       <c r="B392" t="s">
         <v>623</v>
@@ -13881,7 +14299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" s="14"/>
       <c r="B393" t="s">
         <v>623</v>
@@ -13902,7 +14320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" s="14"/>
       <c r="B394" t="s">
         <v>623</v>
@@ -13923,7 +14341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" s="14"/>
       <c r="B395" t="s">
         <v>623</v>
@@ -13944,7 +14362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" s="14"/>
       <c r="B396" t="s">
         <v>623</v>
@@ -13965,7 +14383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" s="14"/>
       <c r="B397" t="s">
         <v>623</v>
@@ -13986,7 +14404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" s="14"/>
       <c r="B398" t="s">
         <v>623</v>
@@ -14007,7 +14425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" s="14"/>
       <c r="B399" t="s">
         <v>623</v>
@@ -14028,7 +14446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" s="14"/>
       <c r="B400" t="s">
         <v>623</v>
@@ -14049,7 +14467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" s="14"/>
       <c r="B401" t="s">
         <v>623</v>
@@ -14070,7 +14488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" s="14"/>
       <c r="B402" t="s">
         <v>623</v>
@@ -14091,7 +14509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" s="14"/>
       <c r="B403" t="s">
         <v>623</v>
@@ -14112,7 +14530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" s="14"/>
       <c r="B404" t="s">
         <v>623</v>
@@ -14133,7 +14551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" s="14"/>
       <c r="B405" t="s">
         <v>623</v>
@@ -14154,7 +14572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" s="14"/>
       <c r="B406" t="s">
         <v>623</v>
@@ -14175,7 +14593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" s="14"/>
       <c r="B407" t="s">
         <v>623</v>
@@ -14196,7 +14614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" s="14"/>
       <c r="B408" t="s">
         <v>623</v>
@@ -14217,7 +14635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" s="14"/>
       <c r="B409" t="s">
         <v>623</v>
@@ -14238,7 +14656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" s="14"/>
       <c r="B410" t="s">
         <v>623</v>
@@ -14259,7 +14677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" s="14"/>
       <c r="B411" t="s">
         <v>623</v>
@@ -14280,7 +14698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" s="14"/>
       <c r="B412" t="s">
         <v>623</v>
@@ -14301,7 +14719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" s="14"/>
       <c r="B413" t="s">
         <v>623</v>
@@ -14322,7 +14740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" s="14"/>
       <c r="B414" t="s">
         <v>623</v>
@@ -14343,7 +14761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" s="14"/>
       <c r="B415" t="s">
         <v>623</v>
@@ -14364,7 +14782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" s="14"/>
       <c r="B416" t="s">
         <v>623</v>
@@ -14385,7 +14803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" s="14"/>
       <c r="B417" t="s">
         <v>623</v>
@@ -14406,7 +14824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" s="14"/>
       <c r="B418" t="s">
         <v>623</v>
@@ -14427,7 +14845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" s="14"/>
       <c r="B419" t="s">
         <v>623</v>
@@ -14448,7 +14866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" s="14"/>
       <c r="B420" t="s">
         <v>623</v>
@@ -14469,7 +14887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" s="14"/>
       <c r="B421" t="s">
         <v>623</v>
@@ -14490,7 +14908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" s="14"/>
       <c r="B422" t="s">
         <v>623</v>
@@ -14511,7 +14929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" s="14"/>
       <c r="B423" t="s">
         <v>623</v>
@@ -14532,7 +14950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" s="14"/>
       <c r="B424" t="s">
         <v>623</v>
@@ -14553,7 +14971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" s="14"/>
       <c r="B425" t="s">
         <v>623</v>
@@ -14574,7 +14992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" s="14"/>
       <c r="B426" t="s">
         <v>623</v>
@@ -14595,7 +15013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" s="14"/>
       <c r="B427" t="s">
         <v>623</v>
@@ -14616,7 +15034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" s="14"/>
       <c r="B428" t="s">
         <v>623</v>
@@ -14637,7 +15055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" s="14"/>
       <c r="B429" t="s">
         <v>623</v>
@@ -14658,7 +15076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" s="14"/>
       <c r="B430" t="s">
         <v>623</v>
@@ -14679,7 +15097,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" s="14"/>
       <c r="B431" t="s">
         <v>623</v>
@@ -14700,7 +15118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" s="14"/>
       <c r="B432" t="s">
         <v>623</v>
@@ -14721,7 +15139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" s="14"/>
       <c r="B433" t="s">
         <v>623</v>
@@ -14742,7 +15160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" s="14"/>
       <c r="B434" t="s">
         <v>623</v>
@@ -14763,7 +15181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" s="14"/>
       <c r="B435" t="s">
         <v>623</v>
@@ -14784,7 +15202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" s="14"/>
       <c r="B436" t="s">
         <v>623</v>
@@ -14805,7 +15223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" s="14"/>
       <c r="B437" t="s">
         <v>623</v>
@@ -14826,7 +15244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" s="14"/>
       <c r="B438" t="s">
         <v>623</v>
@@ -14847,7 +15265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" s="14"/>
       <c r="B439" t="s">
         <v>623</v>
@@ -14868,7 +15286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" s="14"/>
       <c r="B440" t="s">
         <v>623</v>
@@ -14889,7 +15307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" s="14"/>
       <c r="B441" t="s">
         <v>623</v>
@@ -14910,7 +15328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" s="14"/>
       <c r="B442" t="s">
         <v>623</v>
@@ -14931,7 +15349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" s="14"/>
       <c r="B443" t="s">
         <v>623</v>
@@ -14952,7 +15370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" s="14"/>
       <c r="B444" t="s">
         <v>623</v>
@@ -14973,7 +15391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" s="14"/>
       <c r="B445" t="s">
         <v>623</v>
@@ -14994,7 +15412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" s="14"/>
       <c r="B446" t="s">
         <v>623</v>
@@ -15015,7 +15433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" s="14"/>
       <c r="B447" t="s">
         <v>623</v>
@@ -15036,7 +15454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" s="14"/>
       <c r="B448" t="s">
         <v>623</v>
@@ -15057,7 +15475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" s="14"/>
       <c r="B449" t="s">
         <v>623</v>
@@ -15078,7 +15496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" s="14"/>
       <c r="B450" t="s">
         <v>623</v>
@@ -15099,7 +15517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" s="14"/>
       <c r="B451" t="s">
         <v>623</v>
@@ -15120,7 +15538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" s="14"/>
       <c r="B452" t="s">
         <v>623</v>
@@ -15141,7 +15559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" s="14"/>
       <c r="B453" t="s">
         <v>623</v>
@@ -15162,7 +15580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" s="14"/>
       <c r="B454" t="s">
         <v>623</v>
@@ -15183,7 +15601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" s="14"/>
       <c r="B455" t="s">
         <v>623</v>
@@ -15204,7 +15622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7">
       <c r="A456" s="14"/>
       <c r="B456" t="s">
         <v>623</v>
@@ -15225,7 +15643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" s="14"/>
       <c r="B457" t="s">
         <v>623</v>
@@ -15246,7 +15664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7">
       <c r="A458" s="14"/>
       <c r="B458" t="s">
         <v>623</v>
@@ -15267,7 +15685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" s="14"/>
       <c r="B459" t="s">
         <v>623</v>
@@ -15288,7 +15706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" s="14"/>
       <c r="B460" t="s">
         <v>623</v>
@@ -15309,7 +15727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" s="14"/>
       <c r="B461" t="s">
         <v>623</v>
@@ -15330,7 +15748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" s="14"/>
       <c r="B462" t="s">
         <v>623</v>
@@ -15351,7 +15769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" s="14"/>
       <c r="B463" t="s">
         <v>623</v>
@@ -15372,7 +15790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" s="14"/>
       <c r="B464" t="s">
         <v>623</v>
@@ -15393,7 +15811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7">
       <c r="A465" s="14"/>
       <c r="B465" t="s">
         <v>623</v>
@@ -15414,7 +15832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7">
       <c r="A466" s="14"/>
       <c r="B466" t="s">
         <v>623</v>
@@ -15435,7 +15853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7">
       <c r="A467" s="14"/>
       <c r="B467" t="s">
         <v>623</v>
@@ -15456,7 +15874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7">
       <c r="A468" s="14"/>
       <c r="B468" t="s">
         <v>623</v>
@@ -15477,7 +15895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7">
       <c r="A469" s="14"/>
       <c r="B469" t="s">
         <v>623</v>
@@ -15498,7 +15916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7">
       <c r="A470" s="14"/>
       <c r="B470" t="s">
         <v>623</v>
@@ -15519,7 +15937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7">
       <c r="A471" s="14"/>
       <c r="B471" t="s">
         <v>623</v>
@@ -15540,7 +15958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7">
       <c r="A472" s="14"/>
       <c r="B472" t="s">
         <v>623</v>
@@ -15561,7 +15979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7">
       <c r="A473" s="14"/>
       <c r="B473" t="s">
         <v>623</v>
@@ -15582,7 +16000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7">
       <c r="A474" s="14"/>
       <c r="B474" t="s">
         <v>623</v>
@@ -15603,7 +16021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7">
       <c r="A475" s="14"/>
       <c r="B475" t="s">
         <v>623</v>
@@ -15624,7 +16042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7">
       <c r="A476" s="14"/>
       <c r="B476" t="s">
         <v>623</v>
@@ -15645,7 +16063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7">
       <c r="A477" s="14"/>
       <c r="B477" t="s">
         <v>623</v>
@@ -15666,7 +16084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7">
       <c r="A478" s="14"/>
       <c r="B478" t="s">
         <v>623</v>
@@ -15687,7 +16105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7">
       <c r="A479" s="14"/>
       <c r="B479" t="s">
         <v>623</v>
@@ -15708,7 +16126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7">
       <c r="A480" s="14"/>
       <c r="B480" t="s">
         <v>623</v>
@@ -15729,7 +16147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" s="14"/>
       <c r="B481" t="s">
         <v>623</v>
@@ -15750,7 +16168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" s="14"/>
       <c r="B482" t="s">
         <v>623</v>
@@ -15771,7 +16189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" s="14"/>
       <c r="B483" t="s">
         <v>623</v>
@@ -15792,7 +16210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" s="14"/>
       <c r="B484" t="s">
         <v>623</v>
@@ -15813,7 +16231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" s="14"/>
       <c r="B485" t="s">
         <v>623</v>
@@ -15834,7 +16252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" s="14"/>
       <c r="B486" t="s">
         <v>623</v>
@@ -15855,7 +16273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" s="14"/>
       <c r="B487" t="s">
         <v>623</v>
@@ -15876,7 +16294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7">
       <c r="A488" s="14"/>
       <c r="B488" t="s">
         <v>623</v>
@@ -15897,7 +16315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7">
       <c r="A489" s="14"/>
       <c r="B489" t="s">
         <v>623</v>
@@ -15918,7 +16336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" s="14"/>
       <c r="B490" t="s">
         <v>623</v>
@@ -15939,7 +16357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" s="14"/>
       <c r="B491" t="s">
         <v>623</v>
@@ -15960,7 +16378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" s="14"/>
       <c r="B492" t="s">
         <v>623</v>
@@ -15981,7 +16399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7">
       <c r="A493" s="14"/>
       <c r="B493" t="s">
         <v>623</v>
@@ -16002,10 +16420,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" s="14"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" s="14"/>
       <c r="B495" t="s">
         <v>623</v>
@@ -16026,7 +16444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7">
       <c r="A496" s="14"/>
       <c r="B496" t="s">
         <v>623</v>
@@ -16047,7 +16465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7">
       <c r="A497" s="14"/>
       <c r="B497" t="s">
         <v>623</v>
@@ -16068,7 +16486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7">
       <c r="A498" s="14"/>
       <c r="B498" t="s">
         <v>623</v>
@@ -16089,7 +16507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7">
       <c r="A499" s="14"/>
       <c r="B499" t="s">
         <v>623</v>
@@ -16110,7 +16528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" s="14"/>
       <c r="B500" t="s">
         <v>623</v>
@@ -16131,7 +16549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" s="14"/>
       <c r="B501" t="s">
         <v>623</v>
@@ -16152,7 +16570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7">
       <c r="A502" s="14"/>
       <c r="B502" t="s">
         <v>623</v>
@@ -16173,7 +16591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" s="14"/>
       <c r="B503" t="s">
         <v>623</v>
@@ -16194,7 +16612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" s="14"/>
       <c r="B504" t="s">
         <v>623</v>
@@ -16215,7 +16633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" s="14"/>
       <c r="B505" t="s">
         <v>623</v>
@@ -16236,7 +16654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7">
       <c r="A506" s="14"/>
       <c r="B506" t="s">
         <v>623</v>
@@ -16257,7 +16675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7">
       <c r="A507" s="14"/>
       <c r="B507" t="s">
         <v>623</v>
@@ -16278,7 +16696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7">
       <c r="A508" s="14"/>
       <c r="B508" t="s">
         <v>623</v>
@@ -16299,7 +16717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7">
       <c r="A509" s="14"/>
       <c r="B509" t="s">
         <v>623</v>
@@ -16320,7 +16738,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7">
       <c r="A510" s="14"/>
       <c r="B510" t="s">
         <v>623</v>
@@ -16341,7 +16759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7">
       <c r="A511" s="14"/>
       <c r="B511" t="s">
         <v>623</v>
@@ -16362,7 +16780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7">
       <c r="A512" s="14"/>
       <c r="B512" t="s">
         <v>623</v>
@@ -16383,7 +16801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7">
       <c r="A513" s="14"/>
       <c r="B513" t="s">
         <v>623</v>
@@ -16404,7 +16822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7">
       <c r="A514" s="14"/>
       <c r="B514" t="s">
         <v>623</v>
@@ -16425,7 +16843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7">
       <c r="A515" s="14"/>
       <c r="B515" t="s">
         <v>623</v>
@@ -16446,7 +16864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7">
       <c r="A516" s="14"/>
       <c r="B516" t="s">
         <v>623</v>
@@ -16467,7 +16885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7">
       <c r="A517" s="14"/>
       <c r="B517" t="s">
         <v>623</v>
@@ -16488,7 +16906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7">
       <c r="A518" s="14"/>
       <c r="B518" t="s">
         <v>623</v>
@@ -16509,7 +16927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7">
       <c r="A519" s="14"/>
       <c r="B519" t="s">
         <v>623</v>
@@ -16530,7 +16948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7">
       <c r="A520" s="14"/>
       <c r="B520" t="s">
         <v>623</v>
@@ -16551,7 +16969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7">
       <c r="A521" s="14"/>
       <c r="B521" t="s">
         <v>623</v>
@@ -16572,7 +16990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7">
       <c r="A522" s="14"/>
       <c r="B522" t="s">
         <v>623</v>
@@ -16593,7 +17011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7">
       <c r="A523" s="14"/>
       <c r="B523" t="s">
         <v>623</v>
@@ -16614,7 +17032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7">
       <c r="A524" s="14"/>
       <c r="B524" t="s">
         <v>623</v>
@@ -16635,7 +17053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7">
       <c r="A525" s="14"/>
       <c r="B525" t="s">
         <v>623</v>
@@ -16656,7 +17074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7">
       <c r="A526" s="14"/>
       <c r="B526" t="s">
         <v>623</v>
@@ -16677,7 +17095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7">
       <c r="A527" s="14"/>
       <c r="B527" t="s">
         <v>623</v>
@@ -16698,7 +17116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7">
       <c r="A528" s="14"/>
       <c r="B528" t="s">
         <v>623</v>
@@ -16719,7 +17137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7">
       <c r="A529" s="14"/>
       <c r="B529" t="s">
         <v>623</v>
@@ -16740,7 +17158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7">
       <c r="A530" s="14"/>
       <c r="B530" t="s">
         <v>623</v>
@@ -16761,7 +17179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7">
       <c r="A531" s="14"/>
       <c r="B531" t="s">
         <v>623</v>
@@ -16782,7 +17200,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7">
       <c r="A532" s="14"/>
       <c r="B532" t="s">
         <v>623</v>
@@ -16803,7 +17221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7">
       <c r="A533" s="14"/>
       <c r="B533" t="s">
         <v>623</v>
@@ -16824,7 +17242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7">
       <c r="A534" s="14"/>
       <c r="B534" t="s">
         <v>623</v>
@@ -16845,7 +17263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7">
       <c r="A535" s="14"/>
       <c r="B535" t="s">
         <v>623</v>
@@ -16866,7 +17284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7">
       <c r="A536" s="14"/>
       <c r="B536" t="s">
         <v>623</v>
@@ -16887,7 +17305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7">
       <c r="A537" s="14"/>
       <c r="B537" t="s">
         <v>623</v>
@@ -16908,7 +17326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7">
       <c r="A538" s="14"/>
       <c r="B538" t="s">
         <v>623</v>
@@ -16929,7 +17347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7">
       <c r="A539" s="14"/>
       <c r="B539" t="s">
         <v>623</v>
@@ -16950,7 +17368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7">
       <c r="A540" s="14"/>
       <c r="B540" t="s">
         <v>623</v>
@@ -16971,7 +17389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7">
       <c r="A541" s="14"/>
       <c r="B541" t="s">
         <v>623</v>
@@ -16992,7 +17410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7">
       <c r="A542" s="14"/>
       <c r="B542" t="s">
         <v>623</v>
@@ -17013,7 +17431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7">
       <c r="A543" s="14"/>
       <c r="B543" t="s">
         <v>623</v>
@@ -17034,7 +17452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7">
       <c r="A544" s="14"/>
       <c r="B544" t="s">
         <v>623</v>
@@ -17055,7 +17473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7">
       <c r="A545" s="14"/>
       <c r="B545" t="s">
         <v>623</v>
@@ -17076,7 +17494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7">
       <c r="A546" s="14"/>
       <c r="B546" t="s">
         <v>623</v>
@@ -17097,7 +17515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7">
       <c r="A547" s="14"/>
       <c r="B547" t="s">
         <v>623</v>
@@ -17118,7 +17536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7">
       <c r="A548" s="14"/>
       <c r="B548" t="s">
         <v>623</v>
@@ -17139,7 +17557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7">
       <c r="A549" s="14"/>
       <c r="B549" t="s">
         <v>623</v>
@@ -17160,7 +17578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7">
       <c r="A550" s="14"/>
       <c r="B550" t="s">
         <v>623</v>
@@ -17181,7 +17599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7">
       <c r="A551" s="14"/>
       <c r="B551" t="s">
         <v>623</v>
@@ -17202,7 +17620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7">
       <c r="A552" s="14"/>
       <c r="B552" t="s">
         <v>623</v>
@@ -17223,7 +17641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7">
       <c r="A553" s="14"/>
       <c r="B553" t="s">
         <v>623</v>
@@ -17244,7 +17662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7">
       <c r="A554" s="14"/>
       <c r="B554" t="s">
         <v>623</v>
@@ -17265,7 +17683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7">
       <c r="A555" s="14"/>
       <c r="B555" t="s">
         <v>623</v>
@@ -17286,7 +17704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7">
       <c r="A556" s="14"/>
       <c r="B556" t="s">
         <v>623</v>
@@ -17307,7 +17725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7">
       <c r="A557" s="14"/>
       <c r="B557" t="s">
         <v>623</v>
@@ -17328,7 +17746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7">
       <c r="A558" s="14"/>
       <c r="B558" t="s">
         <v>623</v>
@@ -17349,7 +17767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7">
       <c r="A559" s="14"/>
       <c r="B559" t="s">
         <v>623</v>
@@ -17370,7 +17788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7">
       <c r="A560" s="14"/>
       <c r="B560" t="s">
         <v>623</v>
@@ -17391,7 +17809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7">
       <c r="A561" s="14"/>
       <c r="B561" t="s">
         <v>623</v>
@@ -17412,7 +17830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7">
       <c r="A562" s="14"/>
       <c r="B562" t="s">
         <v>623</v>
@@ -17433,7 +17851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7">
       <c r="A563" s="14"/>
       <c r="B563" t="s">
         <v>623</v>
@@ -17454,7 +17872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7">
       <c r="A564" s="14"/>
       <c r="B564" t="s">
         <v>623</v>
@@ -17475,7 +17893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7">
       <c r="A565" s="14"/>
       <c r="B565" t="s">
         <v>623</v>
@@ -17496,7 +17914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7">
       <c r="A566" s="14"/>
       <c r="B566" t="s">
         <v>623</v>
@@ -17517,7 +17935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7">
       <c r="A567" s="14"/>
       <c r="B567" t="s">
         <v>623</v>
@@ -17538,7 +17956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7">
       <c r="A568" s="14"/>
       <c r="B568" t="s">
         <v>623</v>
@@ -17559,7 +17977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7">
       <c r="A569" s="14"/>
       <c r="B569" t="s">
         <v>623</v>
@@ -17580,7 +17998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7">
       <c r="A570" s="14"/>
       <c r="B570" t="s">
         <v>623</v>
@@ -17601,7 +18019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7">
       <c r="A571" s="14"/>
       <c r="B571" t="s">
         <v>623</v>
@@ -17622,7 +18040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7">
       <c r="A572" s="14"/>
       <c r="B572" t="s">
         <v>623</v>
@@ -17643,7 +18061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7">
       <c r="A573" s="14"/>
       <c r="B573" t="s">
         <v>623</v>
@@ -17664,7 +18082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7">
       <c r="A574" s="14"/>
       <c r="B574" t="s">
         <v>623</v>
@@ -17685,7 +18103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7">
       <c r="A575" s="14"/>
       <c r="B575" t="s">
         <v>623</v>
@@ -17706,7 +18124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7">
       <c r="A576" s="14"/>
       <c r="B576" t="s">
         <v>623</v>
@@ -17727,7 +18145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7">
       <c r="A577" s="14"/>
       <c r="B577" t="s">
         <v>623</v>
@@ -17748,7 +18166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7">
       <c r="A578" s="14"/>
       <c r="B578" t="s">
         <v>623</v>
@@ -17769,7 +18187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7">
       <c r="A579" s="14"/>
       <c r="B579" t="s">
         <v>623</v>
@@ -17790,7 +18208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7">
       <c r="A580" s="14"/>
       <c r="B580" t="s">
         <v>623</v>
@@ -17811,7 +18229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7">
       <c r="A581" s="14"/>
       <c r="B581" t="s">
         <v>623</v>
@@ -17832,7 +18250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7">
       <c r="A582" s="14"/>
       <c r="B582" t="s">
         <v>623</v>
@@ -17853,7 +18271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7">
       <c r="A583" s="14"/>
       <c r="B583" t="s">
         <v>623</v>
@@ -17874,7 +18292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7">
       <c r="A584" s="14"/>
       <c r="B584" t="s">
         <v>623</v>
@@ -17895,7 +18313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7">
       <c r="A585" s="14"/>
       <c r="B585" t="s">
         <v>623</v>
@@ -17916,7 +18334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7">
       <c r="A586" s="14"/>
       <c r="B586" t="s">
         <v>623</v>
@@ -17937,7 +18355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7">
       <c r="A587" s="14"/>
       <c r="B587" t="s">
         <v>623</v>
@@ -17958,7 +18376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7">
       <c r="A588" s="14"/>
       <c r="B588" t="s">
         <v>623</v>
@@ -17979,7 +18397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7">
       <c r="A589" s="14"/>
       <c r="B589" t="s">
         <v>623</v>
@@ -18000,7 +18418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7">
       <c r="A590" s="14"/>
       <c r="B590" t="s">
         <v>623</v>
@@ -18021,7 +18439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7">
       <c r="A591" s="14"/>
       <c r="B591" t="s">
         <v>623</v>
@@ -18042,7 +18460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7">
       <c r="A592" s="14"/>
       <c r="B592" t="s">
         <v>623</v>
@@ -18063,7 +18481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7">
       <c r="A593" s="14"/>
       <c r="B593" t="s">
         <v>623</v>
@@ -18084,7 +18502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7">
       <c r="A594" s="14"/>
       <c r="B594" t="s">
         <v>623</v>
@@ -18105,7 +18523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7">
       <c r="A595" s="14"/>
       <c r="B595" t="s">
         <v>623</v>
@@ -18126,7 +18544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7">
       <c r="A596" s="14"/>
       <c r="B596" t="s">
         <v>623</v>
@@ -18147,7 +18565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7">
       <c r="A597" s="14"/>
       <c r="B597" t="s">
         <v>623</v>
@@ -18168,7 +18586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7">
       <c r="A598" s="14"/>
       <c r="B598" t="s">
         <v>623</v>
@@ -18189,7 +18607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7">
       <c r="A599" s="14"/>
       <c r="B599" t="s">
         <v>623</v>
@@ -18210,7 +18628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7">
       <c r="A600" s="14"/>
       <c r="B600" t="s">
         <v>623</v>
@@ -18231,7 +18649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7">
       <c r="A601" s="14"/>
       <c r="B601" t="s">
         <v>623</v>
@@ -18252,7 +18670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7">
       <c r="A602" s="14"/>
       <c r="B602" t="s">
         <v>623</v>
@@ -18273,7 +18691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7">
       <c r="A603" s="14"/>
       <c r="B603" t="s">
         <v>623</v>
@@ -18294,7 +18712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7">
       <c r="A604" s="14"/>
       <c r="B604" t="s">
         <v>623</v>
@@ -18315,7 +18733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7">
       <c r="A605" s="14"/>
       <c r="B605" t="s">
         <v>623</v>
@@ -18336,7 +18754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7">
       <c r="A606" s="14"/>
       <c r="B606" t="s">
         <v>623</v>
@@ -18357,7 +18775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7">
       <c r="A607" s="14"/>
       <c r="B607" t="s">
         <v>623</v>
@@ -18378,7 +18796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7">
       <c r="A608" s="14"/>
       <c r="B608" t="s">
         <v>623</v>
@@ -18399,7 +18817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7">
       <c r="A609" s="14"/>
       <c r="B609" t="s">
         <v>623</v>
@@ -18420,7 +18838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7">
       <c r="A610" s="14"/>
       <c r="B610" t="s">
         <v>623</v>
@@ -18441,7 +18859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7">
       <c r="A611" s="14"/>
       <c r="B611" t="s">
         <v>623</v>
@@ -18462,7 +18880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7">
       <c r="A612" s="14"/>
       <c r="B612" t="s">
         <v>623</v>
@@ -18483,7 +18901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7">
       <c r="A613" s="14"/>
       <c r="B613" t="s">
         <v>623</v>
@@ -18504,7 +18922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7">
       <c r="A614" s="14"/>
       <c r="B614" t="s">
         <v>623</v>
@@ -18525,7 +18943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7">
       <c r="A615" s="14"/>
       <c r="B615" t="s">
         <v>623</v>
@@ -18546,7 +18964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7">
       <c r="A616" s="14"/>
       <c r="B616" t="s">
         <v>623</v>
@@ -18567,7 +18985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7">
       <c r="A617" s="14"/>
       <c r="B617" t="s">
         <v>623</v>
@@ -18588,7 +19006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7">
       <c r="A618" s="14"/>
       <c r="B618" t="s">
         <v>623</v>
@@ -18609,7 +19027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7">
       <c r="A619" s="14"/>
       <c r="B619" t="s">
         <v>623</v>
@@ -18630,7 +19048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7">
       <c r="A620" s="14"/>
       <c r="B620" t="s">
         <v>623</v>
@@ -18651,7 +19069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7">
       <c r="A621" s="14"/>
       <c r="B621" t="s">
         <v>623</v>
@@ -18672,10 +19090,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7">
       <c r="A622" s="14"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7">
       <c r="A623" s="14"/>
       <c r="B623" t="s">
         <v>623</v>
@@ -18696,7 +19114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7">
       <c r="A624" s="14"/>
       <c r="B624" t="s">
         <v>623</v>
@@ -18717,7 +19135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7">
       <c r="A625" s="14"/>
       <c r="B625" t="s">
         <v>623</v>
@@ -18738,7 +19156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7">
       <c r="A626" s="14"/>
       <c r="B626" t="s">
         <v>623</v>
@@ -18759,7 +19177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7">
       <c r="A627" s="14"/>
       <c r="B627" t="s">
         <v>623</v>
@@ -18780,7 +19198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7">
       <c r="A628" s="14"/>
       <c r="B628" t="s">
         <v>623</v>
@@ -18801,7 +19219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7">
       <c r="A629" s="14"/>
       <c r="B629" t="s">
         <v>623</v>
@@ -18822,7 +19240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7">
       <c r="A630" s="14"/>
       <c r="B630" t="s">
         <v>623</v>
@@ -18843,7 +19261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7">
       <c r="A631" s="14"/>
       <c r="B631" t="s">
         <v>623</v>
@@ -18864,7 +19282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7">
       <c r="A632" s="14"/>
       <c r="B632" t="s">
         <v>623</v>
@@ -18885,7 +19303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7">
       <c r="A633" s="14"/>
       <c r="B633" t="s">
         <v>623</v>
@@ -18906,7 +19324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7">
       <c r="A634" s="14"/>
       <c r="B634" t="s">
         <v>623</v>
@@ -18927,7 +19345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7">
       <c r="A635" s="14"/>
       <c r="B635" t="s">
         <v>623</v>
@@ -18948,7 +19366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7">
       <c r="A636" s="14"/>
       <c r="B636" t="s">
         <v>623</v>
@@ -18969,7 +19387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7">
       <c r="A637" s="14"/>
       <c r="B637" t="s">
         <v>623</v>
@@ -18990,7 +19408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7">
       <c r="A638" s="14"/>
       <c r="B638" t="s">
         <v>623</v>
@@ -19011,7 +19429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7">
       <c r="A639" s="14"/>
       <c r="B639" t="s">
         <v>623</v>
@@ -19032,7 +19450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7">
       <c r="A640" s="14"/>
       <c r="B640" t="s">
         <v>623</v>
@@ -19053,7 +19471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7">
       <c r="A641" s="14"/>
       <c r="B641" t="s">
         <v>623</v>
@@ -19074,7 +19492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7">
       <c r="A642" s="14"/>
       <c r="B642" t="s">
         <v>623</v>
@@ -19095,10 +19513,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7">
       <c r="A643" s="14"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7">
       <c r="A644" s="14"/>
       <c r="B644" t="s">
         <v>623</v>
@@ -19119,7 +19537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7">
       <c r="A645" s="14"/>
       <c r="B645" t="s">
         <v>623</v>
@@ -19140,7 +19558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7">
       <c r="A646" s="14"/>
       <c r="B646" t="s">
         <v>623</v>
@@ -19161,7 +19579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7">
       <c r="A647" s="14"/>
       <c r="B647" t="s">
         <v>623</v>
@@ -19182,7 +19600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7">
       <c r="A648" s="14"/>
       <c r="B648" t="s">
         <v>623</v>
@@ -19203,7 +19621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7">
       <c r="A649" s="14"/>
       <c r="B649" t="s">
         <v>623</v>
@@ -19224,7 +19642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7">
       <c r="A650" s="14"/>
       <c r="B650" t="s">
         <v>623</v>
@@ -19245,10 +19663,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7">
       <c r="A651" s="14"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7">
       <c r="A652" s="14"/>
       <c r="B652" t="s">
         <v>625</v>
@@ -19269,10 +19687,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7">
       <c r="A653" s="14"/>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7">
       <c r="A654" s="14"/>
       <c r="B654" t="s">
         <v>630</v>
@@ -19293,7 +19711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7">
       <c r="A655" s="14"/>
       <c r="B655" t="s">
         <v>630</v>
@@ -19314,7 +19732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7">
       <c r="A656" s="14"/>
       <c r="B656" t="s">
         <v>630</v>
@@ -19335,7 +19753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7">
       <c r="A657" s="14"/>
       <c r="B657" t="s">
         <v>630</v>
@@ -19356,10 +19774,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7">
       <c r="A658" s="14"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7">
       <c r="A659" s="14"/>
       <c r="B659" t="s">
         <v>630</v>
@@ -19380,7 +19798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7">
       <c r="A660" s="14"/>
       <c r="B660" t="s">
         <v>630</v>
@@ -19401,7 +19819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7">
       <c r="A661" s="14"/>
       <c r="B661" t="s">
         <v>630</v>
@@ -19422,7 +19840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7">
       <c r="A662" s="14"/>
       <c r="B662" t="s">
         <v>630</v>
@@ -19443,7 +19861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7">
       <c r="A663" s="14"/>
       <c r="B663" t="s">
         <v>630</v>
@@ -19464,7 +19882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7">
       <c r="A664" s="14"/>
       <c r="B664" t="s">
         <v>630</v>
@@ -19485,7 +19903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7">
       <c r="A665" s="14"/>
       <c r="B665" t="s">
         <v>630</v>
@@ -19506,7 +19924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7">
       <c r="A666" s="14"/>
       <c r="B666" t="s">
         <v>630</v>
@@ -19527,10 +19945,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7">
       <c r="A667" s="14"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7">
       <c r="A668" s="14"/>
       <c r="B668" t="s">
         <v>646</v>
@@ -19551,7 +19969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7">
       <c r="A669" s="14"/>
       <c r="B669" t="s">
         <v>646</v>
@@ -19572,7 +19990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7">
       <c r="A670" s="14"/>
       <c r="B670" t="s">
         <v>646</v>
@@ -19593,7 +20011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7">
       <c r="A671" s="14"/>
       <c r="B671" t="s">
         <v>646</v>
@@ -19605,7 +20023,7 @@
         <v>7162</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7">
       <c r="A672" s="14"/>
       <c r="B672" t="s">
         <v>646</v>
@@ -19617,7 +20035,7 @@
         <v>7279</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7">
       <c r="A673" s="14"/>
       <c r="B673" t="s">
         <v>646</v>
@@ -19629,7 +20047,7 @@
         <v>7281</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7">
       <c r="A674" s="14"/>
       <c r="B674" t="s">
         <v>646</v>
@@ -19641,7 +20059,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7">
       <c r="A675" s="14"/>
       <c r="B675" t="s">
         <v>646</v>
@@ -19653,7 +20071,7 @@
         <v>7169</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7">
       <c r="A676" s="14"/>
       <c r="B676" t="s">
         <v>646</v>
@@ -19665,7 +20083,7 @@
         <v>7172</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7">
       <c r="A677" s="14"/>
       <c r="B677" t="s">
         <v>646</v>
@@ -19677,10 +20095,10 @@
         <v>7165</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7">
       <c r="A678" s="14"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7">
       <c r="A679" s="14"/>
       <c r="B679" t="s">
         <v>30</v>
@@ -19701,7 +20119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7">
       <c r="A680" s="14"/>
       <c r="B680" t="s">
         <v>30</v>
@@ -19716,7 +20134,7 @@
         <v>7116</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7">
       <c r="A681" s="14"/>
       <c r="B681" t="s">
         <v>30</v>
@@ -19731,7 +20149,7 @@
         <v>7119</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7">
       <c r="A682" s="14"/>
       <c r="B682" t="s">
         <v>30</v>
@@ -19746,7 +20164,7 @@
         <v>7130</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7">
       <c r="A683" s="14"/>
       <c r="B683" t="s">
         <v>30</v>
@@ -19761,7 +20179,7 @@
         <v>7132</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7">
       <c r="A684" s="14"/>
       <c r="B684" t="s">
         <v>30</v>
@@ -19776,7 +20194,7 @@
         <v>7133</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7">
       <c r="A685" s="14"/>
       <c r="B685" t="s">
         <v>30</v>
@@ -19791,7 +20209,7 @@
         <v>7134</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7">
       <c r="A686" s="14"/>
       <c r="B686" t="s">
         <v>30</v>
@@ -19806,10 +20224,10 @@
         <v>7135</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7">
       <c r="A687" s="14"/>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7">
       <c r="A688" s="14"/>
       <c r="B688" t="s">
         <v>659</v>
@@ -19830,7 +20248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8">
       <c r="A689" s="14"/>
       <c r="B689" t="s">
         <v>659</v>
@@ -19851,10 +20269,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8">
       <c r="A690" s="14"/>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8">
       <c r="A691" s="14"/>
       <c r="B691" t="s">
         <v>664</v>
@@ -19878,7 +20296,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8">
       <c r="A692" s="14"/>
       <c r="B692" t="s">
         <v>664</v>
@@ -19902,10 +20320,10 @@
         <v>775</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8">
       <c r="A693" s="14"/>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8">
       <c r="A694" s="14"/>
       <c r="B694" t="s">
         <v>669</v>
@@ -19926,16 +20344,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8">
       <c r="A695" s="14"/>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8">
       <c r="A696" s="14"/>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8">
       <c r="A697" s="14"/>
     </row>
-    <row r="702" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:8">
       <c r="A702" s="15"/>
       <c r="C702" s="16"/>
     </row>
@@ -19958,35 +20376,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="19" t="s">
         <v>685</v>
       </c>
@@ -20022,7 +20440,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>797</v>
       </c>
@@ -20063,7 +20481,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>17942</v>
       </c>
@@ -20108,7 +20526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>17955</v>
       </c>
@@ -20153,7 +20571,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>18142</v>
       </c>
@@ -20195,7 +20613,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>18145</v>
       </c>
@@ -20237,7 +20655,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>18148</v>
       </c>
@@ -20279,7 +20697,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>18151</v>
       </c>
@@ -20324,7 +20742,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>18154</v>
       </c>
@@ -20363,7 +20781,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>18851</v>
       </c>
@@ -20402,7 +20820,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>18852</v>
       </c>
@@ -20441,7 +20859,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>18853</v>
       </c>
@@ -20480,7 +20898,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>17956</v>
       </c>
@@ -20516,7 +20934,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>17957</v>
       </c>
@@ -20552,7 +20970,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>17959</v>
       </c>
@@ -20566,7 +20984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>18144</v>
       </c>
@@ -20610,7 +21028,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>18147</v>
       </c>
@@ -20654,7 +21072,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>18150</v>
       </c>
@@ -20698,7 +21116,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>18156</v>
       </c>
@@ -20742,7 +21160,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>17962</v>
       </c>
@@ -20786,7 +21204,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>17963</v>
       </c>
@@ -20830,7 +21248,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>18736</v>
       </c>
@@ -20847,12 +21265,12 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="P25" s="12" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>18143</v>
       </c>
@@ -20890,7 +21308,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>18146</v>
       </c>
@@ -20928,7 +21346,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>18149</v>
       </c>
@@ -20963,7 +21381,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>18152</v>
       </c>
@@ -20998,7 +21416,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>18153</v>
       </c>
@@ -21039,7 +21457,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>18155</v>
       </c>
@@ -21080,7 +21498,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>17970</v>
       </c>
@@ -21118,7 +21536,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>17971</v>
       </c>
@@ -21156,7 +21574,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>17972</v>
       </c>
@@ -21194,7 +21612,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>17973</v>
       </c>
@@ -21232,7 +21650,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>17974</v>
       </c>
@@ -21265,4 +21683,841 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="28">
+      <c r="B2" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="C3" s="20">
+        <v>37</v>
+      </c>
+      <c r="D3" s="21">
+        <v>37</v>
+      </c>
+      <c r="E3" s="21">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>832</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="20">
+        <v>35</v>
+      </c>
+      <c r="D4" s="21">
+        <v>35</v>
+      </c>
+      <c r="E4" s="21">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>832</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="C5" s="20">
+        <v>17</v>
+      </c>
+      <c r="D5" s="21">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>832</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>832</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>832</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="C8" s="20">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21">
+        <v>9</v>
+      </c>
+      <c r="E8" s="21">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>832</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="C9" s="20">
+        <v>74</v>
+      </c>
+      <c r="D9" s="21">
+        <v>74</v>
+      </c>
+      <c r="E9" s="21">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>832</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="C10" s="20">
+        <v>24</v>
+      </c>
+      <c r="D10" s="21">
+        <v>24</v>
+      </c>
+      <c r="E10" s="21">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>832</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="C11" s="20">
+        <v>12</v>
+      </c>
+      <c r="D11" s="21">
+        <v>12</v>
+      </c>
+      <c r="E11" s="21">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>832</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="C12" s="20">
+        <v>14</v>
+      </c>
+      <c r="D12" s="21">
+        <v>14</v>
+      </c>
+      <c r="E12" s="21">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>832</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="C13" s="20">
+        <v>29</v>
+      </c>
+      <c r="D13" s="21">
+        <v>29</v>
+      </c>
+      <c r="E13" s="21">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>832</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>817</v>
+      </c>
+      <c r="C14" s="20">
+        <v>3</v>
+      </c>
+      <c r="D14" s="20">
+        <v>3</v>
+      </c>
+      <c r="E14" s="20">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>832</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>821</v>
+      </c>
+      <c r="C15" s="20">
+        <v>26</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>822</v>
+      </c>
+      <c r="C16" s="20">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>819</v>
+      </c>
+      <c r="C17" s="20">
+        <v>3</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>818</v>
+      </c>
+      <c r="C18" s="20">
+        <v>17</v>
+      </c>
+      <c r="D18" s="20">
+        <v>13</v>
+      </c>
+      <c r="E18" s="20">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>751</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>820</v>
+      </c>
+      <c r="C19" s="20">
+        <v>23</v>
+      </c>
+      <c r="D19" s="20">
+        <v>16</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>751</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>872</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>751</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>825</v>
+      </c>
+      <c r="C21" s="20">
+        <v>7</v>
+      </c>
+      <c r="D21" s="20">
+        <v>7</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>751</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>826</v>
+      </c>
+      <c r="C22" s="20">
+        <v>34</v>
+      </c>
+      <c r="D22" s="20">
+        <v>15</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>751</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>827</v>
+      </c>
+      <c r="C23" s="20">
+        <v>21</v>
+      </c>
+      <c r="D23" s="20">
+        <v>5</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>751</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="C24" s="20">
+        <v>293</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>751</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>823</v>
+      </c>
+      <c r="C25" s="20">
+        <v>124</v>
+      </c>
+      <c r="D25" s="20">
+        <v>105</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>834</v>
+      </c>
+      <c r="H25" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>824</v>
+      </c>
+      <c r="C26" s="20">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>867</v>
+      </c>
+      <c r="C27" s="20">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>868</v>
+      </c>
+      <c r="C28" s="20">
+        <v>177</v>
+      </c>
+      <c r="F28" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>842</v>
+      </c>
+      <c r="C29" s="20">
+        <v>244</v>
+      </c>
+      <c r="F29" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C30" s="20">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>844</v>
+      </c>
+      <c r="C31" s="20">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>845</v>
+      </c>
+      <c r="C32" s="20">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>846</v>
+      </c>
+      <c r="C33" s="20">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>847</v>
+      </c>
+      <c r="C34" s="20">
+        <v>678</v>
+      </c>
+      <c r="F34" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>848</v>
+      </c>
+      <c r="C35" s="20">
+        <v>177</v>
+      </c>
+      <c r="F35" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>849</v>
+      </c>
+      <c r="C36" s="20">
+        <v>678</v>
+      </c>
+      <c r="F36" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>850</v>
+      </c>
+      <c r="C37" s="20">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>851</v>
+      </c>
+      <c r="C38" s="20">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" s="20">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>852</v>
+      </c>
+      <c r="C40" s="20">
+        <v>657</v>
+      </c>
+      <c r="F40" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>853</v>
+      </c>
+      <c r="C41" s="20">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>854</v>
+      </c>
+      <c r="C42" s="20">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>855</v>
+      </c>
+      <c r="C43" s="20">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>856</v>
+      </c>
+      <c r="C44" s="20">
+        <v>125</v>
+      </c>
+      <c r="F44" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>857</v>
+      </c>
+      <c r="C45" s="20">
+        <v>183</v>
+      </c>
+      <c r="F45" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>858</v>
+      </c>
+      <c r="C46" s="20">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>859</v>
+      </c>
+      <c r="C47" s="20">
+        <v>114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
+        <v>860</v>
+      </c>
+      <c r="C48" s="20">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>747</v>
+      </c>
+      <c r="C49" s="20">
+        <v>738</v>
+      </c>
+      <c r="F49" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" t="s">
+        <v>870</v>
+      </c>
+      <c r="C50" s="20">
+        <v>2</v>
+      </c>
+      <c r="D50" s="20">
+        <v>2</v>
+      </c>
+      <c r="E50" s="20">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
+        <v>871</v>
+      </c>
+      <c r="C51" s="20">
+        <v>1</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="C52" s="24">
+        <f>SUM(Table13[Total Cases])</f>
+        <v>5205</v>
+      </c>
+      <c r="D52" s="24">
+        <f>SUM(Table13[Automation Candidates])</f>
+        <v>420</v>
+      </c>
+      <c r="E52" s="24">
+        <f>SUM(Table13[Complete Cases])</f>
+        <v>279</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/automation_tracking.xlsx
+++ b/automation_tracking.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="540" windowWidth="23320" windowHeight="12500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments" sheetId="4" r:id="rId1"/>
     <sheet name="Automation Coverage" sheetId="1" r:id="rId2"/>
     <sheet name="Test Case Detail" sheetId="2" r:id="rId3"/>
     <sheet name="Add New Partner Detail" sheetId="3" r:id="rId4"/>
-    <sheet name="Plan" sheetId="5" r:id="rId5"/>
+    <sheet name="Overview" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="886">
   <si>
     <t>Billing Automation Test Plan</t>
   </si>
@@ -2579,27 +2579,12 @@
     <t>Bugs found in QA durring .36 testing</t>
   </si>
   <si>
-    <t>Total Cases</t>
-  </si>
-  <si>
-    <t>Automation Candidates</t>
-  </si>
-  <si>
-    <t>Complete Cases</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>Leong</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Feature Name</t>
   </si>
   <si>
@@ -2690,12 +2675,6 @@
     <t>User Storage Details</t>
   </si>
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Wait for BUS 2.5 Release</t>
-  </si>
-  <si>
     <t>Client Controller</t>
   </si>
   <si>
@@ -2715,17 +2694,75 @@
   </si>
   <si>
     <t>CongShan</t>
+  </si>
+  <si>
+    <t>Total Test Case #</t>
+  </si>
+  <si>
+    <t>Automation Candidate #</t>
+  </si>
+  <si>
+    <t>Completion %</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Automated Case #</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Feature changed in 2.5</t>
+  </si>
+  <si>
+    <t>Rob clean up cases in progress</t>
+  </si>
+  <si>
+    <t>Automation Owner</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Restrict Client to Limited Partners</t>
+  </si>
+  <si>
+    <t>Neale clean up cases in progress</t>
+  </si>
+  <si>
+    <t>Cleaning up cases</t>
+  </si>
+  <si>
+    <t>Phase I</t>
+  </si>
+  <si>
+    <t>Smoke Test (for production)</t>
+  </si>
+  <si>
+    <t>Phase II</t>
+  </si>
+  <si>
+    <t>Phase III</t>
+  </si>
+  <si>
+    <t>Phase IV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="168" formatCode="00000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2815,8 +2852,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2874,8 +2919,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2898,8 +2949,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2994,8 +3080,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -3017,9 +3127,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3029,12 +3136,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="118">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="6" builtinId="38"/>
@@ -3083,6 +3211,18 @@
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
@@ -3126,70 +3266,282 @@
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right/>
-        <top/>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
-        <top/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -3199,12 +3551,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3237,22 +3583,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:H52" totalsRowCount="1" headerRowDxfId="11">
-  <autoFilter ref="B2:H51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:H59" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="B2:H58"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Feature Name" totalsRowLabel="Total" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Total Cases" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="5">
-      <totalsRowFormula>SUM(Table13[Total Cases])</totalsRowFormula>
+    <tableColumn id="2" name="Total Test Case #" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(Table13[Total Test Case '#])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Automation Candidates" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="4">
-      <totalsRowFormula>SUM(Table13[Automation Candidates])</totalsRowFormula>
+    <tableColumn id="6" name="Automation Candidate #" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(Table13[Automation Candidate '#])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="Complete Cases" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(Table13[Complete Cases])</totalsRowFormula>
+    <tableColumn id="10" name="Automated Case #" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(Table13[Automated Case '#])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Status" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Owner" dataDxfId="10" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Note" totalsRowDxfId="0"/>
+    <tableColumn id="3" name="Completion %" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2">
+      <calculatedColumnFormula>IF(AND(D3=0,D3&lt;&gt;""),100,IF(ISERROR(E3/D3*100),0,ROUNDUP(E3/D3 * 100, 0)))</calculatedColumnFormula>
+      <totalsRowFormula>ROUNDUP(E59/D59 * 100, 0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Automation Owner" dataDxfId="10" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Note" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3547,7 +3896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -4617,7 +4966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5496,7 +5845,7 @@
   <dimension ref="A1:P702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
@@ -20405,19 +20754,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>685</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
       <c r="L2" t="s">
         <v>686</v>
       </c>
@@ -21687,834 +22036,1164 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H52"/>
+  <dimension ref="A2:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="19" customWidth="1"/>
+    <col min="4" max="5" width="11.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28">
+    <row r="2" spans="1:8" ht="28">
       <c r="B2" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="29" t="s">
+        <v>881</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="C3" s="19">
+        <v>37</v>
+      </c>
+      <c r="D3" s="20">
+        <v>37</v>
+      </c>
+      <c r="E3" s="20">
+        <v>37</v>
+      </c>
+      <c r="F3" s="20">
+        <f t="shared" ref="F3:F34" si="0">IF(AND(D3=0,D3&lt;&gt;""),100,IF(ISERROR(E3/D3*100),0,ROUNDUP(E3/D3 * 100, 0)))</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="29"/>
+      <c r="B4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="19">
+        <v>35</v>
+      </c>
+      <c r="D4" s="20">
+        <v>35</v>
+      </c>
+      <c r="E4" s="20">
+        <v>35</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="29"/>
+      <c r="B5" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="C5" s="19">
+        <v>17</v>
+      </c>
+      <c r="D5" s="20">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="29"/>
+      <c r="B6" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="29"/>
+      <c r="B7" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="29"/>
+      <c r="B8" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8" s="19">
+        <v>9</v>
+      </c>
+      <c r="D8" s="20">
+        <v>9</v>
+      </c>
+      <c r="E8" s="20">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="29"/>
+      <c r="B9" s="21" t="s">
         <v>835</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>829</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>830</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>865</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="C3" s="20">
-        <v>37</v>
-      </c>
-      <c r="D3" s="21">
-        <v>37</v>
-      </c>
-      <c r="E3" s="21">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>832</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="C9" s="19">
+        <v>74</v>
+      </c>
+      <c r="D9" s="20">
+        <v>74</v>
+      </c>
+      <c r="E9" s="20">
+        <v>74</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="20">
-        <v>35</v>
-      </c>
-      <c r="D4" s="21">
-        <v>35</v>
-      </c>
-      <c r="E4" s="21">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>832</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="H9" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="29"/>
+      <c r="B10" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="C10" s="19">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20">
+        <v>24</v>
+      </c>
+      <c r="E10" s="20">
+        <v>24</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="C5" s="20">
-        <v>17</v>
-      </c>
-      <c r="D5" s="21">
-        <v>17</v>
-      </c>
-      <c r="E5" s="21">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>832</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="H10" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="29"/>
+      <c r="B11" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="C11" s="19">
+        <v>12</v>
+      </c>
+      <c r="D11" s="20">
+        <v>12</v>
+      </c>
+      <c r="E11" s="20">
+        <v>12</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="22" t="s">
-        <v>837</v>
-      </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>832</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>832</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="22" t="s">
-        <v>839</v>
-      </c>
-      <c r="C8" s="20">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21">
-        <v>9</v>
-      </c>
-      <c r="E8" s="21">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>832</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="22" t="s">
-        <v>840</v>
-      </c>
-      <c r="C9" s="20">
-        <v>74</v>
-      </c>
-      <c r="D9" s="21">
-        <v>74</v>
-      </c>
-      <c r="E9" s="21">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>832</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="22" t="s">
-        <v>861</v>
-      </c>
-      <c r="C10" s="20">
-        <v>24</v>
-      </c>
-      <c r="D10" s="21">
-        <v>24</v>
-      </c>
-      <c r="E10" s="21">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>832</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="C11" s="20">
-        <v>12</v>
-      </c>
-      <c r="D11" s="21">
-        <v>12</v>
-      </c>
-      <c r="E11" s="21">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>832</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="22" t="s">
-        <v>863</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="H11" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="29"/>
+      <c r="B12" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="C12" s="19">
         <v>14</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>14</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
-        <v>832</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="F12" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="22" t="s">
-        <v>864</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="H12" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="29"/>
+      <c r="B13" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="C13" s="19">
         <v>29</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>29</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>832</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="H13" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="29"/>
       <c r="B14" t="s">
         <v>817</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>3</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>3</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>832</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="H14" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="29"/>
       <c r="B15" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>26</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="F15" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="29"/>
       <c r="B16" t="s">
-        <v>822</v>
-      </c>
-      <c r="C16" s="20">
-        <v>20</v>
-      </c>
-      <c r="D16" s="20">
+        <v>819</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19">
         <v>0</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="F16" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="29"/>
       <c r="B17" t="s">
-        <v>819</v>
-      </c>
-      <c r="C17" s="20">
-        <v>3</v>
-      </c>
-      <c r="D17" s="20">
+        <v>863</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="29"/>
+      <c r="B18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19">
         <v>0</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E18" s="19">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" t="s">
+      <c r="F18" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="29"/>
+      <c r="B19" t="s">
         <v>818</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C19" s="19">
         <v>17</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D19" s="19">
         <v>13</v>
       </c>
-      <c r="E18" s="20">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>751</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="E19" s="19">
+        <v>6</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" t="s">
+      <c r="H19" s="27" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="29"/>
+      <c r="B20" t="s">
         <v>820</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C20" s="19">
         <v>23</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D20" s="19">
         <v>16</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E20" s="19">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>751</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" t="s">
-        <v>872</v>
-      </c>
-      <c r="C20" s="20">
+      <c r="F20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="29"/>
+      <c r="B21" t="s">
+        <v>865</v>
+      </c>
+      <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D21" s="19">
         <v>1</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E21" s="19">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>751</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
+      <c r="F21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="29"/>
+      <c r="B22" t="s">
         <v>825</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C22" s="19">
         <v>7</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D22" s="19">
         <v>7</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E22" s="19">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>751</v>
-      </c>
-      <c r="G21" s="20" t="s">
+      <c r="F22" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="29"/>
+      <c r="B23" t="s">
         <v>826</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C23" s="19">
         <v>34</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D23" s="19">
         <v>15</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>751</v>
-      </c>
-      <c r="G22" s="20" t="s">
+      <c r="F23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="29"/>
+      <c r="B24" t="s">
         <v>827</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C24" s="19">
         <v>21</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D24" s="19">
         <v>5</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E24" s="19">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>751</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="22" t="s">
-        <v>841</v>
-      </c>
-      <c r="C24" s="20">
-        <v>293</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>751</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="F24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="29"/>
       <c r="B25" t="s">
         <v>823</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>124</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>105</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>834</v>
-      </c>
-      <c r="H25" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="F25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="29"/>
       <c r="B26" t="s">
         <v>824</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>52</v>
       </c>
-      <c r="F26" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="F26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="29"/>
       <c r="B27" t="s">
-        <v>867</v>
-      </c>
-      <c r="C27" s="20">
+        <v>878</v>
+      </c>
+      <c r="C27" s="19">
+        <v>38</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="29"/>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="19">
+        <v>22</v>
+      </c>
+      <c r="F28" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="29"/>
+      <c r="B29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C29" s="19">
+        <v>20</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="29"/>
+      <c r="B30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C30" s="19">
         <v>81</v>
       </c>
-      <c r="F27" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" t="s">
-        <v>868</v>
-      </c>
-      <c r="C28" s="20">
+      <c r="F30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="29"/>
+      <c r="B31" t="s">
+        <v>861</v>
+      </c>
+      <c r="C31" s="19">
         <v>177</v>
       </c>
-      <c r="F28" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" t="s">
+      <c r="F31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="F32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
+        <v>883</v>
+      </c>
+      <c r="B33" t="s">
+        <v>837</v>
+      </c>
+      <c r="C33" s="19">
+        <v>244</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="30"/>
+      <c r="B34" t="s">
+        <v>838</v>
+      </c>
+      <c r="C34" s="19">
+        <v>18</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="30"/>
+      <c r="B35" t="s">
+        <v>839</v>
+      </c>
+      <c r="C35" s="19">
+        <v>12</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" ref="F35:F66" si="1">IF(AND(D35=0,D35&lt;&gt;""),100,IF(ISERROR(E35/D35*100),0,ROUNDUP(E35/D35 * 100, 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="30"/>
+      <c r="B36" t="s">
+        <v>840</v>
+      </c>
+      <c r="C36" s="19">
+        <v>36</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="30"/>
+      <c r="B37" t="s">
+        <v>841</v>
+      </c>
+      <c r="C37" s="19">
+        <v>14</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="30"/>
+      <c r="B38" s="21" t="s">
+        <v>836</v>
+      </c>
+      <c r="C38" s="19">
+        <v>293</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="30"/>
+      <c r="B39" t="s">
         <v>842</v>
       </c>
-      <c r="C29" s="20">
-        <v>244</v>
-      </c>
-      <c r="F29" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" t="s">
+      <c r="C39" s="19">
+        <v>678</v>
+      </c>
+      <c r="F39" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="30"/>
+      <c r="B40" t="s">
         <v>843</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C40" s="19">
+        <v>177</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="30"/>
+      <c r="B41" t="s">
+        <v>844</v>
+      </c>
+      <c r="C41" s="19">
+        <v>678</v>
+      </c>
+      <c r="F41" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="30"/>
+      <c r="B42" t="s">
+        <v>845</v>
+      </c>
+      <c r="C42" s="19">
+        <v>4</v>
+      </c>
+      <c r="F42" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="30"/>
+      <c r="B43" t="s">
+        <v>846</v>
+      </c>
+      <c r="C43" s="19">
+        <v>27</v>
+      </c>
+      <c r="F43" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="30"/>
+      <c r="B44" t="s">
+        <v>623</v>
+      </c>
+      <c r="C44" s="19">
+        <v>81</v>
+      </c>
+      <c r="F44" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="30"/>
+      <c r="B45" t="s">
+        <v>847</v>
+      </c>
+      <c r="C45" s="19">
+        <v>657</v>
+      </c>
+      <c r="F45" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="30"/>
+      <c r="B46" t="s">
+        <v>882</v>
+      </c>
+      <c r="C46" s="19">
+        <v>12</v>
+      </c>
+      <c r="F46" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="F47" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="B48" t="s">
+        <v>848</v>
+      </c>
+      <c r="C48" s="19">
+        <v>53</v>
+      </c>
+      <c r="F48" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="30"/>
+      <c r="B49" t="s">
+        <v>849</v>
+      </c>
+      <c r="C49" s="19">
+        <v>52</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="30"/>
+      <c r="B50" t="s">
+        <v>850</v>
+      </c>
+      <c r="C50" s="19">
+        <v>7</v>
+      </c>
+      <c r="F50" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="30"/>
+      <c r="B51" t="s">
+        <v>851</v>
+      </c>
+      <c r="C51" s="19">
         <v>125</v>
       </c>
-      <c r="F30" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" t="s">
-        <v>844</v>
-      </c>
-      <c r="C31" s="20">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" t="s">
-        <v>845</v>
-      </c>
-      <c r="C32" s="20">
-        <v>36</v>
-      </c>
-      <c r="F32" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
-        <v>846</v>
-      </c>
-      <c r="C33" s="20">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>847</v>
-      </c>
-      <c r="C34" s="20">
-        <v>678</v>
-      </c>
-      <c r="F34" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" t="s">
-        <v>848</v>
-      </c>
-      <c r="C35" s="20">
-        <v>177</v>
-      </c>
-      <c r="F35" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
-        <v>849</v>
-      </c>
-      <c r="C36" s="20">
-        <v>678</v>
-      </c>
-      <c r="F36" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
-        <v>850</v>
-      </c>
-      <c r="C37" s="20">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" t="s">
-        <v>851</v>
-      </c>
-      <c r="C38" s="20">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>623</v>
-      </c>
-      <c r="C39" s="20">
-        <v>81</v>
-      </c>
-      <c r="F39" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
+      <c r="F51" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="30"/>
+      <c r="B52" t="s">
         <v>852</v>
       </c>
-      <c r="C40" s="20">
-        <v>657</v>
-      </c>
-      <c r="F40" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" t="s">
+      <c r="C52" s="19">
+        <v>183</v>
+      </c>
+      <c r="F52" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="30"/>
+      <c r="B53" t="s">
         <v>853</v>
       </c>
-      <c r="C41" s="20">
-        <v>53</v>
-      </c>
-      <c r="F41" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" t="s">
+      <c r="C53" s="19">
+        <v>34</v>
+      </c>
+      <c r="F53" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="30"/>
+      <c r="B54" t="s">
         <v>854</v>
       </c>
-      <c r="C42" s="20">
-        <v>52</v>
-      </c>
-      <c r="F42" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" t="s">
+      <c r="C54" s="19">
+        <v>114</v>
+      </c>
+      <c r="F54" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="30"/>
+      <c r="B55" t="s">
         <v>855</v>
       </c>
-      <c r="C43" s="20">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" t="s">
-        <v>856</v>
-      </c>
-      <c r="C44" s="20">
-        <v>125</v>
-      </c>
-      <c r="F44" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" t="s">
-        <v>857</v>
-      </c>
-      <c r="C45" s="20">
-        <v>183</v>
-      </c>
-      <c r="F45" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" t="s">
-        <v>858</v>
-      </c>
-      <c r="C46" s="20">
-        <v>34</v>
-      </c>
-      <c r="F46" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" t="s">
-        <v>859</v>
-      </c>
-      <c r="C47" s="20">
-        <v>114</v>
-      </c>
-      <c r="F47" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" t="s">
-        <v>860</v>
-      </c>
-      <c r="C48" s="20">
+      <c r="C55" s="19">
         <v>28</v>
       </c>
-      <c r="F48" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" t="s">
+      <c r="F55" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="30"/>
+      <c r="B56" t="s">
         <v>747</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C56" s="19">
         <v>738</v>
       </c>
-      <c r="F49" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" t="s">
-        <v>870</v>
-      </c>
-      <c r="C50" s="20">
-        <v>2</v>
-      </c>
-      <c r="D50" s="20">
-        <v>2</v>
-      </c>
-      <c r="E50" s="20">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" t="s">
-        <v>871</v>
-      </c>
-      <c r="C51" s="20">
-        <v>1</v>
-      </c>
-      <c r="D51" s="20">
+      <c r="F56" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E51" s="20">
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="19"/>
+      <c r="F57" s="26">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F51" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="23" t="s">
-        <v>869</v>
-      </c>
-      <c r="C52" s="24">
-        <f>SUM(Table13[Total Cases])</f>
-        <v>5205</v>
-      </c>
-      <c r="D52" s="24">
-        <f>SUM(Table13[Automation Candidates])</f>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1">
+      <c r="A58" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="C58" s="19">
+        <v>1929</v>
+      </c>
+      <c r="F58" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickTop="1">
+      <c r="B59" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="C59" s="23">
+        <f>SUM(Table13[Total Test Case '#])</f>
+        <v>7099</v>
+      </c>
+      <c r="D59" s="23">
+        <f>SUM(Table13[Automation Candidate '#])</f>
         <v>420</v>
       </c>
-      <c r="E52" s="24">
-        <f>SUM(Table13[Complete Cases])</f>
-        <v>279</v>
-      </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="23"/>
+      <c r="E59" s="23">
+        <f>SUM(Table13[Automated Case '#])</f>
+        <v>265</v>
+      </c>
+      <c r="F59" s="24">
+        <f>ROUNDUP(E59/D59 * 100, 0)</f>
+        <v>64</v>
+      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="A48:A56"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F58">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D5103404-440E-8D44-9101-0B9FCCB94B01}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F58">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F58">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{075DC176-F228-8345-995E-BE9BC87D8BCF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D5103404-440E-8D44-9101-0B9FCCB94B01}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{075DC176-F228-8345-995E-BE9BC87D8BCF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F58</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>

--- a/automation_tracking.xlsx
+++ b/automation_tracking.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="894">
   <si>
     <t>Billing Automation Test Plan</t>
   </si>
@@ -2738,19 +2738,43 @@
     <t>Cleaning up cases</t>
   </si>
   <si>
-    <t>Phase I</t>
-  </si>
-  <si>
     <t>Smoke Test (for production)</t>
   </si>
   <si>
-    <t>Phase II</t>
-  </si>
-  <si>
-    <t>Phase III</t>
-  </si>
-  <si>
-    <t>Phase IV</t>
+    <t>Cleanup Owner</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Neale</t>
+  </si>
+  <si>
+    <t>Rob and Neale</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
   </si>
 </sst>
 </file>
@@ -2760,7 +2784,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="168" formatCode="00000"/>
+    <numFmt numFmtId="166" formatCode="00000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -2861,7 +2885,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2925,8 +2949,32 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2984,8 +3032,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="118">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3104,8 +3163,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -3143,9 +3218,6 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3155,14 +3227,36 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="118">
+  <cellStyles count="134">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="6" builtinId="38"/>
@@ -3223,6 +3317,14 @@
     <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
@@ -3278,11 +3380,19 @@
     <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
       <font>
         <b/>
@@ -3340,6 +3450,42 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
@@ -3531,10 +3677,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3544,6 +3686,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -3551,6 +3697,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3583,23 +3732,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:H59" totalsRowCount="1" headerRowDxfId="8">
-  <autoFilter ref="B2:H58"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Feature Name" totalsRowLabel="Total" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Total Test Case #" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:I59" totalsRowCount="1" headerRowDxfId="15">
+  <autoFilter ref="B2:I58"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Feature Name" totalsRowLabel="Total" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Total Test Case #" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="6">
       <totalsRowFormula>SUM(Table13[Total Test Case '#])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Automation Candidate #" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
+    <tableColumn id="6" name="Automation Candidate #" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
       <totalsRowFormula>SUM(Table13[Automation Candidate '#])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="Automated Case #" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
+    <tableColumn id="10" name="Automated Case #" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table13[Automated Case '#])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Completion %" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2">
+    <tableColumn id="3" name="Completion %" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(AND(D3=0,D3&lt;&gt;""),100,IF(ISERROR(E3/D3*100),0,ROUNDUP(E3/D3 * 100, 0)))</calculatedColumnFormula>
       <totalsRowFormula>ROUNDUP(E59/D59 * 100, 0)</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="4" name="Cleanup Owner" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="7" name="Automation Owner" dataDxfId="10" totalsRowDxfId="1"/>
     <tableColumn id="11" name="Note" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
@@ -20754,19 +20904,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>685</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
       <c r="L2" t="s">
         <v>686</v>
       </c>
@@ -22036,25 +22186,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H59"/>
+  <dimension ref="A2:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="19" customWidth="1"/>
     <col min="4" max="5" width="11.1640625" style="19" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:9" ht="29" thickBot="1">
+      <c r="A2" s="30" t="s">
+        <v>889</v>
+      </c>
       <c r="B2" s="20" t="s">
         <v>830</v>
       </c>
@@ -22071,15 +22226,18 @@
         <v>869</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>876</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="29" t="s">
-        <v>881</v>
+    <row r="3" spans="1:9" ht="15" thickTop="1">
+      <c r="A3" s="32" t="s">
+        <v>890</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>831</v>
@@ -22094,18 +22252,21 @@
         <v>37</v>
       </c>
       <c r="F3" s="20">
-        <f t="shared" ref="F3:F34" si="0">IF(AND(D3=0,D3&lt;&gt;""),100,IF(ISERROR(E3/D3*100),0,ROUNDUP(E3/D3 * 100, 0)))</f>
+        <f t="shared" ref="F3:F28" si="0">IF(AND(D3=0,D3&lt;&gt;""),100,IF(ISERROR(E3/D3*100),0,ROUNDUP(E3/D3 * 100, 0)))</f>
         <v>100</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="32"/>
       <c r="B4" s="21" t="s">
         <v>16</v>
       </c>
@@ -22122,15 +22283,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="32"/>
       <c r="B5" s="21" t="s">
         <v>687</v>
       </c>
@@ -22147,15 +22311,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="32"/>
       <c r="B6" s="21" t="s">
         <v>832</v>
       </c>
@@ -22172,15 +22339,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="32"/>
       <c r="B7" s="21" t="s">
         <v>833</v>
       </c>
@@ -22197,15 +22367,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="32"/>
       <c r="B8" s="21" t="s">
         <v>834</v>
       </c>
@@ -22222,15 +22395,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="32"/>
       <c r="B9" s="21" t="s">
         <v>835</v>
       </c>
@@ -22247,15 +22423,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="32"/>
       <c r="B10" s="21" t="s">
         <v>856</v>
       </c>
@@ -22272,15 +22451,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="I10" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="32"/>
       <c r="B11" s="21" t="s">
         <v>857</v>
       </c>
@@ -22297,15 +22479,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="32"/>
       <c r="B12" s="21" t="s">
         <v>858</v>
       </c>
@@ -22322,15 +22507,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="32"/>
       <c r="B13" s="21" t="s">
         <v>859</v>
       </c>
@@ -22347,15 +22535,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="32"/>
       <c r="B14" t="s">
         <v>817</v>
       </c>
@@ -22372,15 +22563,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="29"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="32"/>
       <c r="B15" t="s">
         <v>821</v>
       </c>
@@ -22397,15 +22591,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="20" t="s">
         <v>870</v>
       </c>
       <c r="H15" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="29"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="32"/>
       <c r="B16" t="s">
         <v>819</v>
       </c>
@@ -22422,15 +22619,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="20" t="s">
         <v>870</v>
       </c>
       <c r="H16" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="29"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="32"/>
       <c r="B17" t="s">
         <v>863</v>
       </c>
@@ -22447,15 +22647,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="I17" s="26" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="32"/>
       <c r="B18" t="s">
         <v>864</v>
       </c>
@@ -22472,15 +22675,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="20" t="s">
         <v>870</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="29"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32"/>
       <c r="B19" t="s">
         <v>818</v>
       </c>
@@ -22497,15 +22703,18 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:9">
+      <c r="A20" s="32"/>
       <c r="B20" t="s">
         <v>820</v>
       </c>
@@ -22522,15 +22731,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="20" t="s">
         <v>829</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="32"/>
       <c r="B21" t="s">
         <v>865</v>
       </c>
@@ -22547,15 +22759,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>829</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="32"/>
       <c r="B22" t="s">
         <v>825</v>
       </c>
@@ -22572,15 +22787,18 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>866</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="32"/>
       <c r="B23" t="s">
         <v>826</v>
       </c>
@@ -22597,15 +22815,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>866</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="29"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="32"/>
       <c r="B24" t="s">
         <v>827</v>
       </c>
@@ -22622,15 +22843,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>829</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="I24" s="26" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="29"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="32"/>
       <c r="B25" t="s">
         <v>823</v>
       </c>
@@ -22647,313 +22871,405 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="G25" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="I25" s="26" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="29"/>
-      <c r="B26" t="s">
-        <v>824</v>
-      </c>
-      <c r="C26" s="19">
-        <v>52</v>
-      </c>
-      <c r="F26" s="20">
+    <row r="26" spans="1:9">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="27" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="29"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="31" t="s">
+        <v>891</v>
+      </c>
       <c r="B27" t="s">
-        <v>878</v>
+        <v>837</v>
       </c>
       <c r="C27" s="19">
-        <v>38</v>
-      </c>
-      <c r="F27" s="26">
+        <v>244</v>
+      </c>
+      <c r="F27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="27" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="29"/>
+      <c r="G27" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="31"/>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>838</v>
       </c>
       <c r="C28" s="19">
-        <v>22</v>
-      </c>
-      <c r="F28" s="26">
+        <v>18</v>
+      </c>
+      <c r="F28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="27" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="29"/>
+      <c r="G28" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="31"/>
       <c r="B29" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="C29" s="19">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F29" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(AND(D29=0,D29&lt;&gt;""),100,IF(ISERROR(E29/D29*100),0,ROUNDUP(E29/D29 * 100, 0)))</f>
         <v>0</v>
       </c>
+      <c r="G29" s="20" t="s">
+        <v>829</v>
+      </c>
       <c r="H29" s="19" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="29"/>
-      <c r="B30" t="s">
-        <v>860</v>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="31"/>
+      <c r="B30" s="21" t="s">
+        <v>836</v>
       </c>
       <c r="C30" s="19">
-        <v>81</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(AND(D30=0,D30&lt;&gt;""),100,IF(ISERROR(E30/D30*100),0,ROUNDUP(E30/D30 * 100, 0)))</f>
         <v>0</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="29"/>
+      <c r="G30" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="31"/>
       <c r="B31" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="C31" s="19">
         <v>177</v>
       </c>
       <c r="F31" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(AND(D31=0,D31&lt;&gt;""),100,IF(ISERROR(E31/D31*100),0,ROUNDUP(E31/D31 * 100, 0)))</f>
         <v>0</v>
       </c>
-      <c r="H31" s="27" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="F32" s="26">
-        <f t="shared" si="0"/>
+      <c r="G31" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="31"/>
+      <c r="B32" t="s">
+        <v>839</v>
+      </c>
+      <c r="C32" s="19">
+        <v>12</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" ref="F32:F58" si="1">IF(AND(D32=0,D32&lt;&gt;""),100,IF(ISERROR(E32/D32*100),0,ROUNDUP(E32/D32 * 100, 0)))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="30" t="s">
-        <v>883</v>
-      </c>
+      <c r="G32" s="20" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="31"/>
       <c r="B33" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C33" s="19">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="F33" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="30"/>
+      <c r="G33" s="20" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28">
+      <c r="A34" s="31"/>
       <c r="B34" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C34" s="19">
-        <v>18</v>
+        <v>678</v>
       </c>
       <c r="F34" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="30"/>
+      <c r="G34" s="20" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28">
+      <c r="A35" s="31"/>
       <c r="B35" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="C35" s="19">
-        <v>12</v>
+        <v>678</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" ref="F35:F66" si="1">IF(AND(D35=0,D35&lt;&gt;""),100,IF(ISERROR(E35/D35*100),0,ROUNDUP(E35/D35 * 100, 0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="30"/>
+      <c r="G35" s="20" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="31"/>
       <c r="B36" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C36" s="19">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F36" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="30"/>
+      <c r="G36" s="20" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="31"/>
       <c r="B37" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="C37" s="19">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F37" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="30"/>
-      <c r="B38" s="21" t="s">
-        <v>836</v>
+      <c r="G37" s="20" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="31"/>
+      <c r="B38" t="s">
+        <v>623</v>
       </c>
       <c r="C38" s="19">
-        <v>293</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+        <v>81</v>
+      </c>
       <c r="F38" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>794</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="30"/>
+      <c r="G38" s="20" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28">
+      <c r="A39" s="31"/>
       <c r="B39" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="C39" s="19">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="F39" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="30"/>
+      <c r="G39" s="20" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="31"/>
       <c r="B40" t="s">
-        <v>843</v>
+        <v>881</v>
       </c>
       <c r="C40" s="19">
-        <v>177</v>
-      </c>
-      <c r="F40" s="20">
+        <v>12</v>
+      </c>
+      <c r="F40" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="30"/>
+      <c r="G40" s="25" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="31"/>
       <c r="B41" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="C41" s="19">
-        <v>678</v>
+        <v>52</v>
       </c>
       <c r="F41" s="20">
+        <f>IF(AND(D41=0,D41&lt;&gt;""),100,IF(ISERROR(E41/D41*100),0,ROUNDUP(E41/D41 * 100, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="31"/>
+      <c r="B42" t="s">
+        <v>878</v>
+      </c>
+      <c r="C42" s="19">
+        <v>38</v>
+      </c>
+      <c r="F42" s="25">
+        <f>IF(AND(D42=0,D42&lt;&gt;""),100,IF(ISERROR(E42/D42*100),0,ROUNDUP(E42/D42 * 100, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="31"/>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="19">
+        <v>22</v>
+      </c>
+      <c r="F43" s="25">
+        <f>IF(AND(D43=0,D43&lt;&gt;""),100,IF(ISERROR(E43/D43*100),0,ROUNDUP(E43/D43 * 100, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="31"/>
+      <c r="B44" t="s">
+        <v>822</v>
+      </c>
+      <c r="C44" s="19">
+        <v>20</v>
+      </c>
+      <c r="F44" s="20">
+        <f>IF(AND(D44=0,D44&lt;&gt;""),100,IF(ISERROR(E44/D44*100),0,ROUNDUP(E44/D44 * 100, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="31"/>
+      <c r="B45" t="s">
+        <v>860</v>
+      </c>
+      <c r="C45" s="19">
+        <v>81</v>
+      </c>
+      <c r="F45" s="20">
+        <f>IF(AND(D45=0,D45&lt;&gt;""),100,IF(ISERROR(E45/D45*100),0,ROUNDUP(E45/D45 * 100, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="31"/>
+      <c r="B46" t="s">
+        <v>861</v>
+      </c>
+      <c r="C46" s="19">
+        <v>177</v>
+      </c>
+      <c r="F46" s="20">
+        <f>IF(AND(D46=0,D46&lt;&gt;""),100,IF(ISERROR(E46/D46*100),0,ROUNDUP(E46/D46 * 100, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="30"/>
-      <c r="B42" t="s">
-        <v>845</v>
-      </c>
-      <c r="C42" s="19">
-        <v>4</v>
-      </c>
-      <c r="F42" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="30"/>
-      <c r="B43" t="s">
-        <v>846</v>
-      </c>
-      <c r="C43" s="19">
-        <v>27</v>
-      </c>
-      <c r="F43" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="30"/>
-      <c r="B44" t="s">
-        <v>623</v>
-      </c>
-      <c r="C44" s="19">
-        <v>81</v>
-      </c>
-      <c r="F44" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="30"/>
-      <c r="B45" t="s">
-        <v>847</v>
-      </c>
-      <c r="C45" s="19">
-        <v>657</v>
-      </c>
-      <c r="F45" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="30"/>
-      <c r="B46" t="s">
-        <v>882</v>
-      </c>
-      <c r="C46" s="19">
-        <v>12</v>
-      </c>
-      <c r="F46" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="F47" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="30" t="s">
-        <v>884</v>
+      <c r="G47" s="36"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="37"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="33" t="s">
+        <v>892</v>
       </c>
       <c r="B48" t="s">
         <v>848</v>
@@ -22965,9 +23281,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="30"/>
+      <c r="G48" s="20" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="33"/>
       <c r="B49" t="s">
         <v>849</v>
       </c>
@@ -22978,9 +23297,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="30"/>
+      <c r="G49" s="20" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="33"/>
       <c r="B50" t="s">
         <v>850</v>
       </c>
@@ -22991,9 +23313,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="30"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="33"/>
       <c r="B51" t="s">
         <v>851</v>
       </c>
@@ -23004,9 +23327,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="30"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="33"/>
       <c r="B52" t="s">
         <v>852</v>
       </c>
@@ -23017,9 +23341,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="30"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="33"/>
       <c r="B53" t="s">
         <v>853</v>
       </c>
@@ -23030,9 +23355,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="30"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="33"/>
       <c r="B54" t="s">
         <v>854</v>
       </c>
@@ -23043,9 +23369,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="30"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="33"/>
       <c r="B55" t="s">
         <v>855</v>
       </c>
@@ -23056,9 +23383,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="30"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="33"/>
       <c r="B56" t="s">
         <v>747</v>
       </c>
@@ -23069,27 +23397,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="19"/>
-      <c r="F57" s="26">
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1">
+      <c r="G57" s="36"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="37"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1">
       <c r="A58" s="19" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C58" s="19">
         <v>1929</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" thickTop="1">
+      <c r="G58" s="25"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickTop="1">
       <c r="B59" s="22" t="s">
         <v>862</v>
       </c>
@@ -23109,16 +23446,17 @@
         <f>ROUNDUP(E59/D59 * 100, 0)</f>
         <v>64</v>
       </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="28"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="A33:A46"/>
     <mergeCell ref="A48:A56"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="A27:A46"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F58">
+  <conditionalFormatting sqref="F3:G58">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -23132,7 +23470,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F58">
+  <conditionalFormatting sqref="F3:G58">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -23144,7 +23482,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F58">
+  <conditionalFormatting sqref="F3:G58">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -23177,7 +23515,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F3:F58</xm:sqref>
+          <xm:sqref>F3:G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{075DC176-F228-8345-995E-BE9BC87D8BCF}">
@@ -23190,7 +23528,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F3:F58</xm:sqref>
+          <xm:sqref>F3:G58</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/automation_tracking.xlsx
+++ b/automation_tracking.xlsx
@@ -3230,20 +3230,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3254,6 +3242,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="134">
@@ -3677,13 +3677,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3749,9 +3749,9 @@
       <calculatedColumnFormula>IF(AND(D3=0,D3&lt;&gt;""),100,IF(ISERROR(E3/D3*100),0,ROUNDUP(E3/D3 * 100, 0)))</calculatedColumnFormula>
       <totalsRowFormula>ROUNDUP(E59/D59 * 100, 0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Cleanup Owner" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Automation Owner" dataDxfId="10" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Note" dataDxfId="9" totalsRowDxfId="0"/>
+    <tableColumn id="4" name="Cleanup Owner" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Automation Owner" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Note" dataDxfId="8" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20904,19 +20904,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>685</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="L2" t="s">
         <v>686</v>
       </c>
@@ -22188,8 +22188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22207,7 +22207,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="29" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>889</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -22236,7 +22236,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickTop="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="36" t="s">
         <v>890</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -22266,7 +22266,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="32"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="21" t="s">
         <v>16</v>
       </c>
@@ -22294,7 +22294,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="32"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="21" t="s">
         <v>687</v>
       </c>
@@ -22322,7 +22322,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="32"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="21" t="s">
         <v>832</v>
       </c>
@@ -22350,7 +22350,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="32"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="21" t="s">
         <v>833</v>
       </c>
@@ -22378,7 +22378,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="32"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="21" t="s">
         <v>834</v>
       </c>
@@ -22406,7 +22406,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="32"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="21" t="s">
         <v>835</v>
       </c>
@@ -22434,7 +22434,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="32"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="21" t="s">
         <v>856</v>
       </c>
@@ -22462,7 +22462,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="32"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="21" t="s">
         <v>857</v>
       </c>
@@ -22490,7 +22490,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="32"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="21" t="s">
         <v>858</v>
       </c>
@@ -22518,7 +22518,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="32"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="21" t="s">
         <v>859</v>
       </c>
@@ -22546,7 +22546,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="32"/>
+      <c r="A14" s="36"/>
       <c r="B14" t="s">
         <v>817</v>
       </c>
@@ -22574,7 +22574,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="32"/>
+      <c r="A15" s="36"/>
       <c r="B15" t="s">
         <v>821</v>
       </c>
@@ -22602,7 +22602,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="32"/>
+      <c r="A16" s="36"/>
       <c r="B16" t="s">
         <v>819</v>
       </c>
@@ -22630,7 +22630,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="32"/>
+      <c r="A17" s="36"/>
       <c r="B17" t="s">
         <v>863</v>
       </c>
@@ -22658,7 +22658,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="32"/>
+      <c r="A18" s="36"/>
       <c r="B18" t="s">
         <v>864</v>
       </c>
@@ -22686,7 +22686,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="32"/>
+      <c r="A19" s="36"/>
       <c r="B19" t="s">
         <v>818</v>
       </c>
@@ -22694,14 +22694,14 @@
         <v>17</v>
       </c>
       <c r="D19" s="19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F19" s="20">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>883</v>
@@ -22710,11 +22710,11 @@
         <v>794</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="32"/>
+      <c r="A20" s="36"/>
       <c r="B20" t="s">
         <v>820</v>
       </c>
@@ -22725,11 +22725,11 @@
         <v>16</v>
       </c>
       <c r="E20" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>829</v>
@@ -22742,7 +22742,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="32"/>
+      <c r="A21" s="36"/>
       <c r="B21" t="s">
         <v>865</v>
       </c>
@@ -22770,7 +22770,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="32"/>
+      <c r="A22" s="36"/>
       <c r="B22" t="s">
         <v>825</v>
       </c>
@@ -22798,7 +22798,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="32"/>
+      <c r="A23" s="36"/>
       <c r="B23" t="s">
         <v>826</v>
       </c>
@@ -22809,11 +22809,11 @@
         <v>15</v>
       </c>
       <c r="E23" s="19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>883</v>
@@ -22822,11 +22822,11 @@
         <v>866</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="32"/>
+      <c r="A24" s="36"/>
       <c r="B24" t="s">
         <v>827</v>
       </c>
@@ -22854,7 +22854,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="32"/>
+      <c r="A25" s="36"/>
       <c r="B25" t="s">
         <v>823</v>
       </c>
@@ -22882,20 +22882,20 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36">
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="37"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="37" t="s">
         <v>891</v>
       </c>
       <c r="B27" t="s">
@@ -22916,7 +22916,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="31"/>
+      <c r="A28" s="37"/>
       <c r="B28" t="s">
         <v>838</v>
       </c>
@@ -22935,7 +22935,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="31"/>
+      <c r="A29" s="37"/>
       <c r="B29" t="s">
         <v>840</v>
       </c>
@@ -22954,14 +22954,16 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="31"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="21" t="s">
         <v>836</v>
       </c>
       <c r="C30" s="19">
         <v>293</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="20">
+        <v>104</v>
+      </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20">
         <f>IF(AND(D30=0,D30&lt;&gt;""),100,IF(ISERROR(E30/D30*100),0,ROUNDUP(E30/D30 * 100, 0)))</f>
@@ -22978,7 +22980,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="31"/>
+      <c r="A31" s="37"/>
       <c r="B31" t="s">
         <v>843</v>
       </c>
@@ -22997,7 +22999,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="31"/>
+      <c r="A32" s="37"/>
       <c r="B32" t="s">
         <v>839</v>
       </c>
@@ -23013,7 +23015,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="31"/>
+      <c r="A33" s="37"/>
       <c r="B33" t="s">
         <v>841</v>
       </c>
@@ -23029,7 +23031,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="28">
-      <c r="A34" s="31"/>
+      <c r="A34" s="37"/>
       <c r="B34" t="s">
         <v>842</v>
       </c>
@@ -23045,7 +23047,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="28">
-      <c r="A35" s="31"/>
+      <c r="A35" s="37"/>
       <c r="B35" t="s">
         <v>844</v>
       </c>
@@ -23061,7 +23063,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="31"/>
+      <c r="A36" s="37"/>
       <c r="B36" t="s">
         <v>845</v>
       </c>
@@ -23077,7 +23079,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="31"/>
+      <c r="A37" s="37"/>
       <c r="B37" t="s">
         <v>846</v>
       </c>
@@ -23093,7 +23095,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="31"/>
+      <c r="A38" s="37"/>
       <c r="B38" t="s">
         <v>623</v>
       </c>
@@ -23109,7 +23111,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="28">
-      <c r="A39" s="31"/>
+      <c r="A39" s="37"/>
       <c r="B39" t="s">
         <v>847</v>
       </c>
@@ -23125,7 +23127,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="31"/>
+      <c r="A40" s="37"/>
       <c r="B40" t="s">
         <v>881</v>
       </c>
@@ -23141,7 +23143,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="31"/>
+      <c r="A41" s="37"/>
       <c r="B41" t="s">
         <v>824</v>
       </c>
@@ -23149,7 +23151,7 @@
         <v>52</v>
       </c>
       <c r="F41" s="20">
-        <f>IF(AND(D41=0,D41&lt;&gt;""),100,IF(ISERROR(E41/D41*100),0,ROUNDUP(E41/D41 * 100, 0)))</f>
+        <f t="shared" ref="F41:F46" si="2">IF(AND(D41=0,D41&lt;&gt;""),100,IF(ISERROR(E41/D41*100),0,ROUNDUP(E41/D41 * 100, 0)))</f>
         <v>0</v>
       </c>
       <c r="G41" s="20" t="s">
@@ -23160,7 +23162,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="31"/>
+      <c r="A42" s="37"/>
       <c r="B42" t="s">
         <v>878</v>
       </c>
@@ -23168,7 +23170,7 @@
         <v>38</v>
       </c>
       <c r="F42" s="25">
-        <f>IF(AND(D42=0,D42&lt;&gt;""),100,IF(ISERROR(E42/D42*100),0,ROUNDUP(E42/D42 * 100, 0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="25" t="s">
@@ -23179,7 +23181,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="31"/>
+      <c r="A43" s="37"/>
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -23187,7 +23189,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="25">
-        <f>IF(AND(D43=0,D43&lt;&gt;""),100,IF(ISERROR(E43/D43*100),0,ROUNDUP(E43/D43 * 100, 0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="25" t="s">
@@ -23198,7 +23200,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="31"/>
+      <c r="A44" s="37"/>
       <c r="B44" t="s">
         <v>822</v>
       </c>
@@ -23206,7 +23208,7 @@
         <v>20</v>
       </c>
       <c r="F44" s="20">
-        <f>IF(AND(D44=0,D44&lt;&gt;""),100,IF(ISERROR(E44/D44*100),0,ROUNDUP(E44/D44 * 100, 0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="20" t="s">
@@ -23217,7 +23219,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="31"/>
+      <c r="A45" s="37"/>
       <c r="B45" t="s">
         <v>860</v>
       </c>
@@ -23225,7 +23227,7 @@
         <v>81</v>
       </c>
       <c r="F45" s="20">
-        <f>IF(AND(D45=0,D45&lt;&gt;""),100,IF(ISERROR(E45/D45*100),0,ROUNDUP(E45/D45 * 100, 0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="20" t="s">
@@ -23236,7 +23238,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="31"/>
+      <c r="A46" s="37"/>
       <c r="B46" t="s">
         <v>861</v>
       </c>
@@ -23244,7 +23246,7 @@
         <v>177</v>
       </c>
       <c r="F46" s="20">
-        <f>IF(AND(D46=0,D46&lt;&gt;""),100,IF(ISERROR(E46/D46*100),0,ROUNDUP(E46/D46 * 100, 0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G46" s="20" t="s">
@@ -23255,20 +23257,20 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36">
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="37"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="33"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="35" t="s">
         <v>892</v>
       </c>
       <c r="B48" t="s">
@@ -23286,7 +23288,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="33"/>
+      <c r="A49" s="35"/>
       <c r="B49" t="s">
         <v>849</v>
       </c>
@@ -23302,7 +23304,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="33"/>
+      <c r="A50" s="35"/>
       <c r="B50" t="s">
         <v>850</v>
       </c>
@@ -23316,7 +23318,7 @@
       <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="33"/>
+      <c r="A51" s="35"/>
       <c r="B51" t="s">
         <v>851</v>
       </c>
@@ -23330,7 +23332,7 @@
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="33"/>
+      <c r="A52" s="35"/>
       <c r="B52" t="s">
         <v>852</v>
       </c>
@@ -23344,7 +23346,7 @@
       <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="33"/>
+      <c r="A53" s="35"/>
       <c r="B53" t="s">
         <v>853</v>
       </c>
@@ -23358,7 +23360,7 @@
       <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="33"/>
+      <c r="A54" s="35"/>
       <c r="B54" t="s">
         <v>854</v>
       </c>
@@ -23372,7 +23374,7 @@
       <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="33"/>
+      <c r="A55" s="35"/>
       <c r="B55" t="s">
         <v>855</v>
       </c>
@@ -23386,7 +23388,7 @@
       <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="33"/>
+      <c r="A56" s="35"/>
       <c r="B56" t="s">
         <v>747</v>
       </c>
@@ -23401,17 +23403,17 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="19"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36">
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G57" s="36"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="37"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="33"/>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1">
       <c r="A58" s="19" t="s">
@@ -23436,15 +23438,15 @@
       </c>
       <c r="D59" s="23">
         <f>SUM(Table13[Automation Candidate '#])</f>
-        <v>420</v>
+        <v>526</v>
       </c>
       <c r="E59" s="23">
         <f>SUM(Table13[Automated Case '#])</f>
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="F59" s="24">
         <f>ROUNDUP(E59/D59 * 100, 0)</f>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G59" s="24"/>
       <c r="H59" s="23"/>

--- a/automation_tracking.xlsx
+++ b/automation_tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" activeTab="4"/>
+    <workbookView xWindow="29040" yWindow="-1680" windowWidth="28800" windowHeight="16620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments" sheetId="4" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4248" uniqueCount="897">
   <si>
     <t>Billing Automation Test Plan</t>
   </si>
@@ -2735,9 +2735,6 @@
     <t>Neale clean up cases in progress</t>
   </si>
   <si>
-    <t>Cleaning up cases</t>
-  </si>
-  <si>
     <t>Smoke Test (for production)</t>
   </si>
   <si>
@@ -2775,6 +2772,18 @@
   </si>
   <si>
     <t>IV</t>
+  </si>
+  <si>
+    <t>Clean up Target Date 3/29/2013</t>
+  </si>
+  <si>
+    <t>Clean up Target Date 3/15/2013</t>
+  </si>
+  <si>
+    <t>Clean up Target Date 3/22/2013</t>
+  </si>
+  <si>
+    <t>Clean up Target Date 4/5/2013</t>
   </si>
 </sst>
 </file>
@@ -22189,7 +22198,7 @@
   <dimension ref="A2:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22201,14 +22210,14 @@
     <col min="6" max="6" width="15.83203125" style="19" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="28" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="29" thickBot="1">
       <c r="A2" s="29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>830</v>
@@ -22226,7 +22235,7 @@
         <v>869</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>876</v>
@@ -22237,7 +22246,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" thickTop="1">
       <c r="A3" s="36" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>831</v>
@@ -22704,7 +22713,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>794</v>
@@ -22760,7 +22769,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>829</v>
@@ -22788,7 +22797,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>866</v>
@@ -22816,7 +22825,7 @@
         <v>100</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>866</v>
@@ -22844,7 +22853,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>829</v>
@@ -22896,7 +22905,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="37" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B27" t="s">
         <v>837</v>
@@ -22909,10 +22918,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>829</v>
+        <v>794</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>829</v>
+        <v>794</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -22933,6 +22945,9 @@
       <c r="H28" s="19" t="s">
         <v>829</v>
       </c>
+      <c r="I28" s="26" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="37"/>
@@ -22947,10 +22962,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>829</v>
+        <v>866</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -22964,10 +22982,12 @@
       <c r="D30" s="20">
         <v>104</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="20">
+        <v>24</v>
+      </c>
       <c r="F30" s="20">
         <f>IF(AND(D30=0,D30&lt;&gt;""),100,IF(ISERROR(E30/D30*100),0,ROUNDUP(E30/D30 * 100, 0)))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>794</v>
@@ -22976,7 +22996,7 @@
         <v>794</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -22992,10 +23012,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>829</v>
+        <v>866</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -23011,7 +23034,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -23027,7 +23050,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="28">
@@ -23043,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28">
@@ -23059,7 +23082,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -23075,7 +23098,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -23123,13 +23146,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="37"/>
       <c r="B40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C40" s="19">
         <v>12</v>
@@ -23139,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -23155,7 +23178,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I41" s="26" t="s">
         <v>875</v>
@@ -23174,7 +23197,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I42" s="26" t="s">
         <v>875</v>
@@ -23193,7 +23216,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I43" s="26" t="s">
         <v>879</v>
@@ -23212,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>879</v>
@@ -23271,7 +23294,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="35" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B48" t="s">
         <v>848</v>
@@ -23284,7 +23307,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -23300,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -23417,7 +23440,7 @@
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1">
       <c r="A58" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C58" s="19">
         <v>1929</v>
@@ -23442,11 +23465,11 @@
       </c>
       <c r="E59" s="23">
         <f>SUM(Table13[Automated Case '#])</f>
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="F59" s="24">
         <f>ROUNDUP(E59/D59 * 100, 0)</f>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G59" s="24"/>
       <c r="H59" s="23"/>
